--- a/Visualization/src/temp_processed_Day9_transients.xlsx
+++ b/Visualization/src/temp_processed_Day9_transients.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -542,13 +542,13 @@
         <v>309</v>
       </c>
       <c r="G2" t="n">
-        <v>0.921571896528838</v>
+        <v>0.921571896528927</v>
       </c>
       <c r="H2" t="n">
-        <v>1.457347006269509</v>
+        <v>1.457347006269651</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.021397630825033</v>
+        <v>-1.021397630825133</v>
       </c>
       <c r="J2" t="n">
         <v>207</v>
@@ -563,10 +563,10 @@
         <v>174</v>
       </c>
       <c r="N2" t="n">
-        <v>236.6053758275534</v>
+        <v>236.6053758275765</v>
       </c>
       <c r="O2" t="n">
-        <v>4.374378771306707</v>
+        <v>4.374378771306719</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -599,19 +599,19 @@
         <v>958</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7829648294768243</v>
+        <v>0.7829648294768994</v>
       </c>
       <c r="H3" t="n">
-        <v>1.938974534165468</v>
+        <v>1.938974534165656</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.021397630825033</v>
+        <v>-1.021397630825133</v>
       </c>
       <c r="J3" t="n">
         <v>476</v>
       </c>
       <c r="K3" t="n">
-        <v>31.41867527476296</v>
+        <v>31.41867527476307</v>
       </c>
       <c r="L3" t="n">
         <v>32</v>
@@ -620,10 +620,10 @@
         <v>446</v>
       </c>
       <c r="N3" t="n">
-        <v>327.4759684113861</v>
+        <v>327.475968411418</v>
       </c>
       <c r="O3" t="n">
-        <v>3.71645960737695</v>
+        <v>3.716459607376957</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -656,13 +656,13 @@
         <v>1080</v>
       </c>
       <c r="G4" t="n">
-        <v>1.027115680641824</v>
+        <v>1.027115680641922</v>
       </c>
       <c r="H4" t="n">
-        <v>1.327940890768092</v>
+        <v>1.32794089076822</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.021397630825033</v>
+        <v>-1.021397630825133</v>
       </c>
       <c r="J4" t="n">
         <v>122</v>
@@ -677,10 +677,10 @@
         <v>47</v>
       </c>
       <c r="N4" t="n">
-        <v>184.4079808721118</v>
+        <v>184.4079808721297</v>
       </c>
       <c r="O4" t="n">
-        <v>4.875358120184644</v>
+        <v>4.875358120184654</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -713,13 +713,13 @@
         <v>1155</v>
       </c>
       <c r="G5" t="n">
-        <v>1.297048387723839</v>
+        <v>1.297048387723964</v>
       </c>
       <c r="H5" t="n">
-        <v>2.189838289570201</v>
+        <v>2.189838289570414</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.021397630825033</v>
+        <v>-1.021397630825133</v>
       </c>
       <c r="J5" t="n">
         <v>197</v>
@@ -734,10 +734,10 @@
         <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>366.3971877016871</v>
+        <v>366.3971877017228</v>
       </c>
       <c r="O5" t="n">
-        <v>6.15663406619432</v>
+        <v>6.156634066194336</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -770,13 +770,13 @@
         <v>1253</v>
       </c>
       <c r="G6" t="n">
-        <v>1.868214249604969</v>
+        <v>1.868214249605149</v>
       </c>
       <c r="H6" t="n">
-        <v>2.526862808090702</v>
+        <v>2.526862808090947</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.021397630825033</v>
+        <v>-1.021397630825133</v>
       </c>
       <c r="J6" t="n">
         <v>295</v>
@@ -791,10 +791,10 @@
         <v>66</v>
       </c>
       <c r="N6" t="n">
-        <v>626.7397112380498</v>
+        <v>626.7397112381109</v>
       </c>
       <c r="O6" t="n">
-        <v>8.867758212360958</v>
+        <v>8.867758212360982</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -827,13 +827,13 @@
         <v>2887</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9456037553166301</v>
+        <v>0.9456037553167218</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.1837084798131859</v>
+        <v>-0.183708479813204</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.021397630825033</v>
+        <v>-1.021397630825133</v>
       </c>
       <c r="J7" t="n">
         <v>326</v>
@@ -848,10 +848,10 @@
         <v>224</v>
       </c>
       <c r="N7" t="n">
-        <v>104.5958567436602</v>
+        <v>104.5958567436704</v>
       </c>
       <c r="O7" t="n">
-        <v>4.488449581530323</v>
+        <v>4.488449581530336</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -884,13 +884,13 @@
         <v>253</v>
       </c>
       <c r="G8" t="n">
-        <v>1.864087602170924</v>
+        <v>1.864087602171105</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9148928274653045</v>
+        <v>0.9148928274653932</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.095730557663665</v>
+        <v>-1.095730557663772</v>
       </c>
       <c r="J8" t="n">
         <v>242</v>
@@ -905,10 +905,10 @@
         <v>109</v>
       </c>
       <c r="N8" t="n">
-        <v>169.4466144689301</v>
+        <v>169.4466144689482</v>
       </c>
       <c r="O8" t="n">
-        <v>6.895329211159494</v>
+        <v>6.89532921115955</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -941,13 +941,13 @@
         <v>2170</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7382476525408999</v>
+        <v>0.7382476525409714</v>
       </c>
       <c r="H9" t="n">
-        <v>1.042150427149678</v>
+        <v>1.042150427149779</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.095730557663665</v>
+        <v>-1.095730557663772</v>
       </c>
       <c r="J9" t="n">
         <v>269</v>
@@ -962,10 +962,10 @@
         <v>237</v>
       </c>
       <c r="N9" t="n">
-        <v>352.4523701654571</v>
+        <v>352.4523701654915</v>
       </c>
       <c r="O9" t="n">
-        <v>2.730805460916547</v>
+        <v>2.730805460916569</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -998,13 +998,13 @@
         <v>2170</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8162147821362862</v>
+        <v>0.816214782136365</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5118683372671765</v>
+        <v>0.511868337267226</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.095730557663665</v>
+        <v>-1.095730557663772</v>
       </c>
       <c r="J10" t="n">
         <v>94</v>
@@ -1019,10 +1019,10 @@
         <v>63</v>
       </c>
       <c r="N10" t="n">
-        <v>96.16765604113318</v>
+        <v>96.16765604114256</v>
       </c>
       <c r="O10" t="n">
-        <v>3.019208766417439</v>
+        <v>3.019208766417462</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1055,13 +1055,13 @@
         <v>2372</v>
       </c>
       <c r="G11" t="n">
-        <v>1.114588119508236</v>
+        <v>1.114588119508344</v>
       </c>
       <c r="H11" t="n">
-        <v>1.498747305786884</v>
+        <v>1.49874730578703</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.095730557663665</v>
+        <v>-1.095730557663772</v>
       </c>
       <c r="J11" t="n">
         <v>202</v>
@@ -1076,10 +1076,10 @@
         <v>108</v>
       </c>
       <c r="N11" t="n">
-        <v>387.8749953270237</v>
+        <v>387.8749953270616</v>
       </c>
       <c r="O11" t="n">
-        <v>4.122902813100606</v>
+        <v>4.122902813100639</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1112,13 +1112,13 @@
         <v>2567</v>
       </c>
       <c r="G12" t="n">
-        <v>1.374280872701589</v>
+        <v>1.374280872701722</v>
       </c>
       <c r="H12" t="n">
-        <v>1.815318658470286</v>
+        <v>1.815318658470462</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.095730557663665</v>
+        <v>-1.095730557663772</v>
       </c>
       <c r="J12" t="n">
         <v>397</v>
@@ -1133,10 +1133,10 @@
         <v>162</v>
       </c>
       <c r="N12" t="n">
-        <v>822.4642667000824</v>
+        <v>822.4642667001625</v>
       </c>
       <c r="O12" t="n">
-        <v>5.083515943586074</v>
+        <v>5.083515943586114</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1169,13 +1169,13 @@
         <v>2567</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9409129391659294</v>
+        <v>0.9409129391660206</v>
       </c>
       <c r="H13" t="n">
-        <v>1.810320015161453</v>
+        <v>1.810320015161629</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.095730557663665</v>
+        <v>-1.095730557663772</v>
       </c>
       <c r="J13" t="n">
         <v>118</v>
@@ -1190,10 +1190,10 @@
         <v>84</v>
       </c>
       <c r="N13" t="n">
-        <v>258.0372338346432</v>
+        <v>258.0372338346684</v>
       </c>
       <c r="O13" t="n">
-        <v>3.480471876446649</v>
+        <v>3.480471876446676</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1226,13 +1226,13 @@
         <v>2705</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8850503186323667</v>
+        <v>0.8850503186324523</v>
       </c>
       <c r="H14" t="n">
-        <v>1.40277985778284</v>
+        <v>1.402779857782976</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.095730557663665</v>
+        <v>-1.095730557663772</v>
       </c>
       <c r="J14" t="n">
         <v>138</v>
@@ -1247,10 +1247,10 @@
         <v>101</v>
       </c>
       <c r="N14" t="n">
-        <v>279.4529659326045</v>
+        <v>279.4529659326318</v>
       </c>
       <c r="O14" t="n">
-        <v>3.273833970197823</v>
+        <v>3.273833970197849</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1283,13 +1283,13 @@
         <v>2998</v>
       </c>
       <c r="G15" t="n">
-        <v>1.518246082847231</v>
+        <v>1.518246082847378</v>
       </c>
       <c r="H15" t="n">
-        <v>2.233756217476975</v>
+        <v>2.233756217477193</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.095730557663665</v>
+        <v>-1.095730557663772</v>
       </c>
       <c r="J15" t="n">
         <v>144</v>
@@ -1304,10 +1304,10 @@
         <v>106</v>
       </c>
       <c r="N15" t="n">
-        <v>370.3386793655023</v>
+        <v>370.3386793655366</v>
       </c>
       <c r="O15" t="n">
-        <v>5.616048598034221</v>
+        <v>5.616048598034266</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1340,19 +1340,19 @@
         <v>49</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6230768067647405</v>
+        <v>0.6230768067647992</v>
       </c>
       <c r="H16" t="n">
-        <v>3.494191107876473</v>
+        <v>3.494191107876812</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.5706944230057824</v>
+        <v>-0.5706944230058381</v>
       </c>
       <c r="J16" t="n">
         <v>49</v>
       </c>
       <c r="K16" t="n">
-        <v>13.07383361968349</v>
+        <v>13.0738336196835</v>
       </c>
       <c r="L16" t="n">
         <v>36</v>
@@ -1361,10 +1361,10 @@
         <v>15</v>
       </c>
       <c r="N16" t="n">
-        <v>124.7261801837584</v>
+        <v>124.7261801837688</v>
       </c>
       <c r="O16" t="n">
-        <v>6.035657550387251</v>
+        <v>6.035657550387299</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1397,13 +1397,13 @@
         <v>607</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2673576012683215</v>
+        <v>0.2673576012683473</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.2255905552778726</v>
+        <v>-0.2255905552778947</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.5706944230057824</v>
+        <v>-0.5706944230058381</v>
       </c>
       <c r="J17" t="n">
         <v>65</v>
@@ -1418,10 +1418,10 @@
         <v>34</v>
       </c>
       <c r="N17" t="n">
-        <v>12.7465027749739</v>
+        <v>12.74650277497514</v>
       </c>
       <c r="O17" t="n">
-        <v>2.589855547869649</v>
+        <v>2.589855547869676</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -1454,13 +1454,13 @@
         <v>1002</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3769099510661895</v>
+        <v>0.3769099510662262</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.1398075889468072</v>
+        <v>-0.1398075889468209</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5706944230057824</v>
+        <v>-0.5706944230058381</v>
       </c>
       <c r="J18" t="n">
         <v>395</v>
@@ -1475,10 +1475,10 @@
         <v>336</v>
       </c>
       <c r="N18" t="n">
-        <v>68.95674259774508</v>
+        <v>68.95674259775178</v>
       </c>
       <c r="O18" t="n">
-        <v>3.651073779781512</v>
+        <v>3.651073779781553</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -1511,13 +1511,13 @@
         <v>1464</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4858235163924068</v>
+        <v>0.4858235163924539</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.1992791093153439</v>
+        <v>-0.1992791093153635</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.5706944230057824</v>
+        <v>-0.5706944230058381</v>
       </c>
       <c r="J19" t="n">
         <v>462</v>
@@ -1532,10 +1532,10 @@
         <v>258</v>
       </c>
       <c r="N19" t="n">
-        <v>26.484853340949</v>
+        <v>26.48485334095157</v>
       </c>
       <c r="O19" t="n">
-        <v>4.706104196198512</v>
+        <v>4.706104196198563</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
@@ -1568,13 +1568,13 @@
         <v>1637</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3101744744950719</v>
+        <v>0.310174474495102</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.3079504554977121</v>
+        <v>-0.3079504554977422</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.5706944230057824</v>
+        <v>-0.5706944230058381</v>
       </c>
       <c r="J20" t="n">
         <v>173</v>
@@ -1589,10 +1589,10 @@
         <v>120</v>
       </c>
       <c r="N20" t="n">
-        <v>10.26231006280349</v>
+        <v>10.26231006280449</v>
       </c>
       <c r="O20" t="n">
-        <v>3.004616587550887</v>
+        <v>3.00461658755092</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -1625,13 +1625,13 @@
         <v>2624</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2543919627628446</v>
+        <v>0.2543919627628691</v>
       </c>
       <c r="H21" t="n">
-        <v>0.05454683598885617</v>
+        <v>0.05454683598886131</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.5706944230057824</v>
+        <v>-0.5706944230058381</v>
       </c>
       <c r="J21" t="n">
         <v>364</v>
@@ -1646,10 +1646,10 @@
         <v>259</v>
       </c>
       <c r="N21" t="n">
-        <v>93.3028175046265</v>
+        <v>93.3028175046356</v>
       </c>
       <c r="O21" t="n">
-        <v>2.464259227975301</v>
+        <v>2.464259227975327</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -1682,13 +1682,13 @@
         <v>2777</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2492282743806603</v>
+        <v>0.2492282743806843</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.272989341182079</v>
+        <v>-0.2729893411821057</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.5706944230057824</v>
+        <v>-0.5706944230058381</v>
       </c>
       <c r="J22" t="n">
         <v>153</v>
@@ -1703,10 +1703,10 @@
         <v>32</v>
       </c>
       <c r="N22" t="n">
-        <v>19.40659903950756</v>
+        <v>19.40659903950945</v>
       </c>
       <c r="O22" t="n">
-        <v>2.414239303572072</v>
+        <v>2.414239303572097</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
@@ -1739,13 +1739,13 @@
         <v>184</v>
       </c>
       <c r="G23" t="n">
-        <v>1.387732424690657</v>
+        <v>1.387732424690792</v>
       </c>
       <c r="H23" t="n">
-        <v>2.148074335529372</v>
+        <v>2.148074335529581</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.122561337639991</v>
+        <v>-1.1225613376401</v>
       </c>
       <c r="J23" t="n">
         <v>184</v>
@@ -1760,10 +1760,10 @@
         <v>124</v>
       </c>
       <c r="N23" t="n">
-        <v>482.0463410586937</v>
+        <v>482.0463410587399</v>
       </c>
       <c r="O23" t="n">
-        <v>3.738383213389288</v>
+        <v>3.738383213389291</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -1796,19 +1796,19 @@
         <v>379</v>
       </c>
       <c r="G24" t="n">
-        <v>2.136143728466998</v>
+        <v>2.136143728467204</v>
       </c>
       <c r="H24" t="n">
-        <v>2.157324118160184</v>
+        <v>2.157324118160394</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.122561337639991</v>
+        <v>-1.1225613376401</v>
       </c>
       <c r="J24" t="n">
         <v>379</v>
       </c>
       <c r="K24" t="n">
-        <v>114.0420564875208</v>
+        <v>114.0420564875209</v>
       </c>
       <c r="L24" t="n">
         <v>220</v>
@@ -1817,10 +1817,10 @@
         <v>161</v>
       </c>
       <c r="N24" t="n">
-        <v>945.455478695361</v>
+        <v>945.4554786954523</v>
       </c>
       <c r="O24" t="n">
-        <v>5.754512695534911</v>
+        <v>5.754512695534914</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -1853,13 +1853,13 @@
         <v>758</v>
       </c>
       <c r="G25" t="n">
-        <v>1.253780991133578</v>
+        <v>1.253780991133699</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9913667591352419</v>
+        <v>0.9913667591353379</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.122561337639991</v>
+        <v>-1.1225613376401</v>
       </c>
       <c r="J25" t="n">
         <v>84</v>
@@ -1874,10 +1874,10 @@
         <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>116.9256603570029</v>
+        <v>116.9256603570143</v>
       </c>
       <c r="O25" t="n">
-        <v>3.377534261740096</v>
+        <v>3.377534261740097</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -1910,13 +1910,13 @@
         <v>2595</v>
       </c>
       <c r="G26" t="n">
-        <v>1.245771168659804</v>
+        <v>1.245771168659925</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.1610292242098887</v>
+        <v>-0.1610292242099047</v>
       </c>
       <c r="I26" t="n">
-        <v>-1.122561337639991</v>
+        <v>-1.1225613376401</v>
       </c>
       <c r="J26" t="n">
         <v>432</v>
@@ -1931,10 +1931,10 @@
         <v>234</v>
       </c>
       <c r="N26" t="n">
-        <v>7.242679278504554</v>
+        <v>7.242679278505264</v>
       </c>
       <c r="O26" t="n">
-        <v>3.355956769317622</v>
+        <v>3.355956769317625</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
@@ -1967,13 +1967,13 @@
         <v>1078</v>
       </c>
       <c r="G27" t="n">
-        <v>1.984813299587628</v>
+        <v>1.984813299587821</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6316877593631458</v>
+        <v>0.631687759363207</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.221992807948608</v>
+        <v>-1.221992807948727</v>
       </c>
       <c r="J27" t="n">
         <v>406</v>
@@ -1988,10 +1988,10 @@
         <v>177</v>
       </c>
       <c r="N27" t="n">
-        <v>343.5310500078774</v>
+        <v>343.5310500079109</v>
       </c>
       <c r="O27" t="n">
-        <v>4.934239649364812</v>
+        <v>4.934239649364824</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2024,13 +2024,13 @@
         <v>1805</v>
       </c>
       <c r="G28" t="n">
-        <v>1.834139770328906</v>
+        <v>1.834139770329084</v>
       </c>
       <c r="H28" t="n">
-        <v>1.60985574725909</v>
+        <v>1.609855747259247</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.221992807948608</v>
+        <v>-1.221992807948727</v>
       </c>
       <c r="J28" t="n">
         <v>403</v>
@@ -2045,10 +2045,10 @@
         <v>246</v>
       </c>
       <c r="N28" t="n">
-        <v>645.0636979013392</v>
+        <v>645.0636979014022</v>
       </c>
       <c r="O28" t="n">
-        <v>4.559665727307468</v>
+        <v>4.559665727307481</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -2081,13 +2081,13 @@
         <v>2656</v>
       </c>
       <c r="G29" t="n">
-        <v>1.633727453686231</v>
+        <v>1.633727453686389</v>
       </c>
       <c r="H29" t="n">
-        <v>1.961745191531829</v>
+        <v>1.96174519153202</v>
       </c>
       <c r="I29" t="n">
-        <v>-1.221992807948608</v>
+        <v>-1.221992807948727</v>
       </c>
       <c r="J29" t="n">
         <v>477</v>
@@ -2102,10 +2102,10 @@
         <v>139</v>
       </c>
       <c r="N29" t="n">
-        <v>720.581197274794</v>
+        <v>720.5811972748643</v>
       </c>
       <c r="O29" t="n">
-        <v>4.061441335519687</v>
+        <v>4.061441335519698</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
@@ -2138,19 +2138,19 @@
         <v>244</v>
       </c>
       <c r="G30" t="n">
-        <v>2.279745707942375</v>
+        <v>2.279745707942595</v>
       </c>
       <c r="H30" t="n">
-        <v>1.899980099798047</v>
+        <v>1.899980099798232</v>
       </c>
       <c r="I30" t="n">
-        <v>-1.072726805051294</v>
+        <v>-1.072726805051399</v>
       </c>
       <c r="J30" t="n">
         <v>152</v>
       </c>
       <c r="K30" t="n">
-        <v>68.34803852247008</v>
+        <v>68.34803852247006</v>
       </c>
       <c r="L30" t="n">
         <v>38</v>
@@ -2159,10 +2159,10 @@
         <v>116</v>
       </c>
       <c r="N30" t="n">
-        <v>267.6799296620073</v>
+        <v>267.6799296620334</v>
       </c>
       <c r="O30" t="n">
-        <v>5.662015162326458</v>
+        <v>5.662015162326452</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -2195,13 +2195,13 @@
         <v>608</v>
       </c>
       <c r="G31" t="n">
-        <v>3.114319077183872</v>
+        <v>3.114319077184173</v>
       </c>
       <c r="H31" t="n">
-        <v>2.368342007543008</v>
+        <v>2.368342007543238</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.072726805051294</v>
+        <v>-1.072726805051399</v>
       </c>
       <c r="J31" t="n">
         <v>516</v>
@@ -2216,10 +2216,10 @@
         <v>328</v>
       </c>
       <c r="N31" t="n">
-        <v>826.9735764031714</v>
+        <v>826.9735764032519</v>
       </c>
       <c r="O31" t="n">
-        <v>7.734775757622939</v>
+        <v>7.734775757622932</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -2252,13 +2252,13 @@
         <v>823</v>
       </c>
       <c r="G32" t="n">
-        <v>2.91179260696001</v>
+        <v>2.911792606960293</v>
       </c>
       <c r="H32" t="n">
-        <v>2.095507170233768</v>
+        <v>2.095507170233972</v>
       </c>
       <c r="I32" t="n">
-        <v>-1.072726805051294</v>
+        <v>-1.072726805051399</v>
       </c>
       <c r="J32" t="n">
         <v>215</v>
@@ -2273,10 +2273,10 @@
         <v>179</v>
       </c>
       <c r="N32" t="n">
-        <v>307.7745102895011</v>
+        <v>307.7745102895311</v>
       </c>
       <c r="O32" t="n">
-        <v>7.231777576209565</v>
+        <v>7.231777576209559</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -2309,13 +2309,13 @@
         <v>1405</v>
       </c>
       <c r="G33" t="n">
-        <v>2.576929434924949</v>
+        <v>2.576929434925199</v>
       </c>
       <c r="H33" t="n">
-        <v>1.874670493171892</v>
+        <v>1.874670493172074</v>
       </c>
       <c r="I33" t="n">
-        <v>-1.072726805051294</v>
+        <v>-1.072726805051399</v>
       </c>
       <c r="J33" t="n">
         <v>384</v>
@@ -2330,10 +2330,10 @@
         <v>349</v>
       </c>
       <c r="N33" t="n">
-        <v>375.9995991727367</v>
+        <v>375.9995991727734</v>
       </c>
       <c r="O33" t="n">
-        <v>6.400105714404189</v>
+        <v>6.400105714404183</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -2366,13 +2366,13 @@
         <v>1525</v>
       </c>
       <c r="G34" t="n">
-        <v>1.990553020374575</v>
+        <v>1.990553020374767</v>
       </c>
       <c r="H34" t="n">
-        <v>1.66679923695864</v>
+        <v>1.666799236958801</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.072726805051294</v>
+        <v>-1.072726805051399</v>
       </c>
       <c r="J34" t="n">
         <v>120</v>
@@ -2387,10 +2387,10 @@
         <v>83</v>
       </c>
       <c r="N34" t="n">
-        <v>190.0222400972995</v>
+        <v>190.022240097318</v>
       </c>
       <c r="O34" t="n">
-        <v>4.943771291469171</v>
+        <v>4.943771291469165</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
@@ -2423,13 +2423,13 @@
         <v>2893</v>
       </c>
       <c r="G35" t="n">
-        <v>2.458880920569542</v>
+        <v>2.45888092056978</v>
       </c>
       <c r="H35" t="n">
-        <v>1.61006055927357</v>
+        <v>1.610060559273726</v>
       </c>
       <c r="I35" t="n">
-        <v>-1.072726805051294</v>
+        <v>-1.072726805051399</v>
       </c>
       <c r="J35" t="n">
         <v>356</v>
@@ -2444,10 +2444,10 @@
         <v>235</v>
       </c>
       <c r="N35" t="n">
-        <v>225.4886117737848</v>
+        <v>225.4886117738068</v>
       </c>
       <c r="O35" t="n">
-        <v>6.106918419066017</v>
+        <v>6.106918419066012</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -2480,13 +2480,13 @@
         <v>966</v>
       </c>
       <c r="G36" t="n">
-        <v>1.902351159724138</v>
+        <v>1.902351159724322</v>
       </c>
       <c r="H36" t="n">
-        <v>1.630358459588471</v>
+        <v>1.63035845958863</v>
       </c>
       <c r="I36" t="n">
-        <v>-1.460730263258725</v>
+        <v>-1.460730263258867</v>
       </c>
       <c r="J36" t="n">
         <v>485</v>
@@ -2501,10 +2501,10 @@
         <v>360</v>
       </c>
       <c r="N36" t="n">
-        <v>858.517989501292</v>
+        <v>858.5179895013757</v>
       </c>
       <c r="O36" t="n">
-        <v>3.257760553181389</v>
+        <v>3.257760553181385</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
@@ -2537,13 +2537,13 @@
         <v>1201</v>
       </c>
       <c r="G37" t="n">
-        <v>1.823179159823809</v>
+        <v>1.823179159823986</v>
       </c>
       <c r="H37" t="n">
-        <v>1.163849196355149</v>
+        <v>1.163849196355262</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.460730263258725</v>
+        <v>-1.460730263258867</v>
       </c>
       <c r="J37" t="n">
         <v>235</v>
@@ -2558,10 +2558,10 @@
         <v>199</v>
       </c>
       <c r="N37" t="n">
-        <v>321.8997522309216</v>
+        <v>321.899752230953</v>
       </c>
       <c r="O37" t="n">
-        <v>3.122179161242598</v>
+        <v>3.122179161242594</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -2594,13 +2594,13 @@
         <v>2743</v>
       </c>
       <c r="G38" t="n">
-        <v>1.718451648287228</v>
+        <v>1.718451648287394</v>
       </c>
       <c r="H38" t="n">
-        <v>1.133889147708337</v>
+        <v>1.133889147708447</v>
       </c>
       <c r="I38" t="n">
-        <v>-1.460730263258725</v>
+        <v>-1.460730263258867</v>
       </c>
       <c r="J38" t="n">
         <v>485</v>
@@ -2615,10 +2615,10 @@
         <v>135</v>
       </c>
       <c r="N38" t="n">
-        <v>363.1788438558077</v>
+        <v>363.178843855843</v>
       </c>
       <c r="O38" t="n">
-        <v>2.942834167983732</v>
+        <v>2.942834167983727</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
@@ -2651,13 +2651,13 @@
         <v>2100</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4652349996758872</v>
+        <v>0.4652349996759324</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.2234328505811339</v>
+        <v>-0.2234328505811558</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.7543860666641129</v>
+        <v>-0.7543860666641863</v>
       </c>
       <c r="J39" t="n">
         <v>313</v>
@@ -2672,10 +2672,10 @@
         <v>126</v>
       </c>
       <c r="N39" t="n">
-        <v>84.74958371935699</v>
+        <v>84.74958371936521</v>
       </c>
       <c r="O39" t="n">
-        <v>3.937789715101956</v>
+        <v>3.937789715101979</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
@@ -2708,13 +2708,13 @@
         <v>2491</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8588266548147814</v>
+        <v>0.8588266548148646</v>
       </c>
       <c r="H40" t="n">
-        <v>2.276939537448434</v>
+        <v>2.276939537448656</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.7543860666641129</v>
+        <v>-0.7543860666641863</v>
       </c>
       <c r="J40" t="n">
         <v>82</v>
@@ -2729,10 +2729,10 @@
         <v>46</v>
       </c>
       <c r="N40" t="n">
-        <v>213.7527260049282</v>
+        <v>213.752726004949</v>
       </c>
       <c r="O40" t="n">
-        <v>7.269183897903424</v>
+        <v>7.269183897903465</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -2765,19 +2765,19 @@
         <v>2913</v>
       </c>
       <c r="G41" t="n">
-        <v>1.328711055473226</v>
+        <v>1.328711055473354</v>
       </c>
       <c r="H41" t="n">
-        <v>2.68265809799839</v>
+        <v>2.682658097998651</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.7543860666641129</v>
+        <v>-0.7543860666641863</v>
       </c>
       <c r="J41" t="n">
         <v>504</v>
       </c>
       <c r="K41" t="n">
-        <v>49.65525741178999</v>
+        <v>49.65525741179044</v>
       </c>
       <c r="L41" t="n">
         <v>117</v>
@@ -2786,10 +2786,10 @@
         <v>389</v>
       </c>
       <c r="N41" t="n">
-        <v>904.787331549262</v>
+        <v>904.7873315493501</v>
       </c>
       <c r="O41" t="n">
-        <v>11.24632654944235</v>
+        <v>11.2463265494424</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
@@ -2822,13 +2822,13 @@
         <v>1001</v>
       </c>
       <c r="G42" t="n">
-        <v>2.065006349182533</v>
+        <v>2.065006349182733</v>
       </c>
       <c r="H42" t="n">
-        <v>1.374753614163736</v>
+        <v>1.374753614163869</v>
       </c>
       <c r="I42" t="n">
-        <v>-1.072829294918948</v>
+        <v>-1.072829294919053</v>
       </c>
       <c r="J42" t="n">
         <v>351</v>
@@ -2843,10 +2843,10 @@
         <v>318</v>
       </c>
       <c r="N42" t="n">
-        <v>286.1537211342082</v>
+        <v>286.1537211342361</v>
       </c>
       <c r="O42" t="n">
-        <v>5.297291174763274</v>
+        <v>5.297291174763444</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
@@ -2879,13 +2879,13 @@
         <v>1363</v>
       </c>
       <c r="G43" t="n">
-        <v>1.837664653341745</v>
+        <v>1.837664653341923</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5465428800397272</v>
+        <v>0.5465428800397799</v>
       </c>
       <c r="I43" t="n">
-        <v>-1.072829294918948</v>
+        <v>-1.072829294919053</v>
       </c>
       <c r="J43" t="n">
         <v>362</v>
@@ -2900,10 +2900,10 @@
         <v>282</v>
       </c>
       <c r="N43" t="n">
-        <v>104.6062913857211</v>
+        <v>104.6062913857313</v>
       </c>
       <c r="O43" t="n">
-        <v>4.714099186268971</v>
+        <v>4.714099186269122</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -2936,13 +2936,13 @@
         <v>1582</v>
       </c>
       <c r="G44" t="n">
-        <v>1.894857786223992</v>
+        <v>1.894857786224176</v>
       </c>
       <c r="H44" t="n">
-        <v>1.091379940334813</v>
+        <v>1.091379940334918</v>
       </c>
       <c r="I44" t="n">
-        <v>-1.072829294918948</v>
+        <v>-1.072829294919053</v>
       </c>
       <c r="J44" t="n">
         <v>581</v>
@@ -2957,10 +2957,10 @@
         <v>78</v>
       </c>
       <c r="N44" t="n">
-        <v>340.943651827052</v>
+        <v>340.9436518270851</v>
       </c>
       <c r="O44" t="n">
-        <v>4.860814802031665</v>
+        <v>4.860814802031822</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
@@ -2993,13 +2993,13 @@
         <v>2624</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9519787761986748</v>
+        <v>0.9519787761987669</v>
       </c>
       <c r="H45" t="n">
-        <v>1.680180162658634</v>
+        <v>1.680180162658798</v>
       </c>
       <c r="I45" t="n">
-        <v>-1.072829294918948</v>
+        <v>-1.072829294919053</v>
       </c>
       <c r="J45" t="n">
         <v>486</v>
@@ -3014,10 +3014,10 @@
         <v>411</v>
       </c>
       <c r="N45" t="n">
-        <v>699.6204053071403</v>
+        <v>699.6204053072086</v>
       </c>
       <c r="O45" t="n">
-        <v>2.442079062718379</v>
+        <v>2.442079062718457</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
@@ -3050,19 +3050,19 @@
         <v>2985</v>
       </c>
       <c r="G46" t="n">
-        <v>1.972839986415196</v>
+        <v>1.972839986415326</v>
       </c>
       <c r="H46" t="n">
-        <v>1.348568103824834</v>
+        <v>1.348568103824965</v>
       </c>
       <c r="I46" t="n">
-        <v>-1.072829294918948</v>
+        <v>-1.072829294919053</v>
       </c>
       <c r="J46" t="n">
         <v>361</v>
       </c>
       <c r="K46" t="n">
-        <v>80.15498772310502</v>
+        <v>80.1549877231032</v>
       </c>
       <c r="L46" t="n">
         <v>58</v>
@@ -3071,10 +3071,10 @@
         <v>305</v>
       </c>
       <c r="N46" t="n">
-        <v>396.4314653833703</v>
+        <v>396.4314653834097</v>
       </c>
       <c r="O46" t="n">
-        <v>5.060859911348167</v>
+        <v>5.060859911348173</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
@@ -3107,13 +3107,13 @@
         <v>2985</v>
       </c>
       <c r="G47" t="n">
-        <v>1.162381902327018</v>
+        <v>1.162381902327131</v>
       </c>
       <c r="H47" t="n">
-        <v>0.7416268728708114</v>
+        <v>0.7416268728708834</v>
       </c>
       <c r="I47" t="n">
-        <v>-1.072829294918948</v>
+        <v>-1.072829294919053</v>
       </c>
       <c r="J47" t="n">
         <v>203</v>
@@ -3128,10 +3128,10 @@
         <v>143</v>
       </c>
       <c r="N47" t="n">
-        <v>190.3403759438916</v>
+        <v>190.3403759439108</v>
       </c>
       <c r="O47" t="n">
-        <v>2.981819109340267</v>
+        <v>2.981819109340363</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
@@ -3164,19 +3164,19 @@
         <v>854</v>
       </c>
       <c r="G48" t="n">
-        <v>1.331910309414141</v>
+        <v>1.33191030941427</v>
       </c>
       <c r="H48" t="n">
-        <v>0.5009337239088386</v>
+        <v>0.5009337239088869</v>
       </c>
       <c r="I48" t="n">
-        <v>-1.091418977663921</v>
+        <v>-1.091418977664006</v>
       </c>
       <c r="J48" t="n">
         <v>124</v>
       </c>
       <c r="K48" t="n">
-        <v>36.82473928042793</v>
+        <v>36.82473928042805</v>
       </c>
       <c r="L48" t="n">
         <v>34</v>
@@ -3185,10 +3185,10 @@
         <v>92</v>
       </c>
       <c r="N48" t="n">
-        <v>100.9072169548284</v>
+        <v>100.9072169548357</v>
       </c>
       <c r="O48" t="n">
-        <v>3.869552746174979</v>
+        <v>3.869552746175008</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
@@ -3221,13 +3221,13 @@
         <v>988</v>
       </c>
       <c r="G49" t="n">
-        <v>2.456975249669909</v>
+        <v>2.456975249670147</v>
       </c>
       <c r="H49" t="n">
-        <v>2.332173206073302</v>
+        <v>2.332173206073529</v>
       </c>
       <c r="I49" t="n">
-        <v>-1.091418977663921</v>
+        <v>-1.091418977664006</v>
       </c>
       <c r="J49" t="n">
         <v>258</v>
@@ -3242,10 +3242,10 @@
         <v>66</v>
       </c>
       <c r="N49" t="n">
-        <v>334.2575182228792</v>
+        <v>334.2575182229064</v>
       </c>
       <c r="O49" t="n">
-        <v>7.138164827950097</v>
+        <v>7.138164827950149</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
@@ -3278,19 +3278,19 @@
         <v>1997</v>
       </c>
       <c r="G50" t="n">
-        <v>3.211303003964337</v>
+        <v>3.211303003964648</v>
       </c>
       <c r="H50" t="n">
-        <v>2.435579163215805</v>
+        <v>2.43557916321604</v>
       </c>
       <c r="I50" t="n">
-        <v>-1.091418977663921</v>
+        <v>-1.091418977664006</v>
       </c>
       <c r="J50" t="n">
         <v>434</v>
       </c>
       <c r="K50" t="n">
-        <v>64.82056586089948</v>
+        <v>64.82056586089971</v>
       </c>
       <c r="L50" t="n">
         <v>38</v>
@@ -3299,10 +3299,10 @@
         <v>398</v>
       </c>
       <c r="N50" t="n">
-        <v>488.7175708818142</v>
+        <v>488.7175708818528</v>
       </c>
       <c r="O50" t="n">
-        <v>9.329687044209487</v>
+        <v>9.329687044209555</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
@@ -3335,13 +3335,13 @@
         <v>2192</v>
       </c>
       <c r="G51" t="n">
-        <v>2.597482204954579</v>
+        <v>2.597482204954832</v>
       </c>
       <c r="H51" t="n">
-        <v>1.920007411785899</v>
+        <v>1.920007411786086</v>
       </c>
       <c r="I51" t="n">
-        <v>-1.091418977663921</v>
+        <v>-1.091418977664006</v>
       </c>
       <c r="J51" t="n">
         <v>195</v>
@@ -3356,10 +3356,10 @@
         <v>160</v>
       </c>
       <c r="N51" t="n">
-        <v>274.5418206472101</v>
+        <v>274.5418206472327</v>
       </c>
       <c r="O51" t="n">
-        <v>7.546374803378273</v>
+        <v>7.546374803378332</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
@@ -3392,13 +3392,13 @@
         <v>2984</v>
       </c>
       <c r="G52" t="n">
-        <v>1.837929621343465</v>
+        <v>1.837929621343643</v>
       </c>
       <c r="H52" t="n">
-        <v>2.165390522043535</v>
+        <v>2.165390522043745</v>
       </c>
       <c r="I52" t="n">
-        <v>-1.091418977663921</v>
+        <v>-1.091418977664006</v>
       </c>
       <c r="J52" t="n">
         <v>424</v>
@@ -3413,10 +3413,10 @@
         <v>389</v>
       </c>
       <c r="N52" t="n">
-        <v>456.5091055654099</v>
+        <v>456.5091055654466</v>
       </c>
       <c r="O52" t="n">
-        <v>5.339673072036091</v>
+        <v>5.339673072036129</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
@@ -3449,13 +3449,13 @@
         <v>1487</v>
       </c>
       <c r="G53" t="n">
-        <v>1.280947215162432</v>
+        <v>1.280947215162556</v>
       </c>
       <c r="H53" t="n">
-        <v>0.6908441043954915</v>
+        <v>0.6908441043955585</v>
       </c>
       <c r="I53" t="n">
-        <v>-1.308590018710212</v>
+        <v>-1.308590018710339</v>
       </c>
       <c r="J53" t="n">
         <v>356</v>
@@ -3470,10 +3470,10 @@
         <v>120</v>
       </c>
       <c r="N53" t="n">
-        <v>447.8854755777161</v>
+        <v>447.8854755777597</v>
       </c>
       <c r="O53" t="n">
-        <v>2.536895459416014</v>
+        <v>2.536895459416029</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
@@ -3506,19 +3506,19 @@
         <v>2998</v>
       </c>
       <c r="G54" t="n">
-        <v>1.426969273477458</v>
+        <v>1.426969273477631</v>
       </c>
       <c r="H54" t="n">
-        <v>1.773404036183067</v>
+        <v>1.77340403618324</v>
       </c>
       <c r="I54" t="n">
-        <v>-1.308590018710212</v>
+        <v>-1.308590018710339</v>
       </c>
       <c r="J54" t="n">
         <v>173</v>
       </c>
       <c r="K54" t="n">
-        <v>59.99257647276772</v>
+        <v>59.99257647276954</v>
       </c>
       <c r="L54" t="n">
         <v>63</v>
@@ -3527,10 +3527,10 @@
         <v>112</v>
       </c>
       <c r="N54" t="n">
-        <v>365.6849636619297</v>
+        <v>365.6849636619643</v>
       </c>
       <c r="O54" t="n">
-        <v>2.826089808979431</v>
+        <v>2.826089808979516</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
@@ -3563,19 +3563,19 @@
         <v>223</v>
       </c>
       <c r="G55" t="n">
-        <v>3.270979563928321</v>
+        <v>3.270979563928638</v>
       </c>
       <c r="H55" t="n">
-        <v>2.204052637729731</v>
+        <v>2.204052637729944</v>
       </c>
       <c r="I55" t="n">
-        <v>-1.026672110217521</v>
+        <v>-1.026672110217621</v>
       </c>
       <c r="J55" t="n">
         <v>223</v>
       </c>
       <c r="K55" t="n">
-        <v>67.67705710766589</v>
+        <v>67.67705710766562</v>
       </c>
       <c r="L55" t="n">
         <v>30</v>
@@ -3584,10 +3584,10 @@
         <v>195</v>
       </c>
       <c r="N55" t="n">
-        <v>259.4361246816994</v>
+        <v>259.4361246817234</v>
       </c>
       <c r="O55" t="n">
-        <v>12.74743027815861</v>
+        <v>12.74743027815868</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
@@ -3620,13 +3620,13 @@
         <v>329</v>
       </c>
       <c r="G56" t="n">
-        <v>1.395358541420684</v>
+        <v>1.395358541420818</v>
       </c>
       <c r="H56" t="n">
-        <v>1.497701001742397</v>
+        <v>1.497701001742542</v>
       </c>
       <c r="I56" t="n">
-        <v>-1.026672110217521</v>
+        <v>-1.026672110217621</v>
       </c>
       <c r="J56" t="n">
         <v>106</v>
@@ -3641,10 +3641,10 @@
         <v>71</v>
       </c>
       <c r="N56" t="n">
-        <v>162.6594363359677</v>
+        <v>162.6594363359835</v>
       </c>
       <c r="O56" t="n">
-        <v>5.4378926471896</v>
+        <v>5.437892647189626</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
@@ -3677,13 +3677,13 @@
         <v>667</v>
       </c>
       <c r="G57" t="n">
-        <v>0.6225769991256621</v>
+        <v>0.622576999125722</v>
       </c>
       <c r="H57" t="n">
-        <v>1.392075705952826</v>
+        <v>1.392075705952961</v>
       </c>
       <c r="I57" t="n">
-        <v>-1.026672110217521</v>
+        <v>-1.026672110217621</v>
       </c>
       <c r="J57" t="n">
         <v>172</v>
@@ -3698,10 +3698,10 @@
         <v>145</v>
       </c>
       <c r="N57" t="n">
-        <v>242.4886741426924</v>
+        <v>242.4886741427161</v>
       </c>
       <c r="O57" t="n">
-        <v>2.426263060967722</v>
+        <v>2.426263060967733</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
@@ -3734,13 +3734,13 @@
         <v>1020</v>
       </c>
       <c r="G58" t="n">
-        <v>2.820483783237064</v>
+        <v>2.820483783237338</v>
       </c>
       <c r="H58" t="n">
-        <v>2.204335413509058</v>
+        <v>2.204335413509272</v>
       </c>
       <c r="I58" t="n">
-        <v>-1.026672110217521</v>
+        <v>-1.026672110217621</v>
       </c>
       <c r="J58" t="n">
         <v>353</v>
@@ -3755,10 +3755,10 @@
         <v>290</v>
       </c>
       <c r="N58" t="n">
-        <v>536.9395722511575</v>
+        <v>536.9395722512099</v>
       </c>
       <c r="O58" t="n">
-        <v>10.99178997447243</v>
+        <v>10.99178997447249</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
@@ -3791,13 +3791,13 @@
         <v>1299</v>
       </c>
       <c r="G59" t="n">
-        <v>1.244752268857686</v>
+        <v>1.244752268857806</v>
       </c>
       <c r="H59" t="n">
-        <v>0.2750400418119939</v>
+        <v>0.2750400418120201</v>
       </c>
       <c r="I59" t="n">
-        <v>-1.026672110217521</v>
+        <v>-1.026672110217621</v>
       </c>
       <c r="J59" t="n">
         <v>279</v>
@@ -3812,10 +3812,10 @@
         <v>245</v>
       </c>
       <c r="N59" t="n">
-        <v>129.4114411056379</v>
+        <v>129.4114411056505</v>
       </c>
       <c r="O59" t="n">
-        <v>4.850960530547296</v>
+        <v>4.85096053054732</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
@@ -3848,13 +3848,13 @@
         <v>1427</v>
       </c>
       <c r="G60" t="n">
-        <v>2.47907841158213</v>
+        <v>2.479078411582371</v>
       </c>
       <c r="H60" t="n">
-        <v>2.272908515312233</v>
+        <v>2.272908515312454</v>
       </c>
       <c r="I60" t="n">
-        <v>-1.026672110217521</v>
+        <v>-1.026672110217621</v>
       </c>
       <c r="J60" t="n">
         <v>407</v>
@@ -3869,10 +3869,10 @@
         <v>91</v>
       </c>
       <c r="N60" t="n">
-        <v>363.3969869533377</v>
+        <v>363.3969869533731</v>
       </c>
       <c r="O60" t="n">
-        <v>9.661289099519399</v>
+        <v>9.661289099519452</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
@@ -3905,13 +3905,13 @@
         <v>2057</v>
       </c>
       <c r="G61" t="n">
-        <v>1.442442607568793</v>
+        <v>1.442442607568933</v>
       </c>
       <c r="H61" t="n">
-        <v>0.620899416040108</v>
+        <v>0.6208994160401681</v>
       </c>
       <c r="I61" t="n">
-        <v>-1.026672110217521</v>
+        <v>-1.026672110217621</v>
       </c>
       <c r="J61" t="n">
         <v>273</v>
@@ -3926,10 +3926,10 @@
         <v>237</v>
       </c>
       <c r="N61" t="n">
-        <v>174.1012070162579</v>
+        <v>174.1012070162749</v>
       </c>
       <c r="O61" t="n">
-        <v>5.621385340648808</v>
+        <v>5.621385340648838</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
@@ -3962,19 +3962,19 @@
         <v>253</v>
       </c>
       <c r="G62" t="n">
-        <v>1.246591635827619</v>
+        <v>1.24659163582774</v>
       </c>
       <c r="H62" t="n">
-        <v>0.6058781676823227</v>
+        <v>0.6058781676823815</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.9174457022704307</v>
+        <v>-0.9174457022705199</v>
       </c>
       <c r="J62" t="n">
         <v>195</v>
       </c>
       <c r="K62" t="n">
-        <v>47.92505134173186</v>
+        <v>47.92505134173187</v>
       </c>
       <c r="L62" t="n">
         <v>35</v>
@@ -3983,10 +3983,10 @@
         <v>162</v>
       </c>
       <c r="N62" t="n">
-        <v>128.6336399923262</v>
+        <v>128.6336399923387</v>
       </c>
       <c r="O62" t="n">
-        <v>5.511251390124528</v>
+        <v>5.51125139012449</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
@@ -4019,13 +4019,13 @@
         <v>337</v>
       </c>
       <c r="G63" t="n">
-        <v>1.322077122749499</v>
+        <v>1.322077122749628</v>
       </c>
       <c r="H63" t="n">
-        <v>2.209063456945109</v>
+        <v>2.209063456945324</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.9174457022704307</v>
+        <v>-0.9174457022705199</v>
       </c>
       <c r="J63" t="n">
         <v>84</v>
@@ -4040,10 +4040,10 @@
         <v>45</v>
       </c>
       <c r="N63" t="n">
-        <v>163.4856991193749</v>
+        <v>163.4856991193908</v>
       </c>
       <c r="O63" t="n">
-        <v>5.844976952510675</v>
+        <v>5.844976952510635</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -4076,13 +4076,13 @@
         <v>1477</v>
       </c>
       <c r="G64" t="n">
-        <v>1.098538441222027</v>
+        <v>1.098538441222134</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.0114953905802572</v>
+        <v>-0.01149539058025854</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.9174457022704307</v>
+        <v>-0.9174457022705199</v>
       </c>
       <c r="J64" t="n">
         <v>410</v>
@@ -4097,10 +4097,10 @@
         <v>309</v>
       </c>
       <c r="N64" t="n">
-        <v>137.964787929162</v>
+        <v>137.9647879291754</v>
       </c>
       <c r="O64" t="n">
-        <v>4.856699930663846</v>
+        <v>4.856699930663813</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
@@ -4133,13 +4133,13 @@
         <v>1699</v>
       </c>
       <c r="G65" t="n">
-        <v>0.594826252933037</v>
+        <v>0.5948262529330945</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.3581268684329386</v>
+        <v>-0.3581268684329738</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.9174457022704307</v>
+        <v>-0.9174457022705199</v>
       </c>
       <c r="J65" t="n">
         <v>222</v>
@@ -4154,10 +4154,10 @@
         <v>186</v>
       </c>
       <c r="N65" t="n">
-        <v>30.64889058404012</v>
+        <v>30.64889058404306</v>
       </c>
       <c r="O65" t="n">
-        <v>2.629760154923007</v>
+        <v>2.629760154922988</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
@@ -4190,13 +4190,13 @@
         <v>2812</v>
       </c>
       <c r="G66" t="n">
-        <v>1.165235216282325</v>
+        <v>1.165235216282439</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2973805098490529</v>
+        <v>0.2973805098490816</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.9174457022704307</v>
+        <v>-0.9174457022705199</v>
       </c>
       <c r="J66" t="n">
         <v>287</v>
@@ -4211,10 +4211,10 @@
         <v>189</v>
       </c>
       <c r="N66" t="n">
-        <v>123.5952535776086</v>
+        <v>123.5952535776206</v>
       </c>
       <c r="O66" t="n">
-        <v>5.151570106031141</v>
+        <v>5.151570106031106</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
@@ -4247,19 +4247,19 @@
         <v>2987</v>
       </c>
       <c r="G67" t="n">
-        <v>0.6621175143295591</v>
+        <v>0.6621175143295764</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1554977779597134</v>
+        <v>0.1554977779597283</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.9174457022704307</v>
+        <v>-0.9174457022705199</v>
       </c>
       <c r="J67" t="n">
         <v>175</v>
       </c>
       <c r="K67" t="n">
-        <v>71.03904311157521</v>
+        <v>71.03904311157339</v>
       </c>
       <c r="L67" t="n">
         <v>99</v>
@@ -4268,10 +4268,10 @@
         <v>78</v>
       </c>
       <c r="N67" t="n">
-        <v>95.44668092170087</v>
+        <v>95.44668092171071</v>
       </c>
       <c r="O67" t="n">
-        <v>2.927258587654428</v>
+        <v>2.927258587654201</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
@@ -4304,13 +4304,13 @@
         <v>499</v>
       </c>
       <c r="G68" t="n">
-        <v>2.108094926373722</v>
+        <v>2.108094926373925</v>
       </c>
       <c r="H68" t="n">
-        <v>2.638252370760619</v>
+        <v>2.638252370760875</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.9767737604011341</v>
+        <v>-0.9767737604012295</v>
       </c>
       <c r="J68" t="n">
         <v>408</v>
@@ -4325,7 +4325,7 @@
         <v>112</v>
       </c>
       <c r="N68" t="n">
-        <v>562.5488997159925</v>
+        <v>562.5488997160475</v>
       </c>
       <c r="O68" t="n">
         <v>9.794436593523429</v>
@@ -4361,13 +4361,13 @@
         <v>1130</v>
       </c>
       <c r="G69" t="n">
-        <v>2.408789021980813</v>
+        <v>2.408789021981046</v>
       </c>
       <c r="H69" t="n">
-        <v>1.704096239986027</v>
+        <v>1.704096239986192</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.9767737604011341</v>
+        <v>-0.9767737604012295</v>
       </c>
       <c r="J69" t="n">
         <v>330</v>
@@ -4382,10 +4382,10 @@
         <v>295</v>
       </c>
       <c r="N69" t="n">
-        <v>328.9540145387951</v>
+        <v>328.9540145388273</v>
       </c>
       <c r="O69" t="n">
-        <v>11.19149382117714</v>
+        <v>11.19149382117715</v>
       </c>
       <c r="P69" t="inlineStr">
         <is>
@@ -4418,13 +4418,13 @@
         <v>1229</v>
       </c>
       <c r="G70" t="n">
-        <v>1.139566346549151</v>
+        <v>1.139566346549261</v>
       </c>
       <c r="H70" t="n">
-        <v>1.522533613691375</v>
+        <v>1.522533613691523</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.9767737604011341</v>
+        <v>-0.9767737604012295</v>
       </c>
       <c r="J70" t="n">
         <v>99</v>
@@ -4439,10 +4439,10 @@
         <v>64</v>
       </c>
       <c r="N70" t="n">
-        <v>163.8821837940094</v>
+        <v>163.8821837940254</v>
       </c>
       <c r="O70" t="n">
-        <v>5.29454826049428</v>
+        <v>5.294548260494281</v>
       </c>
       <c r="P70" t="inlineStr">
         <is>
@@ -4475,13 +4475,13 @@
         <v>1512</v>
       </c>
       <c r="G71" t="n">
-        <v>2.219500743448887</v>
+        <v>2.219500743449103</v>
       </c>
       <c r="H71" t="n">
-        <v>1.760695106047736</v>
+        <v>1.760695106047908</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.9767737604011341</v>
+        <v>-0.9767737604012295</v>
       </c>
       <c r="J71" t="n">
         <v>382</v>
@@ -4496,10 +4496,10 @@
         <v>249</v>
       </c>
       <c r="N71" t="n">
-        <v>580.569446570845</v>
+        <v>580.5694465709016</v>
       </c>
       <c r="O71" t="n">
-        <v>10.31204004574052</v>
+        <v>10.31204004574053</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
@@ -4532,13 +4532,13 @@
         <v>2123</v>
       </c>
       <c r="G72" t="n">
-        <v>2.075467978228117</v>
+        <v>2.075467978228318</v>
       </c>
       <c r="H72" t="n">
-        <v>1.6829954432093</v>
+        <v>1.682995443209464</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.8742523419329957</v>
+        <v>-0.8742523419330809</v>
       </c>
       <c r="J72" t="n">
         <v>183</v>
@@ -4553,10 +4553,10 @@
         <v>101</v>
       </c>
       <c r="N72" t="n">
-        <v>301.0497847026205</v>
+        <v>301.0497847026498</v>
       </c>
       <c r="O72" t="n">
-        <v>9.378437554865538</v>
+        <v>9.378437554865712</v>
       </c>
       <c r="P72" t="inlineStr">
         <is>
@@ -4589,13 +4589,13 @@
         <v>361</v>
       </c>
       <c r="G73" t="n">
-        <v>2.462780382733576</v>
+        <v>2.462780382733815</v>
       </c>
       <c r="H73" t="n">
-        <v>1.829320646918256</v>
+        <v>1.829320646918433</v>
       </c>
       <c r="I73" t="n">
-        <v>-1.186844841245828</v>
+        <v>-1.186844841245942</v>
       </c>
       <c r="J73" t="n">
         <v>241</v>
@@ -4610,10 +4610,10 @@
         <v>151</v>
       </c>
       <c r="N73" t="n">
-        <v>288.2954168301261</v>
+        <v>288.295416830154</v>
       </c>
       <c r="O73" t="n">
-        <v>6.103217377247979</v>
+        <v>6.103217377248007</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
@@ -4646,13 +4646,13 @@
         <v>493</v>
       </c>
       <c r="G74" t="n">
-        <v>1.35437579439194</v>
+        <v>1.354375794392071</v>
       </c>
       <c r="H74" t="n">
-        <v>0.9308876935930759</v>
+        <v>0.9308876935931663</v>
       </c>
       <c r="I74" t="n">
-        <v>-1.186844841245828</v>
+        <v>-1.186844841245942</v>
       </c>
       <c r="J74" t="n">
         <v>132</v>
@@ -4667,10 +4667,10 @@
         <v>76</v>
       </c>
       <c r="N74" t="n">
-        <v>163.2245036023234</v>
+        <v>163.2245036023392</v>
       </c>
       <c r="O74" t="n">
-        <v>3.356389364479986</v>
+        <v>3.356389364480001</v>
       </c>
       <c r="P74" t="inlineStr">
         <is>
@@ -4703,13 +4703,13 @@
         <v>566</v>
       </c>
       <c r="G75" t="n">
-        <v>1.106409480008389</v>
+        <v>1.106409480008495</v>
       </c>
       <c r="H75" t="n">
-        <v>0.7155312290778886</v>
+        <v>0.7155312290779579</v>
       </c>
       <c r="I75" t="n">
-        <v>-1.186844841245828</v>
+        <v>-1.186844841245942</v>
       </c>
       <c r="J75" t="n">
         <v>73</v>
@@ -4724,10 +4724,10 @@
         <v>40</v>
       </c>
       <c r="N75" t="n">
-        <v>98.88647570425972</v>
+        <v>98.88647570426929</v>
       </c>
       <c r="O75" t="n">
-        <v>2.741883771724684</v>
+        <v>2.741883771724695</v>
       </c>
       <c r="P75" t="inlineStr">
         <is>
@@ -4760,13 +4760,13 @@
         <v>913</v>
       </c>
       <c r="G76" t="n">
-        <v>1.495531839438744</v>
+        <v>1.495531839438889</v>
       </c>
       <c r="H76" t="n">
-        <v>0.9862868773933209</v>
+        <v>0.9862868773934164</v>
       </c>
       <c r="I76" t="n">
-        <v>-1.186844841245828</v>
+        <v>-1.186844841245942</v>
       </c>
       <c r="J76" t="n">
         <v>109</v>
@@ -4781,10 +4781,10 @@
         <v>74</v>
       </c>
       <c r="N76" t="n">
-        <v>145.0027678161709</v>
+        <v>145.0027678161849</v>
       </c>
       <c r="O76" t="n">
-        <v>3.706199697984845</v>
+        <v>3.706199697984859</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
@@ -4817,13 +4817,13 @@
         <v>1405</v>
       </c>
       <c r="G77" t="n">
-        <v>2.249231249759085</v>
+        <v>2.249231249759303</v>
       </c>
       <c r="H77" t="n">
-        <v>1.464333823598586</v>
+        <v>1.464333823598728</v>
       </c>
       <c r="I77" t="n">
-        <v>-1.186844841245828</v>
+        <v>-1.186844841245942</v>
       </c>
       <c r="J77" t="n">
         <v>260</v>
@@ -4838,10 +4838,10 @@
         <v>225</v>
       </c>
       <c r="N77" t="n">
-        <v>352.2841935171421</v>
+        <v>352.2841935171762</v>
       </c>
       <c r="O77" t="n">
-        <v>5.574003815046584</v>
+        <v>5.574003815046608</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
@@ -4874,13 +4874,13 @@
         <v>1657</v>
       </c>
       <c r="G78" t="n">
-        <v>2.838337841321322</v>
+        <v>2.838337841321596</v>
       </c>
       <c r="H78" t="n">
-        <v>1.728729374953684</v>
+        <v>1.728729374953851</v>
       </c>
       <c r="I78" t="n">
-        <v>-1.186844841245828</v>
+        <v>-1.186844841245942</v>
       </c>
       <c r="J78" t="n">
         <v>512</v>
@@ -4895,10 +4895,10 @@
         <v>216</v>
       </c>
       <c r="N78" t="n">
-        <v>613.057696374759</v>
+        <v>613.0576963748182</v>
       </c>
       <c r="O78" t="n">
-        <v>7.033917013917847</v>
+        <v>7.033917013917878</v>
       </c>
       <c r="P78" t="inlineStr">
         <is>
@@ -4931,19 +4931,19 @@
         <v>2091</v>
       </c>
       <c r="G79" t="n">
-        <v>1.021940449927398</v>
+        <v>1.021940449927497</v>
       </c>
       <c r="H79" t="n">
-        <v>1.401881138137195</v>
+        <v>1.401881138137332</v>
       </c>
       <c r="I79" t="n">
-        <v>-1.186844841245828</v>
+        <v>-1.186844841245942</v>
       </c>
       <c r="J79" t="n">
         <v>287</v>
       </c>
       <c r="K79" t="n">
-        <v>33.83990219740872</v>
+        <v>33.83990219740895</v>
       </c>
       <c r="L79" t="n">
         <v>34</v>
@@ -4952,10 +4952,10 @@
         <v>255</v>
       </c>
       <c r="N79" t="n">
-        <v>359.4942016284404</v>
+        <v>359.4942016284751</v>
       </c>
       <c r="O79" t="n">
-        <v>2.532554163675198</v>
+        <v>2.532554163675209</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
@@ -4988,13 +4988,13 @@
         <v>2448</v>
       </c>
       <c r="G80" t="n">
-        <v>2.10979654143967</v>
+        <v>2.109796541439874</v>
       </c>
       <c r="H80" t="n">
-        <v>0.9677951649895383</v>
+        <v>0.9677951649896317</v>
       </c>
       <c r="I80" t="n">
-        <v>-1.186844841245828</v>
+        <v>-1.186844841245942</v>
       </c>
       <c r="J80" t="n">
         <v>357</v>
@@ -5009,10 +5009,10 @@
         <v>325</v>
       </c>
       <c r="N80" t="n">
-        <v>242.4590946794438</v>
+        <v>242.459094679467</v>
       </c>
       <c r="O80" t="n">
-        <v>5.228459266790119</v>
+        <v>5.228459266790142</v>
       </c>
       <c r="P80" t="inlineStr">
         <is>
@@ -5045,13 +5045,13 @@
         <v>759</v>
       </c>
       <c r="G81" t="n">
-        <v>1.190840839631519</v>
+        <v>1.190840839631634</v>
       </c>
       <c r="H81" t="n">
-        <v>0.8973270906828833</v>
+        <v>0.8973270906829703</v>
       </c>
       <c r="I81" t="n">
-        <v>-1.182899874423332</v>
+        <v>-1.182899874423448</v>
       </c>
       <c r="J81" t="n">
         <v>497</v>
@@ -5066,10 +5066,10 @@
         <v>465</v>
       </c>
       <c r="N81" t="n">
-        <v>352.6238084854534</v>
+        <v>352.6238084854878</v>
       </c>
       <c r="O81" t="n">
-        <v>2.873650395476517</v>
+        <v>2.873650395476512</v>
       </c>
       <c r="P81" t="inlineStr">
         <is>
@@ -5102,13 +5102,13 @@
         <v>759</v>
       </c>
       <c r="G82" t="n">
-        <v>1.621249089192923</v>
+        <v>1.62124908919308</v>
       </c>
       <c r="H82" t="n">
-        <v>0.423683541840795</v>
+        <v>0.423683541840836</v>
       </c>
       <c r="I82" t="n">
-        <v>-1.182899874423332</v>
+        <v>-1.182899874423448</v>
       </c>
       <c r="J82" t="n">
         <v>232</v>
@@ -5123,10 +5123,10 @@
         <v>195</v>
       </c>
       <c r="N82" t="n">
-        <v>153.2544119829528</v>
+        <v>153.2544119829677</v>
       </c>
       <c r="O82" t="n">
-        <v>3.912280240377707</v>
+        <v>3.912280240377699</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
@@ -5159,13 +5159,13 @@
         <v>975</v>
       </c>
       <c r="G83" t="n">
-        <v>1.006235675953976</v>
+        <v>1.006235675954073</v>
       </c>
       <c r="H83" t="n">
-        <v>0.5616661960160237</v>
+        <v>0.5616661960160781</v>
       </c>
       <c r="I83" t="n">
-        <v>-1.182899874423332</v>
+        <v>-1.182899874423448</v>
       </c>
       <c r="J83" t="n">
         <v>216</v>
@@ -5180,10 +5180,10 @@
         <v>29</v>
       </c>
       <c r="N83" t="n">
-        <v>113.7483332035934</v>
+        <v>113.7483332036045</v>
       </c>
       <c r="O83" t="n">
-        <v>2.428174657700236</v>
+        <v>2.42817465770023</v>
       </c>
       <c r="P83" t="inlineStr">
         <is>
@@ -5216,13 +5216,13 @@
         <v>1762</v>
       </c>
       <c r="G84" t="n">
-        <v>3.00672941384358</v>
+        <v>3.006729413843872</v>
       </c>
       <c r="H84" t="n">
-        <v>2.158764745774255</v>
+        <v>2.158764745774464</v>
       </c>
       <c r="I84" t="n">
-        <v>-1.182899874423332</v>
+        <v>-1.182899874423448</v>
       </c>
       <c r="J84" t="n">
         <v>286</v>
@@ -5237,10 +5237,10 @@
         <v>228</v>
       </c>
       <c r="N84" t="n">
-        <v>315.0145923227827</v>
+        <v>315.0145923228134</v>
       </c>
       <c r="O84" t="n">
-        <v>7.255620467178503</v>
+        <v>7.25562046717849</v>
       </c>
       <c r="P84" t="inlineStr">
         <is>
@@ -5273,13 +5273,13 @@
         <v>2099</v>
       </c>
       <c r="G85" t="n">
-        <v>2.080500680877268</v>
+        <v>2.080500680877469</v>
       </c>
       <c r="H85" t="n">
-        <v>1.672814914663221</v>
+        <v>1.672814914663383</v>
       </c>
       <c r="I85" t="n">
-        <v>-1.182899874423332</v>
+        <v>-1.182899874423448</v>
       </c>
       <c r="J85" t="n">
         <v>337</v>
@@ -5294,10 +5294,10 @@
         <v>241</v>
       </c>
       <c r="N85" t="n">
-        <v>555.5885821099627</v>
+        <v>555.5885821100168</v>
       </c>
       <c r="O85" t="n">
-        <v>5.020512738076811</v>
+        <v>5.0205127380768</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
@@ -5330,13 +5330,13 @@
         <v>2902</v>
       </c>
       <c r="G86" t="n">
-        <v>1.74207893420539</v>
+        <v>1.742078934205559</v>
       </c>
       <c r="H86" t="n">
-        <v>0.9810960952899104</v>
+        <v>0.9810960952900056</v>
       </c>
       <c r="I86" t="n">
-        <v>-1.182899874423332</v>
+        <v>-1.182899874423448</v>
       </c>
       <c r="J86" t="n">
         <v>241</v>
@@ -5351,10 +5351,10 @@
         <v>75</v>
       </c>
       <c r="N86" t="n">
-        <v>214.7588709359063</v>
+        <v>214.7588709359273</v>
       </c>
       <c r="O86" t="n">
-        <v>4.203858023360765</v>
+        <v>4.203858023360757</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>
@@ -5387,13 +5387,13 @@
         <v>953</v>
       </c>
       <c r="G87" t="n">
-        <v>1.74915642672559</v>
+        <v>1.74915642672576</v>
       </c>
       <c r="H87" t="n">
-        <v>1.051264629973024</v>
+        <v>1.051264629973127</v>
       </c>
       <c r="I87" t="n">
-        <v>-1.229792562381246</v>
+        <v>-1.229792562381365</v>
       </c>
       <c r="J87" t="n">
         <v>329</v>
@@ -5408,10 +5408,10 @@
         <v>107</v>
       </c>
       <c r="N87" t="n">
-        <v>335.7725826971069</v>
+        <v>335.7725826971396</v>
       </c>
       <c r="O87" t="n">
-        <v>3.635763508228187</v>
+        <v>3.635763508228222</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
@@ -5444,13 +5444,13 @@
         <v>1975</v>
       </c>
       <c r="G88" t="n">
-        <v>1.793250347759038</v>
+        <v>1.793250347759212</v>
       </c>
       <c r="H88" t="n">
-        <v>1.627811361735526</v>
+        <v>1.627811361735684</v>
       </c>
       <c r="I88" t="n">
-        <v>-1.229792562381246</v>
+        <v>-1.229792562381365</v>
       </c>
       <c r="J88" t="n">
         <v>274</v>
@@ -5465,10 +5465,10 @@
         <v>199</v>
       </c>
       <c r="N88" t="n">
-        <v>444.4073075914695</v>
+        <v>444.4073075915128</v>
       </c>
       <c r="O88" t="n">
-        <v>3.727416299584425</v>
+        <v>3.727416299584462</v>
       </c>
       <c r="P88" t="inlineStr">
         <is>
@@ -5501,13 +5501,13 @@
         <v>2161</v>
       </c>
       <c r="G89" t="n">
-        <v>1.757840739611798</v>
+        <v>1.757840739611968</v>
       </c>
       <c r="H89" t="n">
-        <v>0.6523841518473872</v>
+        <v>0.6523841518474504</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.9191136109574408</v>
+        <v>-0.9191136109575301</v>
       </c>
       <c r="J89" t="n">
         <v>449</v>
@@ -5522,10 +5522,10 @@
         <v>353</v>
       </c>
       <c r="N89" t="n">
-        <v>319.7106723667501</v>
+        <v>319.7106723667811</v>
       </c>
       <c r="O89" t="n">
-        <v>4.168676010696073</v>
+        <v>4.168676010696102</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
@@ -5558,13 +5558,13 @@
         <v>2526</v>
       </c>
       <c r="G90" t="n">
-        <v>1.21868938611206</v>
+        <v>1.218689386112178</v>
       </c>
       <c r="H90" t="n">
-        <v>0.8595184053806001</v>
+        <v>0.8595184053806836</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.9191136109574408</v>
+        <v>-0.9191136109575301</v>
       </c>
       <c r="J90" t="n">
         <v>365</v>
@@ -5579,10 +5579,10 @@
         <v>41</v>
       </c>
       <c r="N90" t="n">
-        <v>256.3065973339653</v>
+        <v>256.3065973339901</v>
       </c>
       <c r="O90" t="n">
-        <v>2.890091857523571</v>
+        <v>2.890091857523591</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
@@ -5615,13 +5615,13 @@
         <v>1595</v>
       </c>
       <c r="G91" t="n">
-        <v>1.278200402403292</v>
+        <v>1.278200402403416</v>
       </c>
       <c r="H91" t="n">
-        <v>0.5460061405477872</v>
+        <v>0.5460061405478402</v>
       </c>
       <c r="I91" t="n">
-        <v>-1.074679002570933</v>
+        <v>-1.074679002571038</v>
       </c>
       <c r="J91" t="n">
         <v>449</v>
@@ -5636,10 +5636,10 @@
         <v>385</v>
       </c>
       <c r="N91" t="n">
-        <v>285.5602398518888</v>
+        <v>285.5602398519167</v>
       </c>
       <c r="O91" t="n">
-        <v>3.878952184039039</v>
+        <v>3.87895218403903</v>
       </c>
       <c r="P91" t="inlineStr">
         <is>
@@ -5672,13 +5672,13 @@
         <v>2510</v>
       </c>
       <c r="G92" t="n">
-        <v>0.812989904847692</v>
+        <v>0.8129899048477705</v>
       </c>
       <c r="H92" t="n">
-        <v>0.2128366334101895</v>
+        <v>0.2128366334102099</v>
       </c>
       <c r="I92" t="n">
-        <v>-1.074679002570933</v>
+        <v>-1.074679002571038</v>
       </c>
       <c r="J92" t="n">
         <v>558</v>
@@ -5693,10 +5693,10 @@
         <v>527</v>
       </c>
       <c r="N92" t="n">
-        <v>137.2390153724065</v>
+        <v>137.2390153724199</v>
       </c>
       <c r="O92" t="n">
-        <v>2.467178825074139</v>
+        <v>2.467178825074131</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
@@ -5729,13 +5729,13 @@
         <v>2765</v>
       </c>
       <c r="G93" t="n">
-        <v>1.126080360155636</v>
+        <v>1.126080360155745</v>
       </c>
       <c r="H93" t="n">
-        <v>1.614342132260921</v>
+        <v>1.614342132261078</v>
       </c>
       <c r="I93" t="n">
-        <v>-1.074679002570933</v>
+        <v>-1.074679002571038</v>
       </c>
       <c r="J93" t="n">
         <v>255</v>
@@ -5750,10 +5750,10 @@
         <v>34</v>
       </c>
       <c r="N93" t="n">
-        <v>112.955470295752</v>
+        <v>112.955470295763</v>
       </c>
       <c r="O93" t="n">
-        <v>3.417313798537672</v>
+        <v>3.417313798537661</v>
       </c>
       <c r="P93" t="inlineStr">
         <is>
@@ -5786,19 +5786,19 @@
         <v>2998</v>
       </c>
       <c r="G94" t="n">
-        <v>2.415089653922063</v>
+        <v>2.415089653922239</v>
       </c>
       <c r="H94" t="n">
-        <v>1.790045044089813</v>
+        <v>1.790045044089987</v>
       </c>
       <c r="I94" t="n">
-        <v>-1.074679002570933</v>
+        <v>-1.074679002571038</v>
       </c>
       <c r="J94" t="n">
         <v>488</v>
       </c>
       <c r="K94" t="n">
-        <v>94.82950516403071</v>
+        <v>94.82950516402661</v>
       </c>
       <c r="L94" t="n">
         <v>287</v>
@@ -5807,10 +5807,10 @@
         <v>203</v>
       </c>
       <c r="N94" t="n">
-        <v>449.7738723398423</v>
+        <v>449.7738723398871</v>
       </c>
       <c r="O94" t="n">
-        <v>7.329067703403306</v>
+        <v>7.329067703403108</v>
       </c>
       <c r="P94" t="inlineStr">
         <is>
@@ -5843,13 +5843,13 @@
         <v>416</v>
       </c>
       <c r="G95" t="n">
-        <v>1.688375938662037</v>
+        <v>1.688375938662201</v>
       </c>
       <c r="H95" t="n">
-        <v>0.5393560845254415</v>
+        <v>0.5393560845254938</v>
       </c>
       <c r="I95" t="n">
-        <v>-1.14823892508641</v>
+        <v>-1.148238925086521</v>
       </c>
       <c r="J95" t="n">
         <v>226</v>
@@ -5864,10 +5864,10 @@
         <v>119</v>
       </c>
       <c r="N95" t="n">
-        <v>171.6064771533213</v>
+        <v>171.606477153338</v>
       </c>
       <c r="O95" t="n">
-        <v>4.287758246219817</v>
+        <v>4.287758246219809</v>
       </c>
       <c r="P95" t="inlineStr">
         <is>
@@ -5900,19 +5900,19 @@
         <v>576</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9479692648236899</v>
+        <v>0.9479692648237814</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.1498283145137899</v>
+        <v>-0.1498283145138048</v>
       </c>
       <c r="I96" t="n">
-        <v>-1.14823892508641</v>
+        <v>-1.148238925086521</v>
       </c>
       <c r="J96" t="n">
         <v>160</v>
       </c>
       <c r="K96" t="n">
-        <v>68.91376848924921</v>
+        <v>68.91376848924915</v>
       </c>
       <c r="L96" t="n">
         <v>39</v>
@@ -5921,10 +5921,10 @@
         <v>123</v>
       </c>
       <c r="N96" t="n">
-        <v>69.9729443670518</v>
+        <v>69.97294436705857</v>
       </c>
       <c r="O96" t="n">
-        <v>2.407439563271542</v>
+        <v>2.407439563271535</v>
       </c>
       <c r="P96" t="inlineStr">
         <is>
@@ -5957,13 +5957,13 @@
         <v>723</v>
       </c>
       <c r="G97" t="n">
-        <v>1.693750883355756</v>
+        <v>1.69375088335592</v>
       </c>
       <c r="H97" t="n">
-        <v>1.822147118757358</v>
+        <v>1.822147118757535</v>
       </c>
       <c r="I97" t="n">
-        <v>-1.14823892508641</v>
+        <v>-1.148238925086521</v>
       </c>
       <c r="J97" t="n">
         <v>533</v>
@@ -5978,10 +5978,10 @@
         <v>110</v>
       </c>
       <c r="N97" t="n">
-        <v>547.1378650911095</v>
+        <v>547.1378650911627</v>
       </c>
       <c r="O97" t="n">
-        <v>4.301408324324894</v>
+        <v>4.301408324324883</v>
       </c>
       <c r="P97" t="inlineStr">
         <is>
@@ -6014,13 +6014,13 @@
         <v>1451</v>
       </c>
       <c r="G98" t="n">
-        <v>1.756160768444602</v>
+        <v>1.756160768444773</v>
       </c>
       <c r="H98" t="n">
-        <v>0.9224902039852627</v>
+        <v>0.9224902039853524</v>
       </c>
       <c r="I98" t="n">
-        <v>-1.14823892508641</v>
+        <v>-1.148238925086521</v>
       </c>
       <c r="J98" t="n">
         <v>237</v>
@@ -6035,10 +6035,10 @@
         <v>169</v>
       </c>
       <c r="N98" t="n">
-        <v>243.4484638614571</v>
+        <v>243.4484638614807</v>
       </c>
       <c r="O98" t="n">
-        <v>4.459902942322937</v>
+        <v>4.45990294232293</v>
       </c>
       <c r="P98" t="inlineStr">
         <is>
@@ -6071,13 +6071,13 @@
         <v>2435</v>
       </c>
       <c r="G99" t="n">
-        <v>2.46063431673048</v>
+        <v>2.460634316730718</v>
       </c>
       <c r="H99" t="n">
-        <v>1.79556844165229</v>
+        <v>1.795568441652464</v>
       </c>
       <c r="I99" t="n">
-        <v>-1.14823892508641</v>
+        <v>-1.148238925086521</v>
       </c>
       <c r="J99" t="n">
         <v>518</v>
@@ -6092,10 +6092,10 @@
         <v>483</v>
       </c>
       <c r="N99" t="n">
-        <v>302.5336392344032</v>
+        <v>302.5336392344325</v>
       </c>
       <c r="O99" t="n">
-        <v>6.248966738328114</v>
+        <v>6.248966738328101</v>
       </c>
       <c r="P99" t="inlineStr">
         <is>
@@ -6128,13 +6128,13 @@
         <v>2435</v>
       </c>
       <c r="G100" t="n">
-        <v>1.513166995399905</v>
+        <v>1.513166995400052</v>
       </c>
       <c r="H100" t="n">
-        <v>0.9607619013292296</v>
+        <v>0.9607619013293225</v>
       </c>
       <c r="I100" t="n">
-        <v>-1.14823892508641</v>
+        <v>-1.148238925086521</v>
       </c>
       <c r="J100" t="n">
         <v>370</v>
@@ -6149,10 +6149,10 @@
         <v>338</v>
       </c>
       <c r="N100" t="n">
-        <v>64.83301161568485</v>
+        <v>64.83301161569108</v>
       </c>
       <c r="O100" t="n">
-        <v>3.842801898477145</v>
+        <v>3.842801898477136</v>
       </c>
       <c r="P100" t="inlineStr">
         <is>
@@ -6185,13 +6185,13 @@
         <v>2790</v>
       </c>
       <c r="G101" t="n">
-        <v>2.64332506771713</v>
+        <v>2.643325067717387</v>
       </c>
       <c r="H101" t="n">
-        <v>0.96453577255456</v>
+        <v>0.9645357725546536</v>
       </c>
       <c r="I101" t="n">
-        <v>-1.14823892508641</v>
+        <v>-1.148238925086521</v>
       </c>
       <c r="J101" t="n">
         <v>355</v>
@@ -6206,10 +6206,10 @@
         <v>287</v>
       </c>
       <c r="N101" t="n">
-        <v>202.4361378443739</v>
+        <v>202.4361378443936</v>
       </c>
       <c r="O101" t="n">
-        <v>6.712923702007577</v>
+        <v>6.712923702007564</v>
       </c>
       <c r="P101" t="inlineStr">
         <is>
@@ -6242,19 +6242,19 @@
         <v>2998</v>
       </c>
       <c r="G102" t="n">
-        <v>1.859098119754772</v>
+        <v>1.85909811975493</v>
       </c>
       <c r="H102" t="n">
-        <v>1.624581216269129</v>
+        <v>1.624581216269286</v>
       </c>
       <c r="I102" t="n">
-        <v>-1.14823892508641</v>
+        <v>-1.148238925086521</v>
       </c>
       <c r="J102" t="n">
         <v>563</v>
       </c>
       <c r="K102" t="n">
-        <v>87.60924624995641</v>
+        <v>87.60924624995596</v>
       </c>
       <c r="L102" t="n">
         <v>395</v>
@@ -6263,10 +6263,10 @@
         <v>170</v>
       </c>
       <c r="N102" t="n">
-        <v>541.1547738826928</v>
+        <v>541.1547738827455</v>
       </c>
       <c r="O102" t="n">
-        <v>4.721320122476533</v>
+        <v>4.721320122476468</v>
       </c>
       <c r="P102" t="inlineStr">
         <is>
@@ -6299,19 +6299,19 @@
         <v>540</v>
       </c>
       <c r="G103" t="n">
-        <v>1.506629186510861</v>
+        <v>1.506629186511007</v>
       </c>
       <c r="H103" t="n">
-        <v>0.6119332455046133</v>
+        <v>0.6119332455046724</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.9233930996950902</v>
+        <v>-0.9233930996951802</v>
       </c>
       <c r="J103" t="n">
         <v>348</v>
       </c>
       <c r="K103" t="n">
-        <v>38.0535739281494</v>
+        <v>38.05357392814943</v>
       </c>
       <c r="L103" t="n">
         <v>36</v>
@@ -6320,10 +6320,10 @@
         <v>314</v>
       </c>
       <c r="N103" t="n">
-        <v>186.0398041902282</v>
+        <v>186.0398041902463</v>
       </c>
       <c r="O103" t="n">
-        <v>6.508507113484586</v>
+        <v>6.508507113484582</v>
       </c>
       <c r="P103" t="inlineStr">
         <is>
@@ -6356,13 +6356,13 @@
         <v>591</v>
       </c>
       <c r="G104" t="n">
-        <v>0.567793425896042</v>
+        <v>0.5677934258960964</v>
       </c>
       <c r="H104" t="n">
-        <v>0.04488421508345986</v>
+        <v>0.04488421508346381</v>
       </c>
       <c r="I104" t="n">
-        <v>-0.9233930996950902</v>
+        <v>-0.9233930996951802</v>
       </c>
       <c r="J104" t="n">
         <v>51</v>
@@ -6377,10 +6377,10 @@
         <v>19</v>
       </c>
       <c r="N104" t="n">
-        <v>27.59497565044682</v>
+        <v>27.59497565044951</v>
       </c>
       <c r="O104" t="n">
-        <v>2.452818241223904</v>
+        <v>2.452818241223901</v>
       </c>
       <c r="P104" t="inlineStr">
         <is>
@@ -6413,13 +6413,13 @@
         <v>639</v>
       </c>
       <c r="G105" t="n">
-        <v>0.7040578722744012</v>
+        <v>0.7040578722744683</v>
       </c>
       <c r="H105" t="n">
-        <v>0.6015113877466749</v>
+        <v>0.6015113877467329</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.9233930996950902</v>
+        <v>-0.9233930996951802</v>
       </c>
       <c r="J105" t="n">
         <v>99</v>
@@ -6434,10 +6434,10 @@
         <v>17</v>
       </c>
       <c r="N105" t="n">
-        <v>77.58303385936392</v>
+        <v>77.5830338593715</v>
       </c>
       <c r="O105" t="n">
-        <v>3.04146880402262</v>
+        <v>3.041468804022614</v>
       </c>
       <c r="P105" t="inlineStr">
         <is>
@@ -6470,13 +6470,13 @@
         <v>729</v>
       </c>
       <c r="G106" t="n">
-        <v>1.515255700559605</v>
+        <v>1.515255700559751</v>
       </c>
       <c r="H106" t="n">
-        <v>1.839365154804225</v>
+        <v>1.839365154804404</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.9233930996950902</v>
+        <v>-0.9233930996951802</v>
       </c>
       <c r="J106" t="n">
         <v>537</v>
@@ -6491,10 +6491,10 @@
         <v>58</v>
       </c>
       <c r="N106" t="n">
-        <v>436.1231874834461</v>
+        <v>436.1231874834887</v>
       </c>
       <c r="O106" t="n">
-        <v>6.545772904266753</v>
+        <v>6.545772904266749</v>
       </c>
       <c r="P106" t="inlineStr">
         <is>
@@ -6527,13 +6527,13 @@
         <v>1444</v>
       </c>
       <c r="G107" t="n">
-        <v>1.305151528793598</v>
+        <v>1.305151528793725</v>
       </c>
       <c r="H107" t="n">
-        <v>0.4575126465710953</v>
+        <v>0.4575126465711397</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.9233930996950902</v>
+        <v>-0.9233930996951802</v>
       </c>
       <c r="J107" t="n">
         <v>370</v>
@@ -6548,7 +6548,7 @@
         <v>186</v>
       </c>
       <c r="N107" t="n">
-        <v>189.9677362003117</v>
+        <v>189.9677362003301</v>
       </c>
       <c r="O107" t="n">
         <v>5.638141146728129</v>
@@ -6584,13 +6584,13 @@
         <v>1693</v>
       </c>
       <c r="G108" t="n">
-        <v>2.080090950473193</v>
+        <v>2.080090950473394</v>
       </c>
       <c r="H108" t="n">
-        <v>1.095550282395124</v>
+        <v>1.09555028239523</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.9233930996950902</v>
+        <v>-0.9233930996951802</v>
       </c>
       <c r="J108" t="n">
         <v>249</v>
@@ -6605,10 +6605,10 @@
         <v>215</v>
       </c>
       <c r="N108" t="n">
-        <v>116.0994626774139</v>
+        <v>116.0994626774252</v>
       </c>
       <c r="O108" t="n">
-        <v>8.985812082402594</v>
+        <v>8.985812082402591</v>
       </c>
       <c r="P108" t="inlineStr">
         <is>
@@ -6641,13 +6641,13 @@
         <v>1967</v>
       </c>
       <c r="G109" t="n">
-        <v>1.719043995691052</v>
+        <v>1.719043995691218</v>
       </c>
       <c r="H109" t="n">
-        <v>1.424510672103829</v>
+        <v>1.424510672103966</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.9233930996950902</v>
+        <v>-0.9233930996951802</v>
       </c>
       <c r="J109" t="n">
         <v>274</v>
@@ -6662,10 +6662,10 @@
         <v>92</v>
       </c>
       <c r="N109" t="n">
-        <v>168.3514778867031</v>
+        <v>168.3514778867195</v>
       </c>
       <c r="O109" t="n">
-        <v>7.426120623787292</v>
+        <v>7.426120623787287</v>
       </c>
       <c r="P109" t="inlineStr">
         <is>
@@ -6698,13 +6698,13 @@
         <v>2146</v>
       </c>
       <c r="G110" t="n">
-        <v>0.6955031901405793</v>
+        <v>0.6955031901406461</v>
       </c>
       <c r="H110" t="n">
-        <v>1.032368396717158</v>
+        <v>1.032368396717258</v>
       </c>
       <c r="I110" t="n">
-        <v>-0.9233930996950902</v>
+        <v>-0.9233930996951802</v>
       </c>
       <c r="J110" t="n">
         <v>45</v>
@@ -6719,10 +6719,10 @@
         <v>20</v>
       </c>
       <c r="N110" t="n">
-        <v>69.9829845162124</v>
+        <v>69.98298451621923</v>
       </c>
       <c r="O110" t="n">
-        <v>3.004513320868519</v>
+        <v>3.004513320868515</v>
       </c>
       <c r="P110" t="inlineStr">
         <is>
@@ -6755,13 +6755,13 @@
         <v>2731</v>
       </c>
       <c r="G111" t="n">
-        <v>1.332407518951398</v>
+        <v>1.332407518951527</v>
       </c>
       <c r="H111" t="n">
-        <v>1.555529736224204</v>
+        <v>1.555529736224355</v>
       </c>
       <c r="I111" t="n">
-        <v>-0.9233930996950902</v>
+        <v>-0.9233930996951802</v>
       </c>
       <c r="J111" t="n">
         <v>585</v>
@@ -6776,10 +6776,10 @@
         <v>522</v>
       </c>
       <c r="N111" t="n">
-        <v>339.3734627059274</v>
+        <v>339.3734627059604</v>
       </c>
       <c r="O111" t="n">
-        <v>5.755884654829105</v>
+        <v>5.755884654829103</v>
       </c>
       <c r="P111" t="inlineStr">
         <is>
@@ -6812,13 +6812,13 @@
         <v>2877</v>
       </c>
       <c r="G112" t="n">
-        <v>1.029245486318994</v>
+        <v>1.029245486319093</v>
       </c>
       <c r="H112" t="n">
-        <v>0.2806082871985218</v>
+        <v>0.2806082871985487</v>
       </c>
       <c r="I112" t="n">
-        <v>-0.9233930996950902</v>
+        <v>-0.9233930996951802</v>
       </c>
       <c r="J112" t="n">
         <v>146</v>
@@ -6833,10 +6833,10 @@
         <v>44</v>
       </c>
       <c r="N112" t="n">
-        <v>63.90723144938062</v>
+        <v>63.90723144938683</v>
       </c>
       <c r="O112" t="n">
-        <v>4.446251027927226</v>
+        <v>4.446251027927221</v>
       </c>
       <c r="P112" t="inlineStr">
         <is>
@@ -6869,13 +6869,13 @@
         <v>2950</v>
       </c>
       <c r="G113" t="n">
-        <v>0.7995193337288559</v>
+        <v>0.7995193337289322</v>
       </c>
       <c r="H113" t="n">
-        <v>1.241863854138219</v>
+        <v>1.241863854138339</v>
       </c>
       <c r="I113" t="n">
-        <v>-0.9233930996950902</v>
+        <v>-0.9233930996951802</v>
       </c>
       <c r="J113" t="n">
         <v>219</v>
@@ -6890,10 +6890,10 @@
         <v>41</v>
       </c>
       <c r="N113" t="n">
-        <v>167.1131493731852</v>
+        <v>167.1131493732015</v>
       </c>
       <c r="O113" t="n">
-        <v>3.45385401897974</v>
+        <v>3.453854018979734</v>
       </c>
       <c r="P113" t="inlineStr">
         <is>
@@ -6926,19 +6926,19 @@
         <v>202</v>
       </c>
       <c r="G114" t="n">
-        <v>0.8752765397046078</v>
+        <v>0.8752765397046924</v>
       </c>
       <c r="H114" t="n">
-        <v>1.494558409174053</v>
+        <v>1.494558409174199</v>
       </c>
       <c r="I114" t="n">
-        <v>-0.8996209949207292</v>
+        <v>-0.899620994920817</v>
       </c>
       <c r="J114" t="n">
         <v>107</v>
       </c>
       <c r="K114" t="n">
-        <v>64.19324998757484</v>
+        <v>64.19324998757489</v>
       </c>
       <c r="L114" t="n">
         <v>34</v>
@@ -6947,10 +6947,10 @@
         <v>75</v>
       </c>
       <c r="N114" t="n">
-        <v>211.9821203430299</v>
+        <v>211.9821203430506</v>
       </c>
       <c r="O114" t="n">
-        <v>6.450739376786778</v>
+        <v>6.450739376786761</v>
       </c>
       <c r="P114" t="inlineStr">
         <is>
@@ -6983,13 +6983,13 @@
         <v>404</v>
       </c>
       <c r="G115" t="n">
-        <v>0.6467535385022791</v>
+        <v>0.6467535385023415</v>
       </c>
       <c r="H115" t="n">
-        <v>2.138304973047545</v>
+        <v>2.138304973047754</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.8996209949207292</v>
+        <v>-0.899620994920817</v>
       </c>
       <c r="J115" t="n">
         <v>202</v>
@@ -7004,10 +7004,10 @@
         <v>52</v>
       </c>
       <c r="N115" t="n">
-        <v>526.3924719626409</v>
+        <v>526.3924719626923</v>
       </c>
       <c r="O115" t="n">
-        <v>4.766537578284496</v>
+        <v>4.766537578284484</v>
       </c>
       <c r="P115" t="inlineStr">
         <is>
@@ -7040,19 +7040,19 @@
         <v>2998</v>
       </c>
       <c r="G116" t="n">
-        <v>0.9905220807697669</v>
+        <v>0.9905220807697861</v>
       </c>
       <c r="H116" t="n">
-        <v>0.1998259404200552</v>
+        <v>0.1998259404200743</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.8996209949207292</v>
+        <v>-0.899620994920817</v>
       </c>
       <c r="J116" t="n">
         <v>457</v>
       </c>
       <c r="K116" t="n">
-        <v>45.7551478774908</v>
+        <v>45.7551478774858</v>
       </c>
       <c r="L116" t="n">
         <v>37</v>
@@ -7061,10 +7061,10 @@
         <v>422</v>
       </c>
       <c r="N116" t="n">
-        <v>159.051942985005</v>
+        <v>159.0519429850223</v>
       </c>
       <c r="O116" t="n">
-        <v>7.300092599482558</v>
+        <v>7.300092599481975</v>
       </c>
       <c r="P116" t="inlineStr">
         <is>
@@ -7097,13 +7097,13 @@
         <v>644</v>
       </c>
       <c r="G117" t="n">
-        <v>2.860690019493083</v>
+        <v>2.860690019493361</v>
       </c>
       <c r="H117" t="n">
-        <v>1.795632292820619</v>
+        <v>1.795632292820794</v>
       </c>
       <c r="I117" t="n">
-        <v>-0.906360477400771</v>
+        <v>-0.9063604774008588</v>
       </c>
       <c r="J117" t="n">
         <v>570</v>
@@ -7118,10 +7118,10 @@
         <v>500</v>
       </c>
       <c r="N117" t="n">
-        <v>431.5630307920221</v>
+        <v>431.5630307920638</v>
       </c>
       <c r="O117" t="n">
-        <v>14.88625695306593</v>
+        <v>14.88625695306606</v>
       </c>
       <c r="P117" t="inlineStr">
         <is>
@@ -7154,13 +7154,13 @@
         <v>644</v>
       </c>
       <c r="G118" t="n">
-        <v>0.6710081935409565</v>
+        <v>0.6710081935410213</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.2683808169474927</v>
+        <v>-0.2683808169475192</v>
       </c>
       <c r="I118" t="n">
-        <v>-0.906360477400771</v>
+        <v>-0.9063604774008588</v>
       </c>
       <c r="J118" t="n">
         <v>77</v>
@@ -7175,10 +7175,10 @@
         <v>39</v>
       </c>
       <c r="N118" t="n">
-        <v>21.38469619389632</v>
+        <v>21.38469619389836</v>
       </c>
       <c r="O118" t="n">
-        <v>3.49174510995543</v>
+        <v>3.491745109955458</v>
       </c>
       <c r="P118" t="inlineStr">
         <is>
@@ -7211,13 +7211,13 @@
         <v>2126</v>
       </c>
       <c r="G119" t="n">
-        <v>0.879549567437917</v>
+        <v>0.8795495674380024</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.1990294690006385</v>
+        <v>-0.1990294690006581</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.906360477400771</v>
+        <v>-0.9063604774008588</v>
       </c>
       <c r="J119" t="n">
         <v>579</v>
@@ -7232,10 +7232,10 @@
         <v>232</v>
       </c>
       <c r="N119" t="n">
-        <v>159.0994154242393</v>
+        <v>159.0994154242545</v>
       </c>
       <c r="O119" t="n">
-        <v>4.576938002586856</v>
+        <v>4.576938002586895</v>
       </c>
       <c r="P119" t="inlineStr">
         <is>
@@ -7268,13 +7268,13 @@
         <v>2442</v>
       </c>
       <c r="G120" t="n">
-        <v>0.576046921251788</v>
+        <v>0.5760469212518436</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.4366669136335841</v>
+        <v>-0.4366669136336269</v>
       </c>
       <c r="I120" t="n">
-        <v>-0.906360477400771</v>
+        <v>-0.9063604774008588</v>
       </c>
       <c r="J120" t="n">
         <v>316</v>
@@ -7289,10 +7289,10 @@
         <v>75</v>
       </c>
       <c r="N120" t="n">
-        <v>57.99443221627335</v>
+        <v>57.99443221627883</v>
       </c>
       <c r="O120" t="n">
-        <v>2.99759233903161</v>
+        <v>2.997592339031635</v>
       </c>
       <c r="P120" t="inlineStr">
         <is>
@@ -7325,13 +7325,13 @@
         <v>2622</v>
       </c>
       <c r="G121" t="n">
-        <v>0.6848527417408278</v>
+        <v>0.6848527417408937</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.329836272743148</v>
+        <v>-0.3298362727431804</v>
       </c>
       <c r="I121" t="n">
-        <v>-0.906360477400771</v>
+        <v>-0.9063604774008588</v>
       </c>
       <c r="J121" t="n">
         <v>496</v>
@@ -7346,10 +7346,10 @@
         <v>88</v>
       </c>
       <c r="N121" t="n">
-        <v>83.21028503144865</v>
+        <v>83.21028503145649</v>
       </c>
       <c r="O121" t="n">
-        <v>3.563788393393357</v>
+        <v>3.563788393393385</v>
       </c>
       <c r="P121" t="inlineStr">
         <is>
@@ -7382,13 +7382,13 @@
         <v>1040</v>
       </c>
       <c r="G122" t="n">
-        <v>1.112501143906979</v>
+        <v>1.112501143907087</v>
       </c>
       <c r="H122" t="n">
-        <v>1.880382206585393</v>
+        <v>1.880382206585576</v>
       </c>
       <c r="I122" t="n">
-        <v>-0.9956084770381469</v>
+        <v>-0.995608477038244</v>
       </c>
       <c r="J122" t="n">
         <v>319</v>
@@ -7403,10 +7403,10 @@
         <v>287</v>
       </c>
       <c r="N122" t="n">
-        <v>626.147452577302</v>
+        <v>626.1474525773632</v>
       </c>
       <c r="O122" t="n">
-        <v>5.16479514940301</v>
+        <v>5.164795149403006</v>
       </c>
       <c r="P122" t="inlineStr">
         <is>
@@ -7439,13 +7439,13 @@
         <v>1040</v>
       </c>
       <c r="G123" t="n">
-        <v>1.622307798300021</v>
+        <v>1.622307798300178</v>
       </c>
       <c r="H123" t="n">
-        <v>1.76583381113974</v>
+        <v>1.765833811139912</v>
       </c>
       <c r="I123" t="n">
-        <v>-0.9956084770381469</v>
+        <v>-0.995608477038244</v>
       </c>
       <c r="J123" t="n">
         <v>118</v>
@@ -7460,10 +7460,10 @@
         <v>84</v>
       </c>
       <c r="N123" t="n">
-        <v>209.8949998890101</v>
+        <v>209.8949998890307</v>
       </c>
       <c r="O123" t="n">
-        <v>7.531576478270318</v>
+        <v>7.531576478270312</v>
       </c>
       <c r="P123" t="inlineStr">
         <is>
@@ -7496,13 +7496,13 @@
         <v>2169</v>
       </c>
       <c r="G124" t="n">
-        <v>1.781213851577019</v>
+        <v>1.781213851577192</v>
       </c>
       <c r="H124" t="n">
-        <v>0.7092285576541676</v>
+        <v>0.7092285576542365</v>
       </c>
       <c r="I124" t="n">
-        <v>-0.9956084770381469</v>
+        <v>-0.995608477038244</v>
       </c>
       <c r="J124" t="n">
         <v>583</v>
@@ -7517,7 +7517,7 @@
         <v>471</v>
       </c>
       <c r="N124" t="n">
-        <v>195.5971198098896</v>
+        <v>195.5971198099087</v>
       </c>
       <c r="O124" t="n">
         <v>8.269299057407224</v>
@@ -7553,13 +7553,13 @@
         <v>2509</v>
       </c>
       <c r="G125" t="n">
-        <v>1.379566137945972</v>
+        <v>1.379566137946105</v>
       </c>
       <c r="H125" t="n">
-        <v>0.2281846235749166</v>
+        <v>0.2281846235749384</v>
       </c>
       <c r="I125" t="n">
-        <v>-0.9956084770381469</v>
+        <v>-0.995608477038244</v>
       </c>
       <c r="J125" t="n">
         <v>340</v>
@@ -7574,10 +7574,10 @@
         <v>190</v>
       </c>
       <c r="N125" t="n">
-        <v>70.53321104727118</v>
+        <v>70.53321104727806</v>
       </c>
       <c r="O125" t="n">
-        <v>6.404646446044254</v>
+        <v>6.404646446044247</v>
       </c>
       <c r="P125" t="inlineStr">
         <is>
@@ -7610,13 +7610,13 @@
         <v>2853</v>
       </c>
       <c r="G126" t="n">
-        <v>1.191243332239632</v>
+        <v>1.191243332239748</v>
       </c>
       <c r="H126" t="n">
-        <v>0.1564242837817956</v>
+        <v>0.1564242837818105</v>
       </c>
       <c r="I126" t="n">
-        <v>-0.9956084770381469</v>
+        <v>-0.995608477038244</v>
       </c>
       <c r="J126" t="n">
         <v>344</v>
@@ -7631,10 +7631,10 @@
         <v>311</v>
       </c>
       <c r="N126" t="n">
-        <v>116.5779077559749</v>
+        <v>116.5779077559862</v>
       </c>
       <c r="O126" t="n">
-        <v>5.530356366648707</v>
+        <v>5.530356366648703</v>
       </c>
       <c r="P126" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         <v>336</v>
       </c>
       <c r="G127" t="n">
-        <v>1.764946116788636</v>
+        <v>1.764946116788807</v>
       </c>
       <c r="H127" t="n">
-        <v>1.361280214357212</v>
+        <v>1.361280214357345</v>
       </c>
       <c r="I127" t="n">
-        <v>-1.282291285103549</v>
+        <v>-1.282291285103674</v>
       </c>
       <c r="J127" t="n">
         <v>257</v>
@@ -7688,10 +7688,10 @@
         <v>206</v>
       </c>
       <c r="N127" t="n">
-        <v>323.0243141226879</v>
+        <v>323.0243141227193</v>
       </c>
       <c r="O127" t="n">
-        <v>4.098419260070868</v>
+        <v>4.098419260070861</v>
       </c>
       <c r="P127" t="inlineStr">
         <is>
@@ -7724,19 +7724,19 @@
         <v>1173</v>
       </c>
       <c r="G128" t="n">
-        <v>2.698828396326982</v>
+        <v>2.698828396327244</v>
       </c>
       <c r="H128" t="n">
-        <v>1.670221180041638</v>
+        <v>1.670221180041799</v>
       </c>
       <c r="I128" t="n">
-        <v>-0.951649451757036</v>
+        <v>-0.9516494517571286</v>
       </c>
       <c r="J128" t="n">
         <v>284</v>
       </c>
       <c r="K128" t="n">
-        <v>82.13048390525591</v>
+        <v>82.13048390525603</v>
       </c>
       <c r="L128" t="n">
         <v>39</v>
@@ -7745,7 +7745,7 @@
         <v>247</v>
       </c>
       <c r="N128" t="n">
-        <v>258.8551206856453</v>
+        <v>258.8551206856705</v>
       </c>
       <c r="O128" t="n">
         <v>12.21719059373508</v>
@@ -7781,13 +7781,13 @@
         <v>1620</v>
       </c>
       <c r="G129" t="n">
-        <v>1.003455140227739</v>
+        <v>1.003455140227835</v>
       </c>
       <c r="H129" t="n">
-        <v>1.42580727260021</v>
+        <v>1.425807272600349</v>
       </c>
       <c r="I129" t="n">
-        <v>-0.951649451757036</v>
+        <v>-0.9516494517571286</v>
       </c>
       <c r="J129" t="n">
         <v>447</v>
@@ -7802,10 +7802,10 @@
         <v>70</v>
       </c>
       <c r="N129" t="n">
-        <v>244.8045854913361</v>
+        <v>244.8045854913599</v>
       </c>
       <c r="O129" t="n">
-        <v>4.542490629307924</v>
+        <v>4.542490629307919</v>
       </c>
       <c r="P129" t="inlineStr">
         <is>
@@ -7838,19 +7838,19 @@
         <v>108</v>
       </c>
       <c r="G130" t="n">
-        <v>2.026980812496813</v>
+        <v>2.026980812497009</v>
       </c>
       <c r="H130" t="n">
-        <v>1.603319440941033</v>
+        <v>1.603319440941188</v>
       </c>
       <c r="I130" t="n">
-        <v>-1.009216401046727</v>
+        <v>-1.009216401046825</v>
       </c>
       <c r="J130" t="n">
         <v>92</v>
       </c>
       <c r="K130" t="n">
-        <v>33.31383887519601</v>
+        <v>33.31383887519602</v>
       </c>
       <c r="L130" t="n">
         <v>36</v>
@@ -7859,10 +7859,10 @@
         <v>58</v>
       </c>
       <c r="N130" t="n">
-        <v>125.2789062691632</v>
+        <v>125.2789062691759</v>
       </c>
       <c r="O130" t="n">
-        <v>7.551513105783696</v>
+        <v>7.551513105783681</v>
       </c>
       <c r="P130" t="inlineStr">
         <is>
@@ -7895,13 +7895,13 @@
         <v>1260</v>
       </c>
       <c r="G131" t="n">
-        <v>2.591586787821665</v>
+        <v>2.591586787821917</v>
       </c>
       <c r="H131" t="n">
-        <v>1.449827245355934</v>
+        <v>1.449827245356075</v>
       </c>
       <c r="I131" t="n">
-        <v>-1.009216401046727</v>
+        <v>-1.009216401046825</v>
       </c>
       <c r="J131" t="n">
         <v>507</v>
@@ -7916,10 +7916,10 @@
         <v>335</v>
       </c>
       <c r="N131" t="n">
-        <v>211.268971618976</v>
+        <v>211.2689716189965</v>
       </c>
       <c r="O131" t="n">
-        <v>9.654951577417535</v>
+        <v>9.654951577417519</v>
       </c>
       <c r="P131" t="inlineStr">
         <is>
@@ -7952,13 +7952,13 @@
         <v>2900</v>
       </c>
       <c r="G132" t="n">
-        <v>2.729373685034806</v>
+        <v>2.729373685035071</v>
       </c>
       <c r="H132" t="n">
-        <v>2.857257002549358</v>
+        <v>2.857257002549635</v>
       </c>
       <c r="I132" t="n">
-        <v>-1.009216401046727</v>
+        <v>-1.009216401046825</v>
       </c>
       <c r="J132" t="n">
         <v>561</v>
@@ -7973,10 +7973,10 @@
         <v>504</v>
       </c>
       <c r="N132" t="n">
-        <v>1025.310105862407</v>
+        <v>1025.310105862507</v>
       </c>
       <c r="O132" t="n">
-        <v>10.16827639711754</v>
+        <v>10.16827639711752</v>
       </c>
       <c r="P132" t="inlineStr">
         <is>
@@ -8009,13 +8009,13 @@
         <v>2731</v>
       </c>
       <c r="G133" t="n">
-        <v>1.635612406211065</v>
+        <v>1.635612406211223</v>
       </c>
       <c r="H133" t="n">
-        <v>1.621290364262896</v>
+        <v>1.621290364263054</v>
       </c>
       <c r="I133" t="n">
-        <v>-1.009216401046727</v>
+        <v>-1.009216401046825</v>
       </c>
       <c r="J133" t="n">
         <v>220</v>
@@ -8030,10 +8030,10 @@
         <v>188</v>
       </c>
       <c r="N133" t="n">
-        <v>363.5583194183053</v>
+        <v>363.5583194183408</v>
       </c>
       <c r="O133" t="n">
-        <v>6.093470863333437</v>
+        <v>6.093470863333422</v>
       </c>
       <c r="P133" t="inlineStr">
         <is>
@@ -8066,13 +8066,13 @@
         <v>2900</v>
       </c>
       <c r="G134" t="n">
-        <v>2.587356443538302</v>
+        <v>2.587356443538552</v>
       </c>
       <c r="H134" t="n">
-        <v>2.323923644073642</v>
+        <v>2.323923644073867</v>
       </c>
       <c r="I134" t="n">
-        <v>-1.009216401046727</v>
+        <v>-1.009216401046825</v>
       </c>
       <c r="J134" t="n">
         <v>169</v>
@@ -8087,10 +8087,10 @@
         <v>133</v>
       </c>
       <c r="N134" t="n">
-        <v>302.1698827363624</v>
+        <v>302.1698827363919</v>
       </c>
       <c r="O134" t="n">
-        <v>9.639191437952551</v>
+        <v>9.63919143795253</v>
       </c>
       <c r="P134" t="inlineStr">
         <is>
@@ -8123,13 +8123,13 @@
         <v>2626</v>
       </c>
       <c r="G135" t="n">
-        <v>2.202680418378962</v>
+        <v>2.202680418379176</v>
       </c>
       <c r="H135" t="n">
-        <v>1.116546099154118</v>
+        <v>1.116546099154226</v>
       </c>
       <c r="I135" t="n">
-        <v>-1.103299927956032</v>
+        <v>-1.103299927956139</v>
       </c>
       <c r="J135" t="n">
         <v>595</v>
@@ -8144,10 +8144,10 @@
         <v>148</v>
       </c>
       <c r="N135" t="n">
-        <v>258.8415841702146</v>
+        <v>258.8415841702397</v>
       </c>
       <c r="O135" t="n">
-        <v>3.834074840738877</v>
+        <v>3.834074840738876</v>
       </c>
       <c r="P135" t="inlineStr">
         <is>
@@ -8180,13 +8180,13 @@
         <v>2565</v>
       </c>
       <c r="G136" t="n">
-        <v>2.450891892085868</v>
+        <v>2.450891892086106</v>
       </c>
       <c r="H136" t="n">
-        <v>2.065694895357525</v>
+        <v>2.065694895357726</v>
       </c>
       <c r="I136" t="n">
-        <v>-1.206687403753332</v>
+        <v>-1.206687403753449</v>
       </c>
       <c r="J136" t="n">
         <v>598</v>
@@ -8201,10 +8201,10 @@
         <v>243</v>
       </c>
       <c r="N136" t="n">
-        <v>1085.678324761525</v>
+        <v>1085.678324761631</v>
       </c>
       <c r="O136" t="n">
-        <v>5.329446675791263</v>
+        <v>5.329446675791299</v>
       </c>
       <c r="P136" t="inlineStr">
         <is>
@@ -8237,13 +8237,13 @@
         <v>2899</v>
       </c>
       <c r="G137" t="n">
-        <v>1.865902734427439</v>
+        <v>1.865902734427621</v>
       </c>
       <c r="H137" t="n">
-        <v>0.6963877118788954</v>
+        <v>0.6963877118789631</v>
       </c>
       <c r="I137" t="n">
-        <v>-1.206687403753332</v>
+        <v>-1.206687403753449</v>
       </c>
       <c r="J137" t="n">
         <v>334</v>
@@ -8258,10 +8258,10 @@
         <v>268</v>
       </c>
       <c r="N137" t="n">
-        <v>305.5767622612813</v>
+        <v>305.576762261311</v>
       </c>
       <c r="O137" t="n">
-        <v>4.057391987567825</v>
+        <v>4.057391987567852</v>
       </c>
       <c r="P137" t="inlineStr">
         <is>
@@ -8294,13 +8294,13 @@
         <v>2658</v>
       </c>
       <c r="G138" t="n">
-        <v>1.751447833541205</v>
+        <v>1.751447833541374</v>
       </c>
       <c r="H138" t="n">
-        <v>1.704337658422954</v>
+        <v>1.704337658423119</v>
       </c>
       <c r="I138" t="n">
-        <v>-1.226687165186237</v>
+        <v>-1.226687165186356</v>
       </c>
       <c r="J138" t="n">
         <v>459</v>
@@ -8315,10 +8315,10 @@
         <v>425</v>
       </c>
       <c r="N138" t="n">
-        <v>621.4597493347206</v>
+        <v>621.459749334781</v>
       </c>
       <c r="O138" t="n">
-        <v>3.98495436148137</v>
+        <v>3.984954361481366</v>
       </c>
       <c r="P138" t="inlineStr">
         <is>
@@ -8351,13 +8351,13 @@
         <v>431</v>
       </c>
       <c r="G139" t="n">
-        <v>0.8465923957748731</v>
+        <v>0.8465923957749547</v>
       </c>
       <c r="H139" t="n">
-        <v>1.592784209455663</v>
+        <v>1.592784209455818</v>
       </c>
       <c r="I139" t="n">
-        <v>-1.132731227150001</v>
+        <v>-1.132731227150112</v>
       </c>
       <c r="J139" t="n">
         <v>192</v>
@@ -8372,7 +8372,7 @@
         <v>45</v>
       </c>
       <c r="N139" t="n">
-        <v>281.9141195064578</v>
+        <v>281.9141195064854</v>
       </c>
       <c r="O139" t="n">
         <v>2.512096588830754</v>
@@ -8408,13 +8408,13 @@
         <v>994</v>
       </c>
       <c r="G140" t="n">
-        <v>1.470450565314814</v>
+        <v>1.470450565314957</v>
       </c>
       <c r="H140" t="n">
-        <v>1.513508329380712</v>
+        <v>1.513508329380859</v>
       </c>
       <c r="I140" t="n">
-        <v>-1.132731227150001</v>
+        <v>-1.132731227150112</v>
       </c>
       <c r="J140" t="n">
         <v>400</v>
@@ -8429,10 +8429,10 @@
         <v>288</v>
       </c>
       <c r="N140" t="n">
-        <v>513.420488047595</v>
+        <v>513.4204880476451</v>
       </c>
       <c r="O140" t="n">
-        <v>4.363273126013156</v>
+        <v>4.363273126013159</v>
       </c>
       <c r="P140" t="inlineStr">
         <is>
@@ -8465,13 +8465,13 @@
         <v>1095</v>
       </c>
       <c r="G141" t="n">
-        <v>1.110911703000666</v>
+        <v>1.110911703000773</v>
       </c>
       <c r="H141" t="n">
-        <v>1.596834139973262</v>
+        <v>1.596834139973417</v>
       </c>
       <c r="I141" t="n">
-        <v>-1.132731227150001</v>
+        <v>-1.132731227150112</v>
       </c>
       <c r="J141" t="n">
         <v>101</v>
@@ -8486,10 +8486,10 @@
         <v>64</v>
       </c>
       <c r="N141" t="n">
-        <v>181.1636881433417</v>
+        <v>181.1636881433593</v>
       </c>
       <c r="O141" t="n">
-        <v>3.296412197331203</v>
+        <v>3.296412197331204</v>
       </c>
       <c r="P141" t="inlineStr">
         <is>
@@ -8522,13 +8522,13 @@
         <v>2031</v>
       </c>
       <c r="G142" t="n">
-        <v>1.068612147243161</v>
+        <v>1.068612147243264</v>
       </c>
       <c r="H142" t="n">
-        <v>0.5646551230713239</v>
+        <v>0.5646551230713787</v>
       </c>
       <c r="I142" t="n">
-        <v>-1.132731227150001</v>
+        <v>-1.132731227150112</v>
       </c>
       <c r="J142" t="n">
         <v>193</v>
@@ -8543,10 +8543,10 @@
         <v>106</v>
       </c>
       <c r="N142" t="n">
-        <v>175.8635969480329</v>
+        <v>175.8635969480501</v>
       </c>
       <c r="O142" t="n">
-        <v>3.170896576995129</v>
+        <v>3.170896576995131</v>
       </c>
       <c r="P142" t="inlineStr">
         <is>
@@ -8579,13 +8579,13 @@
         <v>2730</v>
       </c>
       <c r="G143" t="n">
-        <v>1.354890400440974</v>
+        <v>1.354890400441106</v>
       </c>
       <c r="H143" t="n">
-        <v>0.007461617001809997</v>
+        <v>0.007461617001810328</v>
       </c>
       <c r="I143" t="n">
-        <v>-1.132731227150001</v>
+        <v>-1.132731227150112</v>
       </c>
       <c r="J143" t="n">
         <v>381</v>
@@ -8600,10 +8600,10 @@
         <v>165</v>
       </c>
       <c r="N143" t="n">
-        <v>95.62165881456994</v>
+        <v>95.62165881457931</v>
       </c>
       <c r="O143" t="n">
-        <v>4.020371042988199</v>
+        <v>4.020371042988203</v>
       </c>
       <c r="P143" t="inlineStr">
         <is>
@@ -8636,13 +8636,13 @@
         <v>2900</v>
       </c>
       <c r="G144" t="n">
-        <v>1.34566076756512</v>
+        <v>1.345660767565251</v>
       </c>
       <c r="H144" t="n">
-        <v>0.906490714002184</v>
+        <v>0.9064907140022715</v>
       </c>
       <c r="I144" t="n">
-        <v>-1.132731227150001</v>
+        <v>-1.132731227150112</v>
       </c>
       <c r="J144" t="n">
         <v>170</v>
@@ -8657,10 +8657,10 @@
         <v>100</v>
       </c>
       <c r="N144" t="n">
-        <v>148.3439077250214</v>
+        <v>148.3439077250359</v>
       </c>
       <c r="O144" t="n">
-        <v>3.992983920945399</v>
+        <v>3.992983920945402</v>
       </c>
       <c r="P144" t="inlineStr">
         <is>
@@ -8693,13 +8693,13 @@
         <v>98</v>
       </c>
       <c r="G145" t="n">
-        <v>1.463876062154968</v>
+        <v>1.463876062155109</v>
       </c>
       <c r="H145" t="n">
-        <v>1.247263847182529</v>
+        <v>1.247263847182649</v>
       </c>
       <c r="I145" t="n">
-        <v>-0.9264637392805155</v>
+        <v>-0.926463739280606</v>
       </c>
       <c r="J145" t="n">
         <v>71</v>
@@ -8714,10 +8714,10 @@
         <v>36</v>
       </c>
       <c r="N145" t="n">
-        <v>70.19725700795064</v>
+        <v>70.19725700795748</v>
       </c>
       <c r="O145" t="n">
-        <v>4.571562496451591</v>
+        <v>4.571562496451645</v>
       </c>
       <c r="P145" t="inlineStr">
         <is>
@@ -8750,13 +8750,13 @@
         <v>220</v>
       </c>
       <c r="G146" t="n">
-        <v>1.952355520512107</v>
+        <v>1.952355520512297</v>
       </c>
       <c r="H146" t="n">
-        <v>2.283138374805425</v>
+        <v>2.283138374805647</v>
       </c>
       <c r="I146" t="n">
-        <v>-0.9264637392805155</v>
+        <v>-0.926463739280606</v>
       </c>
       <c r="J146" t="n">
         <v>193</v>
@@ -8771,10 +8771,10 @@
         <v>35</v>
       </c>
       <c r="N146" t="n">
-        <v>338.7073765191911</v>
+        <v>338.7073765192242</v>
       </c>
       <c r="O146" t="n">
-        <v>6.097042986121681</v>
+        <v>6.097042986121757</v>
       </c>
       <c r="P146" t="inlineStr">
         <is>
@@ -8807,13 +8807,13 @@
         <v>290</v>
       </c>
       <c r="G147" t="n">
-        <v>1.325342061506839</v>
+        <v>1.325342061506967</v>
       </c>
       <c r="H147" t="n">
-        <v>2.349392647933207</v>
+        <v>2.349392647933436</v>
       </c>
       <c r="I147" t="n">
-        <v>-0.9264637392805155</v>
+        <v>-0.926463739280606</v>
       </c>
       <c r="J147" t="n">
         <v>263</v>
@@ -8828,10 +8828,10 @@
         <v>34</v>
       </c>
       <c r="N147" t="n">
-        <v>511.076902280663</v>
+        <v>511.0769022807129</v>
       </c>
       <c r="O147" t="n">
-        <v>4.138932400079851</v>
+        <v>4.1389324000799</v>
       </c>
       <c r="P147" t="inlineStr">
         <is>
@@ -8864,13 +8864,13 @@
         <v>1096</v>
       </c>
       <c r="G148" t="n">
-        <v>2.272845881164693</v>
+        <v>2.272845881164912</v>
       </c>
       <c r="H148" t="n">
-        <v>1.749045893548567</v>
+        <v>1.749045893548737</v>
       </c>
       <c r="I148" t="n">
-        <v>-0.9264637392805155</v>
+        <v>-0.926463739280606</v>
       </c>
       <c r="J148" t="n">
         <v>162</v>
@@ -8885,10 +8885,10 @@
         <v>125</v>
       </c>
       <c r="N148" t="n">
-        <v>179.6868646711225</v>
+        <v>179.68686467114</v>
       </c>
       <c r="O148" t="n">
-        <v>7.097907575079281</v>
+        <v>7.097907575079368</v>
       </c>
       <c r="P148" t="inlineStr">
         <is>
@@ -8921,13 +8921,13 @@
         <v>1398</v>
       </c>
       <c r="G149" t="n">
-        <v>2.35077474436351</v>
+        <v>2.350774744363737</v>
       </c>
       <c r="H149" t="n">
-        <v>1.926347088325356</v>
+        <v>1.926347088325542</v>
       </c>
       <c r="I149" t="n">
-        <v>-0.9264637392805155</v>
+        <v>-0.926463739280606</v>
       </c>
       <c r="J149" t="n">
         <v>464</v>
@@ -8942,10 +8942,10 @@
         <v>268</v>
       </c>
       <c r="N149" t="n">
-        <v>544.877868838877</v>
+        <v>544.8778688389302</v>
       </c>
       <c r="O149" t="n">
-        <v>7.341272896502992</v>
+        <v>7.341272896503082</v>
       </c>
       <c r="P149" t="inlineStr">
         <is>
@@ -8978,13 +8978,13 @@
         <v>2776</v>
       </c>
       <c r="G150" t="n">
-        <v>1.19945457417588</v>
+        <v>1.199454574175996</v>
       </c>
       <c r="H150" t="n">
-        <v>1.70820949055512</v>
+        <v>1.708209490555285</v>
       </c>
       <c r="I150" t="n">
-        <v>-0.9264637392805155</v>
+        <v>-0.926463739280606</v>
       </c>
       <c r="J150" t="n">
         <v>318</v>
@@ -8999,10 +8999,10 @@
         <v>286</v>
       </c>
       <c r="N150" t="n">
-        <v>275.2735192566059</v>
+        <v>275.2735192566328</v>
       </c>
       <c r="O150" t="n">
-        <v>3.745796306982229</v>
+        <v>3.745796306982274</v>
       </c>
       <c r="P150" t="inlineStr">
         <is>
@@ -9035,13 +9035,13 @@
         <v>2027</v>
       </c>
       <c r="G151" t="n">
-        <v>1.328850940359833</v>
+        <v>1.328850940359961</v>
       </c>
       <c r="H151" t="n">
-        <v>0.7171973334456584</v>
+        <v>0.717197333445728</v>
       </c>
       <c r="I151" t="n">
-        <v>-0.9791918469420797</v>
+        <v>-0.9791918469421752</v>
       </c>
       <c r="J151" t="n">
         <v>324</v>
@@ -9056,10 +9056,10 @@
         <v>153</v>
       </c>
       <c r="N151" t="n">
-        <v>225.5265735906094</v>
+        <v>225.5265735906314</v>
       </c>
       <c r="O151" t="n">
-        <v>5.049922283881433</v>
+        <v>5.049922283881456</v>
       </c>
       <c r="P151" t="inlineStr">
         <is>
@@ -9092,13 +9092,13 @@
         <v>2631</v>
       </c>
       <c r="G152" t="n">
-        <v>1.340429623854741</v>
+        <v>1.340429623854871</v>
       </c>
       <c r="H152" t="n">
-        <v>1.3695783229254</v>
+        <v>1.369578322925533</v>
       </c>
       <c r="I152" t="n">
-        <v>-0.9791918469420797</v>
+        <v>-0.9791918469421752</v>
       </c>
       <c r="J152" t="n">
         <v>484</v>
@@ -9113,10 +9113,10 @@
         <v>454</v>
       </c>
       <c r="N152" t="n">
-        <v>842.6447399631641</v>
+        <v>842.6447399632461</v>
       </c>
       <c r="O152" t="n">
-        <v>5.093923796784839</v>
+        <v>5.093923796784863</v>
       </c>
       <c r="P152" t="inlineStr">
         <is>
@@ -9149,13 +9149,13 @@
         <v>600</v>
       </c>
       <c r="G153" t="n">
-        <v>2.324555502073855</v>
+        <v>2.324555502074079</v>
       </c>
       <c r="H153" t="n">
-        <v>1.791512106397847</v>
+        <v>1.791512106398021</v>
       </c>
       <c r="I153" t="n">
-        <v>-0.9390108087611823</v>
+        <v>-0.9390108087612553</v>
       </c>
       <c r="J153" t="n">
         <v>493</v>
@@ -9170,10 +9170,10 @@
         <v>291</v>
       </c>
       <c r="N153" t="n">
-        <v>357.526745034772</v>
+        <v>357.5267450347978</v>
       </c>
       <c r="O153" t="n">
-        <v>7.879961093232278</v>
+        <v>7.879961093232266</v>
       </c>
       <c r="P153" t="inlineStr">
         <is>
@@ -9206,13 +9206,13 @@
         <v>600</v>
       </c>
       <c r="G154" t="n">
-        <v>1.400095039476755</v>
+        <v>1.40009503947689</v>
       </c>
       <c r="H154" t="n">
-        <v>0.9153721230339951</v>
+        <v>0.9153721230340838</v>
       </c>
       <c r="I154" t="n">
-        <v>-0.9390108087611823</v>
+        <v>-0.9390108087612553</v>
       </c>
       <c r="J154" t="n">
         <v>92</v>
@@ -9227,10 +9227,10 @@
         <v>59</v>
       </c>
       <c r="N154" t="n">
-        <v>106.4622841901459</v>
+        <v>106.4622841901546</v>
       </c>
       <c r="O154" t="n">
-        <v>4.746152297960408</v>
+        <v>4.746152297960402</v>
       </c>
       <c r="P154" t="inlineStr">
         <is>
@@ -9263,13 +9263,13 @@
         <v>1154</v>
       </c>
       <c r="G155" t="n">
-        <v>1.458063221331643</v>
+        <v>1.458063221331784</v>
       </c>
       <c r="H155" t="n">
-        <v>2.023204462850761</v>
+        <v>2.023204462850958</v>
       </c>
       <c r="I155" t="n">
-        <v>-0.9390108087611823</v>
+        <v>-0.9390108087612553</v>
       </c>
       <c r="J155" t="n">
         <v>116</v>
@@ -9284,10 +9284,10 @@
         <v>54</v>
       </c>
       <c r="N155" t="n">
-        <v>245.568651750601</v>
+        <v>245.5686517506228</v>
       </c>
       <c r="O155" t="n">
-        <v>4.942657400658284</v>
+        <v>4.942657400658278</v>
       </c>
       <c r="P155" t="inlineStr">
         <is>
@@ -9320,13 +9320,13 @@
         <v>2255</v>
       </c>
       <c r="G156" t="n">
-        <v>1.357721121099773</v>
+        <v>1.357721121099905</v>
       </c>
       <c r="H156" t="n">
-        <v>0.4244246321149948</v>
+        <v>0.4244246321150357</v>
       </c>
       <c r="I156" t="n">
-        <v>-0.9390108087611823</v>
+        <v>-0.9390108087612553</v>
       </c>
       <c r="J156" t="n">
         <v>171</v>
@@ -9341,10 +9341,10 @@
         <v>132</v>
       </c>
       <c r="N156" t="n">
-        <v>100.1867392977606</v>
+        <v>100.1867392977672</v>
       </c>
       <c r="O156" t="n">
-        <v>4.602509856263265</v>
+        <v>4.60250985626326</v>
       </c>
       <c r="P156" t="inlineStr">
         <is>
@@ -9377,13 +9377,13 @@
         <v>2748</v>
       </c>
       <c r="G157" t="n">
-        <v>2.86377744849506</v>
+        <v>2.863777448495338</v>
       </c>
       <c r="H157" t="n">
-        <v>1.904038737356543</v>
+        <v>1.904038737356728</v>
       </c>
       <c r="I157" t="n">
-        <v>-0.9390108087611823</v>
+        <v>-0.9390108087612553</v>
       </c>
       <c r="J157" t="n">
         <v>493</v>
@@ -9398,10 +9398,10 @@
         <v>283</v>
       </c>
       <c r="N157" t="n">
-        <v>419.8721169944974</v>
+        <v>419.8721169945292</v>
       </c>
       <c r="O157" t="n">
-        <v>9.707858063050928</v>
+        <v>9.707858063050923</v>
       </c>
       <c r="P157" t="inlineStr">
         <is>
@@ -9434,13 +9434,13 @@
         <v>2748</v>
       </c>
       <c r="G158" t="n">
-        <v>1.090789433962197</v>
+        <v>1.090789433962303</v>
       </c>
       <c r="H158" t="n">
-        <v>0.94798065051229</v>
+        <v>0.947980650512382</v>
       </c>
       <c r="I158" t="n">
-        <v>-0.9390108087611823</v>
+        <v>-0.9390108087612553</v>
       </c>
       <c r="J158" t="n">
         <v>204</v>
@@ -9455,10 +9455,10 @@
         <v>173</v>
       </c>
       <c r="N158" t="n">
-        <v>148.2550316119655</v>
+        <v>148.2550316119762</v>
       </c>
       <c r="O158" t="n">
-        <v>3.697643826040115</v>
+        <v>3.697643826040111</v>
       </c>
       <c r="P158" t="inlineStr">
         <is>
@@ -9491,13 +9491,13 @@
         <v>2602</v>
       </c>
       <c r="G159" t="n">
-        <v>3.111567579378195</v>
+        <v>3.111567579378497</v>
       </c>
       <c r="H159" t="n">
-        <v>2.239199787050413</v>
+        <v>2.239199787050631</v>
       </c>
       <c r="I159" t="n">
-        <v>-0.7118622984454436</v>
+        <v>-0.7118622984455129</v>
       </c>
       <c r="J159" t="n">
         <v>504</v>
@@ -9512,10 +9512,10 @@
         <v>447</v>
       </c>
       <c r="N159" t="n">
-        <v>452.8390395219013</v>
+        <v>452.8390395219454</v>
       </c>
       <c r="O159" t="n">
-        <v>23.37085779748227</v>
+        <v>23.37085779748216</v>
       </c>
       <c r="P159" t="inlineStr">
         <is>
@@ -9548,13 +9548,13 @@
         <v>2602</v>
       </c>
       <c r="G160" t="n">
-        <v>0.4945008594859202</v>
+        <v>0.494500859485968</v>
       </c>
       <c r="H160" t="n">
-        <v>0.3430981297207177</v>
+        <v>0.3430981297207509</v>
       </c>
       <c r="I160" t="n">
-        <v>-0.7118622984454436</v>
+        <v>-0.7118622984455129</v>
       </c>
       <c r="J160" t="n">
         <v>281</v>
@@ -9569,10 +9569,10 @@
         <v>228</v>
       </c>
       <c r="N160" t="n">
-        <v>108.9988325407607</v>
+        <v>108.9988325407712</v>
       </c>
       <c r="O160" t="n">
-        <v>3.71417588496911</v>
+        <v>3.714175884969091</v>
       </c>
       <c r="P160" t="inlineStr">
         <is>
@@ -9605,13 +9605,13 @@
         <v>2673</v>
       </c>
       <c r="G161" t="n">
-        <v>1.171532650107465</v>
+        <v>1.171532650107577</v>
       </c>
       <c r="H161" t="n">
-        <v>1.552458640106345</v>
+        <v>1.552458640106496</v>
       </c>
       <c r="I161" t="n">
-        <v>-0.7118622984454436</v>
+        <v>-0.7118622984455129</v>
       </c>
       <c r="J161" t="n">
         <v>71</v>
@@ -9626,10 +9626,10 @@
         <v>36</v>
       </c>
       <c r="N161" t="n">
-        <v>96.83833878741028</v>
+        <v>96.8383387874197</v>
       </c>
       <c r="O161" t="n">
-        <v>8.799334185195674</v>
+        <v>8.799334185195622</v>
       </c>
       <c r="P161" t="inlineStr">
         <is>
@@ -9662,19 +9662,19 @@
         <v>2993</v>
       </c>
       <c r="G162" t="n">
-        <v>1.567009459622401</v>
+        <v>1.567009459622553</v>
       </c>
       <c r="H162" t="n">
-        <v>2.726859149263123</v>
+        <v>2.726859149263389</v>
       </c>
       <c r="I162" t="n">
-        <v>-0.7118622984454436</v>
+        <v>-0.7118622984455129</v>
       </c>
       <c r="J162" t="n">
         <v>135</v>
       </c>
       <c r="K162" t="n">
-        <v>46.62995565703113</v>
+        <v>46.62995565703068</v>
       </c>
       <c r="L162" t="n">
         <v>35</v>
@@ -9683,10 +9683,10 @@
         <v>102</v>
       </c>
       <c r="N162" t="n">
-        <v>332.6894839674002</v>
+        <v>332.6894839674308</v>
       </c>
       <c r="O162" t="n">
-        <v>11.76974444998657</v>
+        <v>11.76974444998651</v>
       </c>
       <c r="P162" t="inlineStr">
         <is>
@@ -9719,19 +9719,19 @@
         <v>252</v>
       </c>
       <c r="G163" t="n">
-        <v>0.5515358555185021</v>
+        <v>0.5515358555185557</v>
       </c>
       <c r="H163" t="n">
-        <v>-0.265661565640195</v>
+        <v>-0.2656615656402212</v>
       </c>
       <c r="I163" t="n">
-        <v>-0.8093478051797467</v>
+        <v>-0.8093478051798256</v>
       </c>
       <c r="J163" t="n">
         <v>194</v>
       </c>
       <c r="K163" t="n">
-        <v>33.23540342002019</v>
+        <v>33.23540342002022</v>
       </c>
       <c r="L163" t="n">
         <v>124</v>
@@ -9740,10 +9740,10 @@
         <v>72</v>
       </c>
       <c r="N163" t="n">
-        <v>38.28779430223575</v>
+        <v>38.28779430223949</v>
       </c>
       <c r="O163" t="n">
-        <v>2.722397937706392</v>
+        <v>2.722397937706387</v>
       </c>
       <c r="P163" t="inlineStr">
         <is>
@@ -9776,13 +9776,13 @@
         <v>693</v>
       </c>
       <c r="G164" t="n">
-        <v>1.006760523006034</v>
+        <v>1.006760523006132</v>
       </c>
       <c r="H164" t="n">
-        <v>0.1222399183113662</v>
+        <v>0.1222399183113778</v>
       </c>
       <c r="I164" t="n">
-        <v>-0.8093478051797467</v>
+        <v>-0.8093478051798256</v>
       </c>
       <c r="J164" t="n">
         <v>441</v>
@@ -9797,10 +9797,10 @@
         <v>315</v>
       </c>
       <c r="N164" t="n">
-        <v>118.4885787860151</v>
+        <v>118.4885787860266</v>
       </c>
       <c r="O164" t="n">
-        <v>4.96940089057164</v>
+        <v>4.969400890571632</v>
       </c>
       <c r="P164" t="inlineStr">
         <is>
@@ -9833,13 +9833,13 @@
         <v>796</v>
       </c>
       <c r="G165" t="n">
-        <v>1.031255968483806</v>
+        <v>1.031255968483906</v>
       </c>
       <c r="H165" t="n">
-        <v>0.817164250281285</v>
+        <v>0.8171642502813641</v>
       </c>
       <c r="I165" t="n">
-        <v>-0.8093478051797467</v>
+        <v>-0.8093478051798256</v>
       </c>
       <c r="J165" t="n">
         <v>103</v>
@@ -9854,10 +9854,10 @@
         <v>68</v>
       </c>
       <c r="N165" t="n">
-        <v>83.53672097092394</v>
+        <v>83.53672097093208</v>
       </c>
       <c r="O165" t="n">
-        <v>5.090311162469</v>
+        <v>5.09031116246899</v>
       </c>
       <c r="P165" t="inlineStr">
         <is>
@@ -9890,13 +9890,13 @@
         <v>1458</v>
       </c>
       <c r="G166" t="n">
-        <v>0.6397423617614311</v>
+        <v>0.6397423617614926</v>
       </c>
       <c r="H166" t="n">
-        <v>0.1551326850948617</v>
+        <v>0.1551326850948762</v>
       </c>
       <c r="I166" t="n">
-        <v>-0.8093478051797467</v>
+        <v>-0.8093478051798256</v>
       </c>
       <c r="J166" t="n">
         <v>76</v>
@@ -9911,10 +9911,10 @@
         <v>49</v>
       </c>
       <c r="N166" t="n">
-        <v>39.01882851241104</v>
+        <v>39.01882851241485</v>
       </c>
       <c r="O166" t="n">
-        <v>3.157787964094223</v>
+        <v>3.157787964094215</v>
       </c>
       <c r="P166" t="inlineStr">
         <is>
@@ -9947,13 +9947,13 @@
         <v>1591</v>
       </c>
       <c r="G167" t="n">
-        <v>1.284685130067505</v>
+        <v>1.284685130067629</v>
       </c>
       <c r="H167" t="n">
-        <v>1.015872083455186</v>
+        <v>1.015872083455284</v>
       </c>
       <c r="I167" t="n">
-        <v>-0.8093478051797467</v>
+        <v>-0.8093478051798256</v>
       </c>
       <c r="J167" t="n">
         <v>133</v>
@@ -9968,10 +9968,10 @@
         <v>75</v>
       </c>
       <c r="N167" t="n">
-        <v>151.4830971289594</v>
+        <v>151.4830971289742</v>
       </c>
       <c r="O167" t="n">
-        <v>6.341245294759474</v>
+        <v>6.341245294759459</v>
       </c>
       <c r="P167" t="inlineStr">
         <is>
@@ -10004,13 +10004,13 @@
         <v>1972</v>
       </c>
       <c r="G168" t="n">
-        <v>0.4865245983323214</v>
+        <v>0.4865245983323685</v>
       </c>
       <c r="H168" t="n">
-        <v>1.105642362205476</v>
+        <v>1.105642362205583</v>
       </c>
       <c r="I168" t="n">
-        <v>-0.8093478051797467</v>
+        <v>-0.8093478051798256</v>
       </c>
       <c r="J168" t="n">
         <v>129</v>
@@ -10025,10 +10025,10 @@
         <v>42</v>
       </c>
       <c r="N168" t="n">
-        <v>202.9320045771235</v>
+        <v>202.9320045771433</v>
       </c>
       <c r="O168" t="n">
-        <v>2.401500373712167</v>
+        <v>2.401500373712162</v>
       </c>
       <c r="P168" t="inlineStr">
         <is>
@@ -10061,13 +10061,13 @@
         <v>2417</v>
       </c>
       <c r="G169" t="n">
-        <v>0.6576777786807376</v>
+        <v>0.6576777786808014</v>
       </c>
       <c r="H169" t="n">
-        <v>1.143850467547001</v>
+        <v>1.143850467547113</v>
       </c>
       <c r="I169" t="n">
-        <v>-0.8093478051797467</v>
+        <v>-0.8093478051798256</v>
       </c>
       <c r="J169" t="n">
         <v>445</v>
@@ -10082,10 +10082,10 @@
         <v>414</v>
       </c>
       <c r="N169" t="n">
-        <v>218.0747954112551</v>
+        <v>218.0747954112763</v>
       </c>
       <c r="O169" t="n">
-        <v>3.246317733363932</v>
+        <v>3.246317733363925</v>
       </c>
       <c r="P169" t="inlineStr">
         <is>
@@ -10118,13 +10118,13 @@
         <v>526</v>
       </c>
       <c r="G170" t="n">
-        <v>1.571441660209975</v>
+        <v>1.571441660210128</v>
       </c>
       <c r="H170" t="n">
-        <v>0.777229863829643</v>
+        <v>0.7772298638297183</v>
       </c>
       <c r="I170" t="n">
-        <v>-0.9894744797343528</v>
+        <v>-0.9894744797344494</v>
       </c>
       <c r="J170" t="n">
         <v>421</v>
@@ -10139,10 +10139,10 @@
         <v>382</v>
       </c>
       <c r="N170" t="n">
-        <v>360.4004061099484</v>
+        <v>360.4004061099836</v>
       </c>
       <c r="O170" t="n">
-        <v>5.005144297780873</v>
+        <v>5.005144297780861</v>
       </c>
       <c r="P170" t="inlineStr">
         <is>
@@ -10175,13 +10175,13 @@
         <v>526</v>
       </c>
       <c r="G171" t="n">
-        <v>0.9909146841828164</v>
+        <v>0.9909146841829121</v>
       </c>
       <c r="H171" t="n">
-        <v>0.7407166079663512</v>
+        <v>0.7407166079664229</v>
       </c>
       <c r="I171" t="n">
-        <v>-0.9894744797343528</v>
+        <v>-0.9894744797344494</v>
       </c>
       <c r="J171" t="n">
         <v>313</v>
@@ -10196,10 +10196,10 @@
         <v>267</v>
       </c>
       <c r="N171" t="n">
-        <v>232.3563279398171</v>
+        <v>232.3563279398398</v>
       </c>
       <c r="O171" t="n">
-        <v>3.156127972617354</v>
+        <v>3.156127972617345</v>
       </c>
       <c r="P171" t="inlineStr">
         <is>
@@ -10232,13 +10232,13 @@
         <v>923</v>
       </c>
       <c r="G172" t="n">
-        <v>1.856555327628676</v>
+        <v>1.856555327628855</v>
       </c>
       <c r="H172" t="n">
-        <v>1.602355395360721</v>
+        <v>1.602355395360876</v>
       </c>
       <c r="I172" t="n">
-        <v>-0.9894744797343528</v>
+        <v>-0.9894744797344494</v>
       </c>
       <c r="J172" t="n">
         <v>397</v>
@@ -10253,10 +10253,10 @@
         <v>198</v>
       </c>
       <c r="N172" t="n">
-        <v>472.0394696558335</v>
+        <v>472.0394696558796</v>
       </c>
       <c r="O172" t="n">
-        <v>5.913249945501466</v>
+        <v>5.913249945501449</v>
       </c>
       <c r="P172" t="inlineStr">
         <is>
@@ -10289,13 +10289,13 @@
         <v>923</v>
       </c>
       <c r="G173" t="n">
-        <v>0.7539510175160785</v>
+        <v>0.7539510175161511</v>
       </c>
       <c r="H173" t="n">
-        <v>1.530985762535998</v>
+        <v>1.530985762536147</v>
       </c>
       <c r="I173" t="n">
-        <v>-0.9894744797343528</v>
+        <v>-0.9894744797344494</v>
       </c>
       <c r="J173" t="n">
         <v>170</v>
@@ -10310,10 +10310,10 @@
         <v>142</v>
       </c>
       <c r="N173" t="n">
-        <v>275.0762861028685</v>
+        <v>275.0762861028953</v>
       </c>
       <c r="O173" t="n">
-        <v>2.401383221329678</v>
+        <v>2.401383221329671</v>
       </c>
       <c r="P173" t="inlineStr">
         <is>
@@ -10346,13 +10346,13 @@
         <v>1439</v>
       </c>
       <c r="G174" t="n">
-        <v>0.9104120944581531</v>
+        <v>0.9104120944582412</v>
       </c>
       <c r="H174" t="n">
-        <v>1.097155203287187</v>
+        <v>1.097155203287294</v>
       </c>
       <c r="I174" t="n">
-        <v>-0.9894744797343528</v>
+        <v>-0.9894744797344494</v>
       </c>
       <c r="J174" t="n">
         <v>316</v>
@@ -10367,10 +10367,10 @@
         <v>270</v>
       </c>
       <c r="N174" t="n">
-        <v>323.7096023227857</v>
+        <v>323.7096023228173</v>
       </c>
       <c r="O174" t="n">
-        <v>2.899721967787908</v>
+        <v>2.899721967787901</v>
       </c>
       <c r="P174" t="inlineStr">
         <is>
@@ -10403,13 +10403,13 @@
         <v>1590</v>
       </c>
       <c r="G175" t="n">
-        <v>1.706556735631793</v>
+        <v>1.706556735631958</v>
       </c>
       <c r="H175" t="n">
-        <v>1.915697428138748</v>
+        <v>1.915697428138934</v>
       </c>
       <c r="I175" t="n">
-        <v>-0.9894744797343528</v>
+        <v>-0.9894744797344494</v>
       </c>
       <c r="J175" t="n">
         <v>151</v>
@@ -10424,10 +10424,10 @@
         <v>63</v>
       </c>
       <c r="N175" t="n">
-        <v>249.1771416183055</v>
+        <v>249.1771416183299</v>
       </c>
       <c r="O175" t="n">
-        <v>5.435494635572847</v>
+        <v>5.435494635572833</v>
       </c>
       <c r="P175" t="inlineStr">
         <is>
@@ -10460,13 +10460,13 @@
         <v>2165</v>
       </c>
       <c r="G176" t="n">
-        <v>0.8202549943880453</v>
+        <v>0.8202549943881245</v>
       </c>
       <c r="H176" t="n">
-        <v>0.3048255424752755</v>
+        <v>0.304825542475305</v>
       </c>
       <c r="I176" t="n">
-        <v>-0.9894744797343528</v>
+        <v>-0.9894744797344494</v>
       </c>
       <c r="J176" t="n">
         <v>224</v>
@@ -10481,10 +10481,10 @@
         <v>194</v>
       </c>
       <c r="N176" t="n">
-        <v>103.7549552195532</v>
+        <v>103.7549552195634</v>
       </c>
       <c r="O176" t="n">
-        <v>2.612565717100203</v>
+        <v>2.612565717100196</v>
       </c>
       <c r="P176" t="inlineStr">
         <is>
@@ -10517,13 +10517,13 @@
         <v>2661</v>
       </c>
       <c r="G177" t="n">
-        <v>1.993772231209569</v>
+        <v>1.993772231209762</v>
       </c>
       <c r="H177" t="n">
-        <v>0.7002964049668539</v>
+        <v>0.7002964049669212</v>
       </c>
       <c r="I177" t="n">
-        <v>-0.9894744797343528</v>
+        <v>-0.9894744797344494</v>
       </c>
       <c r="J177" t="n">
         <v>496</v>
@@ -10538,10 +10538,10 @@
         <v>329</v>
       </c>
       <c r="N177" t="n">
-        <v>66.46484213072779</v>
+        <v>66.46484213073433</v>
       </c>
       <c r="O177" t="n">
-        <v>6.350294743222613</v>
+        <v>6.350294743222598</v>
       </c>
       <c r="P177" t="inlineStr">
         <is>
@@ -10574,13 +10574,13 @@
         <v>1475</v>
       </c>
       <c r="G178" t="n">
-        <v>1.636690844455631</v>
+        <v>1.63669084445579</v>
       </c>
       <c r="H178" t="n">
-        <v>0.7477748051356654</v>
+        <v>0.7477748051357377</v>
       </c>
       <c r="I178" t="n">
-        <v>-0.8385296035392619</v>
+        <v>-0.8385296035393436</v>
       </c>
       <c r="J178" t="n">
         <v>380</v>
@@ -10595,10 +10595,10 @@
         <v>312</v>
       </c>
       <c r="N178" t="n">
-        <v>168.4083280107881</v>
+        <v>168.4083280108044</v>
       </c>
       <c r="O178" t="n">
-        <v>6.910579836791785</v>
+        <v>6.910579836791797</v>
       </c>
       <c r="P178" t="inlineStr">
         <is>
@@ -10631,13 +10631,13 @@
         <v>1475</v>
       </c>
       <c r="G179" t="n">
-        <v>0.9470382297070341</v>
+        <v>0.9470382297071261</v>
       </c>
       <c r="H179" t="n">
-        <v>0.08981203574009035</v>
+        <v>0.08981203574009881</v>
       </c>
       <c r="I179" t="n">
-        <v>-0.8385296035392619</v>
+        <v>-0.8385296035393436</v>
       </c>
       <c r="J179" t="n">
         <v>195</v>
@@ -10652,10 +10652,10 @@
         <v>130</v>
       </c>
       <c r="N179" t="n">
-        <v>77.72678684078411</v>
+        <v>77.72678684079169</v>
       </c>
       <c r="O179" t="n">
-        <v>3.998667993442077</v>
+        <v>3.998667993442085</v>
       </c>
       <c r="P179" t="inlineStr">
         <is>
@@ -10688,13 +10688,13 @@
         <v>2172</v>
       </c>
       <c r="G180" t="n">
-        <v>0.9530859003215355</v>
+        <v>0.9530859003216277</v>
       </c>
       <c r="H180" t="n">
-        <v>0.4925661469641468</v>
+        <v>0.4925661469641944</v>
       </c>
       <c r="I180" t="n">
-        <v>-0.8385296035392619</v>
+        <v>-0.8385296035393436</v>
       </c>
       <c r="J180" t="n">
         <v>177</v>
@@ -10709,10 +10709,10 @@
         <v>141</v>
       </c>
       <c r="N180" t="n">
-        <v>157.7808266409486</v>
+        <v>157.7808266409641</v>
       </c>
       <c r="O180" t="n">
-        <v>4.024202999487787</v>
+        <v>4.024202999487792</v>
       </c>
       <c r="P180" t="inlineStr">
         <is>
@@ -10745,13 +10745,13 @@
         <v>2913</v>
       </c>
       <c r="G181" t="n">
-        <v>0.9439504585124543</v>
+        <v>0.9439504585125454</v>
       </c>
       <c r="H181" t="n">
-        <v>1.0421604135249</v>
+        <v>1.042160413525001</v>
       </c>
       <c r="I181" t="n">
-        <v>-0.8385296035392619</v>
+        <v>-0.8385296035393436</v>
       </c>
       <c r="J181" t="n">
         <v>220</v>
@@ -10766,10 +10766,10 @@
         <v>168</v>
       </c>
       <c r="N181" t="n">
-        <v>232.3135400354063</v>
+        <v>232.313540035429</v>
       </c>
       <c r="O181" t="n">
-        <v>3.985630534700144</v>
+        <v>3.985630534700149</v>
       </c>
       <c r="P181" t="inlineStr">
         <is>
@@ -10802,13 +10802,13 @@
         <v>989</v>
       </c>
       <c r="G182" t="n">
-        <v>1.353333933224697</v>
+        <v>1.353333933224828</v>
       </c>
       <c r="H182" t="n">
-        <v>0.3440156743196023</v>
+        <v>0.3440156743196355</v>
       </c>
       <c r="I182" t="n">
-        <v>-0.9294594335991535</v>
+        <v>-0.9294594335992441</v>
       </c>
       <c r="J182" t="n">
         <v>460</v>
@@ -10823,10 +10823,10 @@
         <v>405</v>
       </c>
       <c r="N182" t="n">
-        <v>161.7062641181759</v>
+        <v>161.7062641181917</v>
       </c>
       <c r="O182" t="n">
-        <v>7.251278425344571</v>
+        <v>7.251278425344651</v>
       </c>
       <c r="P182" t="inlineStr">
         <is>
@@ -10859,13 +10859,13 @@
         <v>2375</v>
       </c>
       <c r="G183" t="n">
-        <v>1.12353185935131</v>
+        <v>1.123531859351419</v>
       </c>
       <c r="H183" t="n">
-        <v>1.336918322013936</v>
+        <v>1.336918322014067</v>
       </c>
       <c r="I183" t="n">
-        <v>-0.9294594335991535</v>
+        <v>-0.9294594335992441</v>
       </c>
       <c r="J183" t="n">
         <v>231</v>
@@ -10880,10 +10880,10 @@
         <v>195</v>
       </c>
       <c r="N183" t="n">
-        <v>352.4701067620875</v>
+        <v>352.4701067621219</v>
       </c>
       <c r="O183" t="n">
-        <v>6.019979350173256</v>
+        <v>6.019979350173323</v>
       </c>
       <c r="P183" t="inlineStr">
         <is>
@@ -10916,13 +10916,13 @@
         <v>2939</v>
       </c>
       <c r="G184" t="n">
-        <v>2.103148985698867</v>
+        <v>2.103148985699071</v>
       </c>
       <c r="H184" t="n">
-        <v>2.168067973926652</v>
+        <v>2.168067973926863</v>
       </c>
       <c r="I184" t="n">
-        <v>-0.9294594335991535</v>
+        <v>-0.9294594335992441</v>
       </c>
       <c r="J184" t="n">
         <v>564</v>
@@ -10937,10 +10937,10 @@
         <v>482</v>
       </c>
       <c r="N184" t="n">
-        <v>881.162823688235</v>
+        <v>881.1628236883209</v>
       </c>
       <c r="O184" t="n">
-        <v>11.26885130925882</v>
+        <v>11.26885130925894</v>
       </c>
       <c r="P184" t="inlineStr">
         <is>
@@ -10973,19 +10973,19 @@
         <v>2939</v>
       </c>
       <c r="G185" t="n">
-        <v>1.514251393775993</v>
+        <v>1.514251393776139</v>
       </c>
       <c r="H185" t="n">
-        <v>2.145389896601465</v>
+        <v>2.145389896601673</v>
       </c>
       <c r="I185" t="n">
-        <v>-0.9294594335991535</v>
+        <v>-0.9294594335992441</v>
       </c>
       <c r="J185" t="n">
         <v>408</v>
       </c>
       <c r="K185" t="n">
-        <v>49.48926527938147</v>
+        <v>49.48926527938193</v>
       </c>
       <c r="L185" t="n">
         <v>36</v>
@@ -10994,10 +10994,10 @@
         <v>374</v>
       </c>
       <c r="N185" t="n">
-        <v>523.3127329791132</v>
+        <v>523.3127329791643</v>
       </c>
       <c r="O185" t="n">
-        <v>8.113487878096921</v>
+        <v>8.113487878097006</v>
       </c>
       <c r="P185" t="inlineStr">
         <is>
@@ -11030,19 +11030,19 @@
         <v>625</v>
       </c>
       <c r="G186" t="n">
-        <v>3.141502785785108</v>
+        <v>3.141502785785413</v>
       </c>
       <c r="H186" t="n">
-        <v>2.444084488249716</v>
+        <v>2.444084488249954</v>
       </c>
       <c r="I186" t="n">
-        <v>-0.6672657497621515</v>
+        <v>-0.6672657497622165</v>
       </c>
       <c r="J186" t="n">
         <v>515</v>
       </c>
       <c r="K186" t="n">
-        <v>82.91193306053597</v>
+        <v>82.91193306053594</v>
       </c>
       <c r="L186" t="n">
         <v>40</v>
@@ -11051,10 +11051,10 @@
         <v>477</v>
       </c>
       <c r="N186" t="n">
-        <v>417.6060257862349</v>
+        <v>417.6060257862757</v>
       </c>
       <c r="O186" t="n">
-        <v>34.88028923049696</v>
+        <v>34.88028923049716</v>
       </c>
       <c r="P186" t="inlineStr">
         <is>
@@ -11087,13 +11087,13 @@
         <v>705</v>
       </c>
       <c r="G187" t="n">
-        <v>1.032414100511501</v>
+        <v>1.0324141005116</v>
       </c>
       <c r="H187" t="n">
-        <v>2.654715697678206</v>
+        <v>2.654715697678464</v>
       </c>
       <c r="I187" t="n">
-        <v>-0.6672657497621515</v>
+        <v>-0.6672657497622165</v>
       </c>
       <c r="J187" t="n">
         <v>595</v>
@@ -11108,10 +11108,10 @@
         <v>43</v>
       </c>
       <c r="N187" t="n">
-        <v>598.4758855969214</v>
+        <v>598.4758855969798</v>
       </c>
       <c r="O187" t="n">
-        <v>11.46295416143801</v>
+        <v>11.46295416143807</v>
       </c>
       <c r="P187" t="inlineStr">
         <is>
@@ -11144,13 +11144,13 @@
         <v>2511</v>
       </c>
       <c r="G188" t="n">
-        <v>0.7630075306194328</v>
+        <v>0.7630075306195069</v>
       </c>
       <c r="H188" t="n">
-        <v>0.03738740903913346</v>
+        <v>0.03738740903913694</v>
       </c>
       <c r="I188" t="n">
-        <v>-0.6672657497621515</v>
+        <v>-0.6672657497622165</v>
       </c>
       <c r="J188" t="n">
         <v>362</v>
@@ -11165,10 +11165,10 @@
         <v>143</v>
       </c>
       <c r="N188" t="n">
-        <v>132.114946728455</v>
+        <v>132.1149467284679</v>
       </c>
       <c r="O188" t="n">
-        <v>8.471717253754358</v>
+        <v>8.471717253754406</v>
       </c>
       <c r="P188" t="inlineStr">
         <is>
@@ -11201,13 +11201,13 @@
         <v>2821</v>
       </c>
       <c r="G189" t="n">
-        <v>0.3662966579694262</v>
+        <v>0.3662966579694609</v>
       </c>
       <c r="H189" t="n">
-        <v>-0.2946718952844524</v>
+        <v>-0.2946718952844813</v>
       </c>
       <c r="I189" t="n">
-        <v>-0.6672657497621515</v>
+        <v>-0.6672657497622165</v>
       </c>
       <c r="J189" t="n">
         <v>310</v>
@@ -11222,10 +11222,10 @@
         <v>88</v>
       </c>
       <c r="N189" t="n">
-        <v>43.96615252430335</v>
+        <v>43.96615252430763</v>
       </c>
       <c r="O189" t="n">
-        <v>4.067013224355604</v>
+        <v>4.067013224355617</v>
       </c>
       <c r="P189" t="inlineStr">
         <is>
@@ -11258,19 +11258,19 @@
         <v>211</v>
       </c>
       <c r="G190" t="n">
-        <v>0.7208384175631513</v>
+        <v>0.7208384175632209</v>
       </c>
       <c r="H190" t="n">
-        <v>-0.219436288064255</v>
+        <v>-0.2194362880642768</v>
       </c>
       <c r="I190" t="n">
-        <v>-0.7896902824749129</v>
+        <v>-0.78969028247499</v>
       </c>
       <c r="J190" t="n">
         <v>124</v>
       </c>
       <c r="K190" t="n">
-        <v>33.54737982808969</v>
+        <v>33.54737982808973</v>
       </c>
       <c r="L190" t="n">
         <v>33</v>
@@ -11279,7 +11279,7 @@
         <v>93</v>
       </c>
       <c r="N190" t="n">
-        <v>29.54045688703053</v>
+        <v>29.54045688703343</v>
       </c>
       <c r="O190" t="n">
         <v>3.205609972998524</v>
@@ -11315,13 +11315,13 @@
         <v>441</v>
       </c>
       <c r="G191" t="n">
-        <v>0.8966329736818727</v>
+        <v>0.8966329736819595</v>
       </c>
       <c r="H191" t="n">
-        <v>-0.06986532002186401</v>
+        <v>-0.06986532002187117</v>
       </c>
       <c r="I191" t="n">
-        <v>-0.7896902824749129</v>
+        <v>-0.78969028247499</v>
       </c>
       <c r="J191" t="n">
         <v>354</v>
@@ -11336,10 +11336,10 @@
         <v>142</v>
       </c>
       <c r="N191" t="n">
-        <v>70.69358969519688</v>
+        <v>70.6935896952038</v>
       </c>
       <c r="O191" t="n">
-        <v>3.987378492215457</v>
+        <v>3.987378492215458</v>
       </c>
       <c r="P191" t="inlineStr">
         <is>
@@ -11372,13 +11372,13 @@
         <v>617</v>
       </c>
       <c r="G192" t="n">
-        <v>1.192009562620194</v>
+        <v>1.192009562620309</v>
       </c>
       <c r="H192" t="n">
-        <v>0.233861579042343</v>
+        <v>0.2338615790423655</v>
       </c>
       <c r="I192" t="n">
-        <v>-0.7896902824749129</v>
+        <v>-0.78969028247499</v>
       </c>
       <c r="J192" t="n">
         <v>530</v>
@@ -11393,10 +11393,10 @@
         <v>43</v>
       </c>
       <c r="N192" t="n">
-        <v>140.8619183308498</v>
+        <v>140.8619183308635</v>
       </c>
       <c r="O192" t="n">
-        <v>5.30093520093238</v>
+        <v>5.300935200932381</v>
       </c>
       <c r="P192" t="inlineStr">
         <is>
@@ -11429,13 +11429,13 @@
         <v>1310</v>
       </c>
       <c r="G193" t="n">
-        <v>0.5793284669794235</v>
+        <v>0.5793284669794787</v>
       </c>
       <c r="H193" t="n">
-        <v>0.3536684302394175</v>
+        <v>0.3536684302394516</v>
       </c>
       <c r="I193" t="n">
-        <v>-0.7896902824749129</v>
+        <v>-0.78969028247499</v>
       </c>
       <c r="J193" t="n">
         <v>222</v>
@@ -11450,10 +11450,10 @@
         <v>185</v>
       </c>
       <c r="N193" t="n">
-        <v>170.0495458534249</v>
+        <v>170.0495458534415</v>
       </c>
       <c r="O193" t="n">
-        <v>2.576307069855207</v>
+        <v>2.576307069855203</v>
       </c>
       <c r="P193" t="inlineStr">
         <is>
@@ -11486,13 +11486,13 @@
         <v>1695</v>
       </c>
       <c r="G194" t="n">
-        <v>0.6956261965225604</v>
+        <v>0.6956261965226276</v>
       </c>
       <c r="H194" t="n">
-        <v>1.086473465054676</v>
+        <v>1.086473465054782</v>
       </c>
       <c r="I194" t="n">
-        <v>-0.7896902824749129</v>
+        <v>-0.78969028247499</v>
       </c>
       <c r="J194" t="n">
         <v>318</v>
@@ -11507,10 +11507,10 @@
         <v>297</v>
       </c>
       <c r="N194" t="n">
-        <v>183.6386942408514</v>
+        <v>183.6386942408694</v>
       </c>
       <c r="O194" t="n">
-        <v>3.093489773464236</v>
+        <v>3.093489773464235</v>
       </c>
       <c r="P194" t="inlineStr">
         <is>
@@ -11543,13 +11543,13 @@
         <v>1695</v>
       </c>
       <c r="G195" t="n">
-        <v>0.7372979486134155</v>
+        <v>0.7372979486134867</v>
       </c>
       <c r="H195" t="n">
-        <v>-0.1493258665586933</v>
+        <v>-0.1493258665587083</v>
       </c>
       <c r="I195" t="n">
-        <v>-0.7896902824749129</v>
+        <v>-0.78969028247499</v>
       </c>
       <c r="J195" t="n">
         <v>104</v>
@@ -11564,7 +11564,7 @@
         <v>71</v>
       </c>
       <c r="N195" t="n">
-        <v>17.82923166007824</v>
+        <v>17.82923166007999</v>
       </c>
       <c r="O195" t="n">
         <v>3.278806455871863</v>
@@ -11600,13 +11600,13 @@
         <v>2140</v>
       </c>
       <c r="G196" t="n">
-        <v>1.446769731898879</v>
+        <v>1.44676973189902</v>
       </c>
       <c r="H196" t="n">
-        <v>0.5343353903446769</v>
+        <v>0.5343353903447289</v>
       </c>
       <c r="I196" t="n">
-        <v>-0.7896902824749129</v>
+        <v>-0.78969028247499</v>
       </c>
       <c r="J196" t="n">
         <v>445</v>
@@ -11621,10 +11621,10 @@
         <v>366</v>
       </c>
       <c r="N196" t="n">
-        <v>279.7669184298873</v>
+        <v>279.7669184299147</v>
       </c>
       <c r="O196" t="n">
-        <v>6.433868351364809</v>
+        <v>6.433868351364812</v>
       </c>
       <c r="P196" t="inlineStr">
         <is>
@@ -11657,13 +11657,13 @@
         <v>2140</v>
       </c>
       <c r="G197" t="n">
-        <v>0.729052885714079</v>
+        <v>0.7290528857141495</v>
       </c>
       <c r="H197" t="n">
-        <v>0.4889457035729589</v>
+        <v>0.4889457035730063</v>
       </c>
       <c r="I197" t="n">
-        <v>-0.7896902824749129</v>
+        <v>-0.78969028247499</v>
       </c>
       <c r="J197" t="n">
         <v>300</v>
@@ -11678,7 +11678,7 @@
         <v>227</v>
       </c>
       <c r="N197" t="n">
-        <v>192.8129100530236</v>
+        <v>192.8129100530424</v>
       </c>
       <c r="O197" t="n">
         <v>3.24214018613077</v>
@@ -11714,13 +11714,13 @@
         <v>2140</v>
       </c>
       <c r="G198" t="n">
-        <v>0.6331780615130154</v>
+        <v>0.6331780615130764</v>
       </c>
       <c r="H198" t="n">
-        <v>-0.1269101376895626</v>
+        <v>-0.1269101376895751</v>
       </c>
       <c r="I198" t="n">
-        <v>-0.7896902824749129</v>
+        <v>-0.78969028247499</v>
       </c>
       <c r="J198" t="n">
         <v>77</v>
@@ -11735,10 +11735,10 @@
         <v>47</v>
       </c>
       <c r="N198" t="n">
-        <v>29.18872105400496</v>
+        <v>29.18872105400781</v>
       </c>
       <c r="O198" t="n">
-        <v>2.81577931921501</v>
+        <v>2.815779319215009</v>
       </c>
       <c r="P198" t="inlineStr">
         <is>
@@ -11771,13 +11771,13 @@
         <v>2653</v>
       </c>
       <c r="G199" t="n">
-        <v>0.8020759306100645</v>
+        <v>0.8020759306101408</v>
       </c>
       <c r="H199" t="n">
-        <v>0.740384977114475</v>
+        <v>0.7403849771145466</v>
       </c>
       <c r="I199" t="n">
-        <v>-0.7896902824749129</v>
+        <v>-0.78969028247499</v>
       </c>
       <c r="J199" t="n">
         <v>59</v>
@@ -11792,10 +11792,10 @@
         <v>29</v>
       </c>
       <c r="N199" t="n">
-        <v>59.3294771166038</v>
+        <v>59.32947711660959</v>
       </c>
       <c r="O199" t="n">
-        <v>3.56687787390361</v>
+        <v>3.566877873903604</v>
       </c>
       <c r="P199" t="inlineStr">
         <is>
@@ -11828,13 +11828,13 @@
         <v>2920</v>
       </c>
       <c r="G200" t="n">
-        <v>0.7627064892038427</v>
+        <v>0.7627064892039159</v>
       </c>
       <c r="H200" t="n">
-        <v>2.286226525964483</v>
+        <v>2.286226525964705</v>
       </c>
       <c r="I200" t="n">
-        <v>-0.7896902824749129</v>
+        <v>-0.78969028247499</v>
       </c>
       <c r="J200" t="n">
         <v>139</v>
@@ -11849,10 +11849,10 @@
         <v>117</v>
       </c>
       <c r="N200" t="n">
-        <v>298.3266948026917</v>
+        <v>298.3266948027208</v>
       </c>
       <c r="O200" t="n">
-        <v>3.391799699754949</v>
+        <v>3.391799699754947</v>
       </c>
       <c r="P200" t="inlineStr">
         <is>
@@ -11885,19 +11885,19 @@
         <v>2988</v>
       </c>
       <c r="G201" t="n">
-        <v>0.6993456643246687</v>
+        <v>0.6993456643247737</v>
       </c>
       <c r="H201" t="n">
-        <v>1.029087324256895</v>
+        <v>1.029087324256996</v>
       </c>
       <c r="I201" t="n">
-        <v>-0.7896902824749129</v>
+        <v>-0.78969028247499</v>
       </c>
       <c r="J201" t="n">
         <v>68</v>
       </c>
       <c r="K201" t="n">
-        <v>28.68563709332011</v>
+        <v>28.6856370933192</v>
       </c>
       <c r="L201" t="n">
         <v>40</v>
@@ -11906,10 +11906,10 @@
         <v>30</v>
       </c>
       <c r="N201" t="n">
-        <v>92.92872398417757</v>
+        <v>92.92872398418592</v>
       </c>
       <c r="O201" t="n">
-        <v>3.110030461072136</v>
+        <v>3.110030461072302</v>
       </c>
       <c r="P201" t="inlineStr">
         <is>
@@ -11942,19 +11942,19 @@
         <v>573</v>
       </c>
       <c r="G202" t="n">
-        <v>1.749809469934275</v>
+        <v>1.74980946993428</v>
       </c>
       <c r="H202" t="n">
         <v>2.67739277784509</v>
       </c>
       <c r="I202" t="n">
-        <v>-1.002583132990518</v>
+        <v>-1.002583132990616</v>
       </c>
       <c r="J202" t="n">
         <v>573</v>
       </c>
       <c r="K202" t="n">
-        <v>28.04764427826742</v>
+        <v>28.04764427827125</v>
       </c>
       <c r="L202" t="n">
         <v>16</v>
@@ -11963,10 +11963,10 @@
         <v>559</v>
       </c>
       <c r="N202" t="n">
-        <v>615.7739387880761</v>
+        <v>615.7739387881305</v>
       </c>
       <c r="O202" t="n">
-        <v>5.724872054201516</v>
+        <v>5.724872054201005</v>
       </c>
       <c r="P202" t="inlineStr">
         <is>
@@ -11999,13 +11999,13 @@
         <v>573</v>
       </c>
       <c r="G203" t="n">
-        <v>2.504316575527226</v>
+        <v>2.504316575527469</v>
       </c>
       <c r="H203" t="n">
-        <v>2.300730658814826</v>
+        <v>2.30073065881505</v>
       </c>
       <c r="I203" t="n">
-        <v>-1.002583132990518</v>
+        <v>-1.002583132990616</v>
       </c>
       <c r="J203" t="n">
         <v>447</v>
@@ -12020,10 +12020,10 @@
         <v>413</v>
       </c>
       <c r="N203" t="n">
-        <v>337.0627343800513</v>
+        <v>337.0627343800842</v>
       </c>
       <c r="O203" t="n">
-        <v>8.193401752847967</v>
+        <v>8.193401752848002</v>
       </c>
       <c r="P203" t="inlineStr">
         <is>
@@ -12056,13 +12056,13 @@
         <v>642</v>
       </c>
       <c r="G204" t="n">
-        <v>1.043527014645851</v>
+        <v>1.043527014645951</v>
       </c>
       <c r="H204" t="n">
-        <v>1.021517050913763</v>
+        <v>1.021517050913862</v>
       </c>
       <c r="I204" t="n">
-        <v>-1.002583132990518</v>
+        <v>-1.002583132990616</v>
       </c>
       <c r="J204" t="n">
         <v>69</v>
@@ -12077,10 +12077,10 @@
         <v>35</v>
       </c>
       <c r="N204" t="n">
-        <v>72.88572768959331</v>
+        <v>72.8857276896004</v>
       </c>
       <c r="O204" t="n">
-        <v>3.414119506493905</v>
+        <v>3.414119506493916</v>
       </c>
       <c r="P204" t="inlineStr">
         <is>
@@ -12113,19 +12113,19 @@
         <v>1074</v>
       </c>
       <c r="G205" t="n">
-        <v>3.737294987788828</v>
+        <v>3.737294987789192</v>
       </c>
       <c r="H205" t="n">
-        <v>2.298030833755242</v>
+        <v>2.298030833755466</v>
       </c>
       <c r="I205" t="n">
-        <v>-1.002583132990518</v>
+        <v>-1.002583132990616</v>
       </c>
       <c r="J205" t="n">
         <v>501</v>
       </c>
       <c r="K205" t="n">
-        <v>175.3165541813437</v>
+        <v>175.3165541813438</v>
       </c>
       <c r="L205" t="n">
         <v>108</v>
@@ -12134,10 +12134,10 @@
         <v>395</v>
       </c>
       <c r="N205" t="n">
-        <v>604.6503437986395</v>
+        <v>604.6503437986985</v>
       </c>
       <c r="O205" t="n">
-        <v>12.22735160685998</v>
+        <v>12.22735160686004</v>
       </c>
       <c r="P205" t="inlineStr">
         <is>
@@ -12170,13 +12170,13 @@
         <v>1074</v>
       </c>
       <c r="G206" t="n">
-        <v>0.9810604462809722</v>
+        <v>0.981060446281067</v>
       </c>
       <c r="H206" t="n">
-        <v>2.027874201701487</v>
+        <v>2.027874201701684</v>
       </c>
       <c r="I206" t="n">
-        <v>-1.002583132990518</v>
+        <v>-1.002583132990616</v>
       </c>
       <c r="J206" t="n">
         <v>354</v>
@@ -12191,10 +12191,10 @@
         <v>322</v>
       </c>
       <c r="N206" t="n">
-        <v>346.3360301713264</v>
+        <v>346.3360301713602</v>
       </c>
       <c r="O206" t="n">
-        <v>3.209746906105936</v>
+        <v>3.209746906105949</v>
       </c>
       <c r="P206" t="inlineStr">
         <is>
@@ -12227,13 +12227,13 @@
         <v>1439</v>
       </c>
       <c r="G207" t="n">
-        <v>1.529099877478178</v>
+        <v>1.529099877478326</v>
       </c>
       <c r="H207" t="n">
-        <v>0.7781406622733982</v>
+        <v>0.7781406622734736</v>
       </c>
       <c r="I207" t="n">
-        <v>-1.002583132990518</v>
+        <v>-1.002583132990616</v>
       </c>
       <c r="J207" t="n">
         <v>365</v>
@@ -12248,10 +12248,10 @@
         <v>56</v>
       </c>
       <c r="N207" t="n">
-        <v>175.5249021623064</v>
+        <v>175.5249021623235</v>
       </c>
       <c r="O207" t="n">
-        <v>5.002773905999373</v>
+        <v>5.002773905999394</v>
       </c>
       <c r="P207" t="inlineStr">
         <is>
@@ -12284,13 +12284,13 @@
         <v>638</v>
       </c>
       <c r="G208" t="n">
-        <v>1.88996081144785</v>
+        <v>1.889960811448034</v>
       </c>
       <c r="H208" t="n">
-        <v>0.8557632915711625</v>
+        <v>0.8557632915712453</v>
       </c>
       <c r="I208" t="n">
-        <v>-0.9174698037832473</v>
+        <v>-0.9174698037833368</v>
       </c>
       <c r="J208" t="n">
         <v>420</v>
@@ -12305,10 +12305,10 @@
         <v>115</v>
       </c>
       <c r="N208" t="n">
-        <v>91.4124564453802</v>
+        <v>91.41245644538913</v>
       </c>
       <c r="O208" t="n">
-        <v>7.216412550764574</v>
+        <v>7.216412550764589</v>
       </c>
       <c r="P208" t="inlineStr">
         <is>
@@ -12341,13 +12341,13 @@
         <v>2847</v>
       </c>
       <c r="G209" t="n">
-        <v>1.211123481859909</v>
+        <v>1.211123481860026</v>
       </c>
       <c r="H209" t="n">
-        <v>0.7181157735222272</v>
+        <v>0.7181157735222967</v>
       </c>
       <c r="I209" t="n">
-        <v>-0.9174698037832473</v>
+        <v>-0.9174698037833368</v>
       </c>
       <c r="J209" t="n">
         <v>218</v>
@@ -12362,10 +12362,10 @@
         <v>166</v>
       </c>
       <c r="N209" t="n">
-        <v>160.1809986281901</v>
+        <v>160.1809986282057</v>
       </c>
       <c r="O209" t="n">
-        <v>4.624416888477213</v>
+        <v>4.624416888477221</v>
       </c>
       <c r="P209" t="inlineStr">
         <is>
@@ -12398,19 +12398,19 @@
         <v>2991</v>
       </c>
       <c r="G210" t="n">
-        <v>0.6322989784960642</v>
+        <v>0.6322989784961031</v>
       </c>
       <c r="H210" t="n">
-        <v>0.3744240728320302</v>
+        <v>0.3744240728320664</v>
       </c>
       <c r="I210" t="n">
-        <v>-0.9174698037832473</v>
+        <v>-0.9174698037833368</v>
       </c>
       <c r="J210" t="n">
         <v>144</v>
       </c>
       <c r="K210" t="n">
-        <v>74.36786886075333</v>
+        <v>74.36786886075242</v>
       </c>
       <c r="L210" t="n">
         <v>68</v>
@@ -12419,10 +12419,10 @@
         <v>78</v>
       </c>
       <c r="N210" t="n">
-        <v>130.1015515820113</v>
+        <v>130.1015515820242</v>
       </c>
       <c r="O210" t="n">
-        <v>2.414298887371678</v>
+        <v>2.414298887371596</v>
       </c>
       <c r="P210" t="inlineStr">
         <is>
@@ -12455,13 +12455,13 @@
         <v>149</v>
       </c>
       <c r="G211" t="n">
-        <v>1.061494253124454</v>
+        <v>1.061494253124556</v>
       </c>
       <c r="H211" t="n">
-        <v>1.202439814583433</v>
+        <v>1.20243981458355</v>
       </c>
       <c r="I211" t="n">
-        <v>-0.9969011502780788</v>
+        <v>-0.9969011502781759</v>
       </c>
       <c r="J211" t="n">
         <v>100</v>
@@ -12476,10 +12476,10 @@
         <v>59</v>
       </c>
       <c r="N211" t="n">
-        <v>140.3018412816095</v>
+        <v>140.3018412816232</v>
       </c>
       <c r="O211" t="n">
-        <v>4.63992301661864</v>
+        <v>4.639923016618662</v>
       </c>
       <c r="P211" t="inlineStr">
         <is>
@@ -12512,19 +12512,19 @@
         <v>408</v>
       </c>
       <c r="G212" t="n">
-        <v>2.676365985222075</v>
+        <v>2.676365985222334</v>
       </c>
       <c r="H212" t="n">
-        <v>2.049058480382894</v>
+        <v>2.049058480383093</v>
       </c>
       <c r="I212" t="n">
-        <v>-0.9969011502780788</v>
+        <v>-0.9969011502781759</v>
       </c>
       <c r="J212" t="n">
         <v>359</v>
       </c>
       <c r="K212" t="n">
-        <v>82.67852633986033</v>
+        <v>82.6785263398603</v>
       </c>
       <c r="L212" t="n">
         <v>135</v>
@@ -12533,10 +12533,10 @@
         <v>226</v>
       </c>
       <c r="N212" t="n">
-        <v>530.5939879105916</v>
+        <v>530.5939879106432</v>
       </c>
       <c r="O212" t="n">
-        <v>11.69872761833142</v>
+        <v>11.69872761833148</v>
       </c>
       <c r="P212" t="inlineStr">
         <is>
@@ -12569,19 +12569,19 @@
         <v>526</v>
       </c>
       <c r="G213" t="n">
-        <v>0.6840490887803106</v>
+        <v>0.6840490887803765</v>
       </c>
       <c r="H213" t="n">
-        <v>2.524067851385178</v>
+        <v>2.524067851385424</v>
       </c>
       <c r="I213" t="n">
-        <v>-0.9969011502780788</v>
+        <v>-0.9969011502781759</v>
       </c>
       <c r="J213" t="n">
         <v>477</v>
       </c>
       <c r="K213" t="n">
-        <v>26.54662293139796</v>
+        <v>26.54662293139802</v>
       </c>
       <c r="L213" t="n">
         <v>451</v>
@@ -12590,10 +12590,10 @@
         <v>28</v>
       </c>
       <c r="N213" t="n">
-        <v>845.5315973954278</v>
+        <v>845.5315973955101</v>
       </c>
       <c r="O213" t="n">
-        <v>2.990063396185571</v>
+        <v>2.990063396185585</v>
       </c>
       <c r="P213" t="inlineStr">
         <is>
@@ -12626,13 +12626,13 @@
         <v>1278</v>
       </c>
       <c r="G214" t="n">
-        <v>0.9120325835595315</v>
+        <v>0.9120325835596196</v>
       </c>
       <c r="H214" t="n">
-        <v>0.2534829265565966</v>
+        <v>0.253482926556621</v>
       </c>
       <c r="I214" t="n">
-        <v>-0.9969011502780788</v>
+        <v>-0.9969011502781759</v>
       </c>
       <c r="J214" t="n">
         <v>277</v>
@@ -12647,10 +12647,10 @@
         <v>108</v>
       </c>
       <c r="N214" t="n">
-        <v>163.2787080837425</v>
+        <v>163.2787080837584</v>
       </c>
       <c r="O214" t="n">
-        <v>3.986607524165168</v>
+        <v>3.986607524165187</v>
       </c>
       <c r="P214" t="inlineStr">
         <is>
@@ -12683,19 +12683,19 @@
         <v>446</v>
       </c>
       <c r="G215" t="n">
-        <v>1.54858572268485</v>
+        <v>1.548585722685</v>
       </c>
       <c r="H215" t="n">
-        <v>1.822714897402653</v>
+        <v>1.82271489740283</v>
       </c>
       <c r="I215" t="n">
-        <v>-1.07011315351252</v>
+        <v>-1.070113153512624</v>
       </c>
       <c r="J215" t="n">
         <v>249</v>
       </c>
       <c r="K215" t="n">
-        <v>84.19395102939208</v>
+        <v>84.19395102939203</v>
       </c>
       <c r="L215" t="n">
         <v>37</v>
@@ -12704,10 +12704,10 @@
         <v>214</v>
       </c>
       <c r="N215" t="n">
-        <v>500.4557555357896</v>
+        <v>500.4557555358384</v>
       </c>
       <c r="O215" t="n">
-        <v>5.327065190364363</v>
+        <v>5.327065190364371</v>
       </c>
       <c r="P215" t="inlineStr">
         <is>
@@ -12740,13 +12740,13 @@
         <v>740</v>
       </c>
       <c r="G216" t="n">
-        <v>0.889675804279604</v>
+        <v>0.8896758042796902</v>
       </c>
       <c r="H216" t="n">
-        <v>1.844755320289836</v>
+        <v>1.844755320290016</v>
       </c>
       <c r="I216" t="n">
-        <v>-1.07011315351252</v>
+        <v>-1.070113153512624</v>
       </c>
       <c r="J216" t="n">
         <v>210</v>
@@ -12761,10 +12761,10 @@
         <v>175</v>
       </c>
       <c r="N216" t="n">
-        <v>381.9505908236644</v>
+        <v>381.9505908237016</v>
       </c>
       <c r="O216" t="n">
-        <v>3.060444725959672</v>
+        <v>3.060444725959676</v>
       </c>
       <c r="P216" t="inlineStr">
         <is>
@@ -12797,13 +12797,13 @@
         <v>871</v>
       </c>
       <c r="G217" t="n">
-        <v>0.9087752387123709</v>
+        <v>0.9087752387124585</v>
       </c>
       <c r="H217" t="n">
-        <v>1.803878004134989</v>
+        <v>1.803878004135165</v>
       </c>
       <c r="I217" t="n">
-        <v>-1.07011315351252</v>
+        <v>-1.070113153512624</v>
       </c>
       <c r="J217" t="n">
         <v>131</v>
@@ -12818,10 +12818,10 @@
         <v>52</v>
       </c>
       <c r="N217" t="n">
-        <v>247.6260461552958</v>
+        <v>247.62604615532</v>
       </c>
       <c r="O217" t="n">
-        <v>3.126145920818967</v>
+        <v>3.126145920818969</v>
       </c>
       <c r="P217" t="inlineStr">
         <is>
@@ -12854,13 +12854,13 @@
         <v>1260</v>
       </c>
       <c r="G218" t="n">
-        <v>2.340521034160243</v>
+        <v>2.340521034160471</v>
       </c>
       <c r="H218" t="n">
-        <v>2.121656634901682</v>
+        <v>2.121656634901888</v>
       </c>
       <c r="I218" t="n">
-        <v>-1.07011315351252</v>
+        <v>-1.070113153512624</v>
       </c>
       <c r="J218" t="n">
         <v>520</v>
@@ -12875,10 +12875,10 @@
         <v>358</v>
       </c>
       <c r="N218" t="n">
-        <v>797.4013205772723</v>
+        <v>797.4013205773498</v>
       </c>
       <c r="O218" t="n">
-        <v>8.051287019987589</v>
+        <v>8.051287019987603</v>
       </c>
       <c r="P218" t="inlineStr">
         <is>
@@ -12911,13 +12911,13 @@
         <v>1337</v>
       </c>
       <c r="G219" t="n">
-        <v>0.7810812979899575</v>
+        <v>0.7810812979900326</v>
       </c>
       <c r="H219" t="n">
-        <v>1.21755815068</v>
+        <v>1.217558150680118</v>
       </c>
       <c r="I219" t="n">
-        <v>-1.07011315351252</v>
+        <v>-1.070113153512624</v>
       </c>
       <c r="J219" t="n">
         <v>77</v>
@@ -12932,10 +12932,10 @@
         <v>41</v>
       </c>
       <c r="N219" t="n">
-        <v>126.8769739657329</v>
+        <v>126.8769739657452</v>
       </c>
       <c r="O219" t="n">
-        <v>2.686884511729215</v>
+        <v>2.686884511729216</v>
       </c>
       <c r="P219" t="inlineStr">
         <is>
@@ -12968,13 +12968,13 @@
         <v>1474</v>
       </c>
       <c r="G220" t="n">
-        <v>0.6096124332886117</v>
+        <v>0.6096124332886707</v>
       </c>
       <c r="H220" t="n">
-        <v>-0.271932283207664</v>
+        <v>-0.2719322832076908</v>
       </c>
       <c r="I220" t="n">
-        <v>-0.8424629030722236</v>
+        <v>-0.8424629030723056</v>
       </c>
       <c r="J220" t="n">
         <v>386</v>
@@ -12989,10 +12989,10 @@
         <v>143</v>
       </c>
       <c r="N220" t="n">
-        <v>93.03842789616489</v>
+        <v>93.03842789617391</v>
       </c>
       <c r="O220" t="n">
-        <v>4.02793876352884</v>
+        <v>4.02793876352883</v>
       </c>
       <c r="P220" t="inlineStr">
         <is>
@@ -13025,13 +13025,13 @@
         <v>2766</v>
       </c>
       <c r="G221" t="n">
-        <v>0.5929433813348287</v>
+        <v>0.5929433813348861</v>
       </c>
       <c r="H221" t="n">
-        <v>0.3125386885035746</v>
+        <v>0.3125386885036051</v>
       </c>
       <c r="I221" t="n">
-        <v>-0.8424629030722236</v>
+        <v>-0.8424629030723056</v>
       </c>
       <c r="J221" t="n">
         <v>234</v>
@@ -13046,10 +13046,10 @@
         <v>200</v>
       </c>
       <c r="N221" t="n">
-        <v>141.0337134158882</v>
+        <v>141.0337134159019</v>
       </c>
       <c r="O221" t="n">
-        <v>3.917800064169125</v>
+        <v>3.917800064169116</v>
       </c>
       <c r="P221" t="inlineStr">
         <is>
@@ -13082,13 +13082,13 @@
         <v>2899</v>
       </c>
       <c r="G222" t="n">
-        <v>1.137282213122469</v>
+        <v>1.137282213122579</v>
       </c>
       <c r="H222" t="n">
-        <v>0.819621272352577</v>
+        <v>0.8196212723526566</v>
       </c>
       <c r="I222" t="n">
-        <v>-0.8424629030722236</v>
+        <v>-0.8424629030723056</v>
       </c>
       <c r="J222" t="n">
         <v>133</v>
@@ -13103,10 +13103,10 @@
         <v>101</v>
       </c>
       <c r="N222" t="n">
-        <v>147.9202098666789</v>
+        <v>147.9202098666933</v>
       </c>
       <c r="O222" t="n">
-        <v>7.514451578022689</v>
+        <v>7.514451578022671</v>
       </c>
       <c r="P222" t="inlineStr">
         <is>
@@ -13139,19 +13139,19 @@
         <v>629</v>
       </c>
       <c r="G223" t="n">
-        <v>0.6381233799228292</v>
+        <v>0.6381233799228907</v>
       </c>
       <c r="H223" t="n">
-        <v>-0.4686428324094024</v>
+        <v>-0.4686428324094483</v>
       </c>
       <c r="I223" t="n">
-        <v>-0.9827312116986993</v>
+        <v>-0.9827312116987948</v>
       </c>
       <c r="J223" t="n">
         <v>571</v>
       </c>
       <c r="K223" t="n">
-        <v>57.11068695439235</v>
+        <v>57.11068695439229</v>
       </c>
       <c r="L223" t="n">
         <v>316</v>
@@ -13160,10 +13160,10 @@
         <v>257</v>
       </c>
       <c r="N223" t="n">
-        <v>33.6935539864285</v>
+        <v>33.69355398643166</v>
       </c>
       <c r="O223" t="n">
-        <v>3.466112398938433</v>
+        <v>3.466112398938453</v>
       </c>
       <c r="P223" t="inlineStr">
         <is>
@@ -13196,13 +13196,13 @@
         <v>818</v>
       </c>
       <c r="G224" t="n">
-        <v>0.5233083364144051</v>
+        <v>0.5233083364144556</v>
       </c>
       <c r="H224" t="n">
-        <v>-0.5045943712462542</v>
+        <v>-0.5045943712463036</v>
       </c>
       <c r="I224" t="n">
-        <v>-0.9827312116986993</v>
+        <v>-0.9827312116987948</v>
       </c>
       <c r="J224" t="n">
         <v>189</v>
@@ -13217,10 +13217,10 @@
         <v>84</v>
       </c>
       <c r="N224" t="n">
-        <v>42.83304687483134</v>
+        <v>42.83304687483547</v>
       </c>
       <c r="O224" t="n">
-        <v>2.842468353899163</v>
+        <v>2.84246835389918</v>
       </c>
       <c r="P224" t="inlineStr">
         <is>
@@ -13253,13 +13253,13 @@
         <v>1350</v>
       </c>
       <c r="G225" t="n">
-        <v>1.218248316784774</v>
+        <v>1.218248316784892</v>
       </c>
       <c r="H225" t="n">
-        <v>2.411147269696577</v>
+        <v>2.411147269696812</v>
       </c>
       <c r="I225" t="n">
-        <v>-0.9827312116986993</v>
+        <v>-0.9827312116987948</v>
       </c>
       <c r="J225" t="n">
         <v>188</v>
@@ -13274,10 +13274,10 @@
         <v>128</v>
       </c>
       <c r="N225" t="n">
-        <v>515.5916038542041</v>
+        <v>515.5916038542543</v>
       </c>
       <c r="O225" t="n">
-        <v>6.617193051764123</v>
+        <v>6.617193051764162</v>
       </c>
       <c r="P225" t="inlineStr">
         <is>
@@ -13310,13 +13310,13 @@
         <v>1530</v>
       </c>
       <c r="G226" t="n">
-        <v>0.705210106820837</v>
+        <v>0.7052101068209049</v>
       </c>
       <c r="H226" t="n">
-        <v>1.268641346735789</v>
+        <v>1.268641346735912</v>
       </c>
       <c r="I226" t="n">
-        <v>-0.9827312116986993</v>
+        <v>-0.9827312116987948</v>
       </c>
       <c r="J226" t="n">
         <v>90</v>
@@ -13331,10 +13331,10 @@
         <v>59</v>
       </c>
       <c r="N226" t="n">
-        <v>155.2209584780759</v>
+        <v>155.220958478091</v>
       </c>
       <c r="O226" t="n">
-        <v>3.830509227547819</v>
+        <v>3.830509227547841</v>
       </c>
       <c r="P226" t="inlineStr">
         <is>
@@ -13367,13 +13367,13 @@
         <v>1608</v>
       </c>
       <c r="G227" t="n">
-        <v>0.8699670923908258</v>
+        <v>0.8699670923909093</v>
       </c>
       <c r="H227" t="n">
-        <v>1.897571741021764</v>
+        <v>1.897571741021948</v>
       </c>
       <c r="I227" t="n">
-        <v>-0.9827312116986993</v>
+        <v>-0.9827312116987948</v>
       </c>
       <c r="J227" t="n">
         <v>78</v>
@@ -13388,10 +13388,10 @@
         <v>48</v>
       </c>
       <c r="N227" t="n">
-        <v>172.0053831467274</v>
+        <v>172.0053831467442</v>
       </c>
       <c r="O227" t="n">
-        <v>4.725424299559316</v>
+        <v>4.725424299559342</v>
       </c>
       <c r="P227" t="inlineStr">
         <is>
@@ -13424,13 +13424,13 @@
         <v>2809</v>
       </c>
       <c r="G228" t="n">
-        <v>0.9897890225144178</v>
+        <v>0.9897890225145137</v>
       </c>
       <c r="H228" t="n">
-        <v>0.2213823754668346</v>
+        <v>0.2213823754668559</v>
       </c>
       <c r="I228" t="n">
-        <v>-0.9827312116986993</v>
+        <v>-0.9827312116987948</v>
       </c>
       <c r="J228" t="n">
         <v>504</v>
@@ -13445,10 +13445,10 @@
         <v>470</v>
       </c>
       <c r="N228" t="n">
-        <v>226.9050319702852</v>
+        <v>226.9050319703072</v>
       </c>
       <c r="O228" t="n">
-        <v>5.376264389004625</v>
+        <v>5.37626438900466</v>
       </c>
       <c r="P228" t="inlineStr">
         <is>
@@ -13481,13 +13481,13 @@
         <v>2809</v>
       </c>
       <c r="G229" t="n">
-        <v>0.4592449388095408</v>
+        <v>0.4592449388095852</v>
       </c>
       <c r="H229" t="n">
-        <v>-0.3042898486691148</v>
+        <v>-0.3042898486691447</v>
       </c>
       <c r="I229" t="n">
-        <v>-0.9827312116986993</v>
+        <v>-0.9827312116987948</v>
       </c>
       <c r="J229" t="n">
         <v>406</v>
@@ -13502,10 +13502,10 @@
         <v>287</v>
       </c>
       <c r="N229" t="n">
-        <v>148.9556797257285</v>
+        <v>148.9556797257429</v>
       </c>
       <c r="O229" t="n">
-        <v>2.494493426568971</v>
+        <v>2.494493426568986</v>
       </c>
       <c r="P229" t="inlineStr">
         <is>
@@ -13538,13 +13538,13 @@
         <v>2881</v>
       </c>
       <c r="G230" t="n">
-        <v>0.8036118842668367</v>
+        <v>0.8036118842669145</v>
       </c>
       <c r="H230" t="n">
-        <v>0.0304839969798383</v>
+        <v>0.03048399697984092</v>
       </c>
       <c r="I230" t="n">
-        <v>-0.9827312116986993</v>
+        <v>-0.9827312116987948</v>
       </c>
       <c r="J230" t="n">
         <v>72</v>
@@ -13559,10 +13559,10 @@
         <v>34</v>
       </c>
       <c r="N230" t="n">
-        <v>39.31891570865074</v>
+        <v>39.31891570865456</v>
       </c>
       <c r="O230" t="n">
-        <v>4.365000881692206</v>
+        <v>4.365000881692233</v>
       </c>
       <c r="P230" t="inlineStr">
         <is>
@@ -13595,13 +13595,13 @@
         <v>1439</v>
       </c>
       <c r="G231" t="n">
-        <v>1.190101104320233</v>
+        <v>1.190101104320349</v>
       </c>
       <c r="H231" t="n">
-        <v>1.851700884805334</v>
+        <v>1.851700884805515</v>
       </c>
       <c r="I231" t="n">
-        <v>-1.213722523168377</v>
+        <v>-1.213722523168495</v>
       </c>
       <c r="J231" t="n">
         <v>119</v>
@@ -13616,10 +13616,10 @@
         <v>57</v>
       </c>
       <c r="N231" t="n">
-        <v>269.4230492002154</v>
+        <v>269.4230492002416</v>
       </c>
       <c r="O231" t="n">
-        <v>2.4787756265907</v>
+        <v>2.478775626590705</v>
       </c>
       <c r="P231" t="inlineStr">
         <is>
@@ -13652,13 +13652,13 @@
         <v>1957</v>
       </c>
       <c r="G232" t="n">
-        <v>1.305199742665611</v>
+        <v>1.305199742665737</v>
       </c>
       <c r="H232" t="n">
-        <v>1.602751484221711</v>
+        <v>1.602751484221867</v>
       </c>
       <c r="I232" t="n">
-        <v>-1.213722523168377</v>
+        <v>-1.213722523168495</v>
       </c>
       <c r="J232" t="n">
         <v>137</v>
@@ -13673,10 +13673,10 @@
         <v>73</v>
       </c>
       <c r="N232" t="n">
-        <v>278.8518449504206</v>
+        <v>278.8518449504478</v>
       </c>
       <c r="O232" t="n">
-        <v>2.718506266574655</v>
+        <v>2.71850626657466</v>
       </c>
       <c r="P232" t="inlineStr">
         <is>
@@ -13709,13 +13709,13 @@
         <v>2897</v>
       </c>
       <c r="G233" t="n">
-        <v>1.811930316000181</v>
+        <v>1.811930316000356</v>
       </c>
       <c r="H233" t="n">
-        <v>1.305139335565324</v>
+        <v>1.30513933556545</v>
       </c>
       <c r="I233" t="n">
-        <v>-1.213722523168377</v>
+        <v>-1.213722523168495</v>
       </c>
       <c r="J233" t="n">
         <v>593</v>
@@ -13730,10 +13730,10 @@
         <v>560</v>
       </c>
       <c r="N233" t="n">
-        <v>731.3265147312252</v>
+        <v>731.3265147312966</v>
       </c>
       <c r="O233" t="n">
-        <v>3.773938775518936</v>
+        <v>3.773938775518943</v>
       </c>
       <c r="P233" t="inlineStr">
         <is>
@@ -13766,13 +13766,13 @@
         <v>995</v>
       </c>
       <c r="G234" t="n">
-        <v>1.189315542608681</v>
+        <v>1.189315542608797</v>
       </c>
       <c r="H234" t="n">
-        <v>0.4742342892260531</v>
+        <v>0.474234289226099</v>
       </c>
       <c r="I234" t="n">
-        <v>-0.8936450329586747</v>
+        <v>-0.8936450329587616</v>
       </c>
       <c r="J234" t="n">
         <v>445</v>
@@ -13787,10 +13787,10 @@
         <v>246</v>
       </c>
       <c r="N234" t="n">
-        <v>293.2092941277036</v>
+        <v>293.2092941277321</v>
       </c>
       <c r="O234" t="n">
-        <v>4.282304532700775</v>
+        <v>4.282304532700794</v>
       </c>
       <c r="P234" t="inlineStr">
         <is>
@@ -13823,13 +13823,13 @@
         <v>1178</v>
       </c>
       <c r="G235" t="n">
-        <v>0.9291259485962977</v>
+        <v>0.9291259485963875</v>
       </c>
       <c r="H235" t="n">
-        <v>0.3202559678568083</v>
+        <v>0.3202559678568391</v>
       </c>
       <c r="I235" t="n">
-        <v>-0.8936450329586747</v>
+        <v>-0.8936450329587616</v>
       </c>
       <c r="J235" t="n">
         <v>183</v>
@@ -13844,10 +13844,10 @@
         <v>53</v>
       </c>
       <c r="N235" t="n">
-        <v>111.1103302239673</v>
+        <v>111.1103302239781</v>
       </c>
       <c r="O235" t="n">
-        <v>3.345453850200772</v>
+        <v>3.345453850200785</v>
       </c>
       <c r="P235" t="inlineStr">
         <is>
@@ -13880,13 +13880,13 @@
         <v>1369</v>
       </c>
       <c r="G236" t="n">
-        <v>1.047129889347621</v>
+        <v>1.047129889347722</v>
       </c>
       <c r="H236" t="n">
-        <v>0.5166262393648967</v>
+        <v>0.5166262393649468</v>
       </c>
       <c r="I236" t="n">
-        <v>-0.8936450329586747</v>
+        <v>-0.8936450329587616</v>
       </c>
       <c r="J236" t="n">
         <v>374</v>
@@ -13901,10 +13901,10 @@
         <v>156</v>
       </c>
       <c r="N236" t="n">
-        <v>279.8359722558969</v>
+        <v>279.835972255924</v>
       </c>
       <c r="O236" t="n">
-        <v>3.770344295378627</v>
+        <v>3.770344295378643</v>
       </c>
       <c r="P236" t="inlineStr">
         <is>
@@ -13937,13 +13937,13 @@
         <v>1472</v>
       </c>
       <c r="G237" t="n">
-        <v>1.233334240416197</v>
+        <v>1.233334240416317</v>
       </c>
       <c r="H237" t="n">
-        <v>0.5549692273574515</v>
+        <v>0.5549692273575051</v>
       </c>
       <c r="I237" t="n">
-        <v>-0.8936450329586747</v>
+        <v>-0.8936450329587616</v>
       </c>
       <c r="J237" t="n">
         <v>477</v>
@@ -13958,10 +13958,10 @@
         <v>72</v>
       </c>
       <c r="N237" t="n">
-        <v>355.1637922726177</v>
+        <v>355.1637922726522</v>
       </c>
       <c r="O237" t="n">
-        <v>4.440800291304287</v>
+        <v>4.440800291304306</v>
       </c>
       <c r="P237" t="inlineStr">
         <is>
@@ -13994,13 +13994,13 @@
         <v>1852</v>
       </c>
       <c r="G238" t="n">
-        <v>0.6969332428888607</v>
+        <v>0.6969332428889281</v>
       </c>
       <c r="H238" t="n">
-        <v>0.603033804422177</v>
+        <v>0.6030338044222355</v>
       </c>
       <c r="I238" t="n">
-        <v>-0.8936450329586747</v>
+        <v>-0.8936450329587616</v>
       </c>
       <c r="J238" t="n">
         <v>215</v>
@@ -14015,10 +14015,10 @@
         <v>136</v>
       </c>
       <c r="N238" t="n">
-        <v>237.5118522353699</v>
+        <v>237.511852235393</v>
       </c>
       <c r="O238" t="n">
-        <v>2.509410058214296</v>
+        <v>2.509410058214306</v>
       </c>
       <c r="P238" t="inlineStr">
         <is>
@@ -14051,13 +14051,13 @@
         <v>1646</v>
       </c>
       <c r="G239" t="n">
-        <v>1.031714830812449</v>
+        <v>1.031714830812548</v>
       </c>
       <c r="H239" t="n">
-        <v>0.4714444084840911</v>
+        <v>0.4714444084841367</v>
       </c>
       <c r="I239" t="n">
-        <v>-1.157099109318739</v>
+        <v>-1.157099109318852</v>
       </c>
       <c r="J239" t="n">
         <v>378</v>
@@ -14072,10 +14072,10 @@
         <v>304</v>
       </c>
       <c r="N239" t="n">
-        <v>180.8258658503204</v>
+        <v>180.8258658503379</v>
       </c>
       <c r="O239" t="n">
-        <v>2.584315825696977</v>
+        <v>2.584315825696988</v>
       </c>
       <c r="P239" t="inlineStr">
         <is>
@@ -14108,13 +14108,13 @@
         <v>1921</v>
       </c>
       <c r="G240" t="n">
-        <v>1.592940204971594</v>
+        <v>1.592940204971748</v>
       </c>
       <c r="H240" t="n">
-        <v>0.9029181932019874</v>
+        <v>0.9029181932020749</v>
       </c>
       <c r="I240" t="n">
-        <v>-1.157099109318739</v>
+        <v>-1.157099109318852</v>
       </c>
       <c r="J240" t="n">
         <v>275</v>
@@ -14129,10 +14129,10 @@
         <v>226</v>
       </c>
       <c r="N240" t="n">
-        <v>318.8550961478089</v>
+        <v>318.85509614784</v>
       </c>
       <c r="O240" t="n">
-        <v>3.990114766359724</v>
+        <v>3.990114766359743</v>
       </c>
       <c r="P240" t="inlineStr">
         <is>
@@ -14165,13 +14165,13 @@
         <v>2102</v>
       </c>
       <c r="G241" t="n">
-        <v>1.27536444415901</v>
+        <v>1.275364444159133</v>
       </c>
       <c r="H241" t="n">
-        <v>0.9408466089736202</v>
+        <v>0.9408466089737114</v>
       </c>
       <c r="I241" t="n">
-        <v>-1.157099109318739</v>
+        <v>-1.157099109318852</v>
       </c>
       <c r="J241" t="n">
         <v>456</v>
@@ -14186,10 +14186,10 @@
         <v>106</v>
       </c>
       <c r="N241" t="n">
-        <v>539.4747500780877</v>
+        <v>539.4747500781402</v>
       </c>
       <c r="O241" t="n">
-        <v>3.194627447563088</v>
+        <v>3.194627447563104</v>
       </c>
       <c r="P241" t="inlineStr">
         <is>
@@ -14222,13 +14222,13 @@
         <v>2532</v>
       </c>
       <c r="G242" t="n">
-        <v>1.066765671393779</v>
+        <v>1.066765671393882</v>
       </c>
       <c r="H242" t="n">
-        <v>0.9078138192927372</v>
+        <v>0.9078138192928251</v>
       </c>
       <c r="I242" t="n">
-        <v>-1.157099109318739</v>
+        <v>-1.157099109318852</v>
       </c>
       <c r="J242" t="n">
         <v>100</v>
@@ -14243,10 +14243,10 @@
         <v>66</v>
       </c>
       <c r="N242" t="n">
-        <v>139.9965609852526</v>
+        <v>139.9965609852663</v>
       </c>
       <c r="O242" t="n">
-        <v>2.672113770742491</v>
+        <v>2.672113770742504</v>
       </c>
       <c r="P242" t="inlineStr">
         <is>
@@ -14279,13 +14279,13 @@
         <v>2643</v>
       </c>
       <c r="G243" t="n">
-        <v>1.048220319155809</v>
+        <v>1.048220319155911</v>
       </c>
       <c r="H243" t="n">
-        <v>1.087363986514922</v>
+        <v>1.087363986515028</v>
       </c>
       <c r="I243" t="n">
-        <v>-1.157099109318739</v>
+        <v>-1.157099109318852</v>
       </c>
       <c r="J243" t="n">
         <v>211</v>
@@ -14300,10 +14300,10 @@
         <v>72</v>
       </c>
       <c r="N243" t="n">
-        <v>324.3699993258745</v>
+        <v>324.3699993259061</v>
       </c>
       <c r="O243" t="n">
-        <v>2.62565999703453</v>
+        <v>2.625659997034542</v>
       </c>
       <c r="P243" t="inlineStr">
         <is>
@@ -14336,13 +14336,13 @@
         <v>2803</v>
       </c>
       <c r="G244" t="n">
-        <v>1.370729599092188</v>
+        <v>1.370729599092321</v>
       </c>
       <c r="H244" t="n">
-        <v>1.458848938763541</v>
+        <v>1.458848938763682</v>
       </c>
       <c r="I244" t="n">
-        <v>-1.157099109318739</v>
+        <v>-1.157099109318852</v>
       </c>
       <c r="J244" t="n">
         <v>371</v>
@@ -14357,10 +14357,10 @@
         <v>126</v>
       </c>
       <c r="N244" t="n">
-        <v>622.6506932693158</v>
+        <v>622.6506932693762</v>
       </c>
       <c r="O244" t="n">
-        <v>3.433505160428552</v>
+        <v>3.433505160428568</v>
       </c>
       <c r="P244" t="inlineStr">
         <is>
@@ -14393,13 +14393,13 @@
         <v>2904</v>
       </c>
       <c r="G245" t="n">
-        <v>1.383615395787458</v>
+        <v>1.383615395787592</v>
       </c>
       <c r="H245" t="n">
-        <v>1.572731728599512</v>
+        <v>1.572731728599665</v>
       </c>
       <c r="I245" t="n">
-        <v>-1.157099109318739</v>
+        <v>-1.157099109318852</v>
       </c>
       <c r="J245" t="n">
         <v>472</v>
@@ -14414,10 +14414,10 @@
         <v>48</v>
       </c>
       <c r="N245" t="n">
-        <v>818.8315782482315</v>
+        <v>818.8315782483112</v>
       </c>
       <c r="O245" t="n">
-        <v>3.465782459670317</v>
+        <v>3.465782459670333</v>
       </c>
       <c r="P245" t="inlineStr">
         <is>
@@ -14450,13 +14450,13 @@
         <v>640</v>
       </c>
       <c r="G246" t="n">
-        <v>1.351566981297572</v>
+        <v>1.351566981297703</v>
       </c>
       <c r="H246" t="n">
-        <v>2.449987440807857</v>
+        <v>2.449987440808095</v>
       </c>
       <c r="I246" t="n">
-        <v>-1.046232626935503</v>
+        <v>-1.046232626935605</v>
       </c>
       <c r="J246" t="n">
         <v>466</v>
@@ -14471,10 +14471,10 @@
         <v>379</v>
       </c>
       <c r="N246" t="n">
-        <v>688.3121342019368</v>
+        <v>688.3121342020039</v>
       </c>
       <c r="O246" t="n">
-        <v>4.093199446478046</v>
+        <v>4.09319944647804</v>
       </c>
       <c r="P246" t="inlineStr">
         <is>
@@ -14507,13 +14507,13 @@
         <v>1179</v>
       </c>
       <c r="G247" t="n">
-        <v>1.77056111095665</v>
+        <v>1.770561110956822</v>
       </c>
       <c r="H247" t="n">
-        <v>0.8689909880368255</v>
+        <v>0.8689909880369099</v>
       </c>
       <c r="I247" t="n">
-        <v>-1.046232626935503</v>
+        <v>-1.046232626935605</v>
       </c>
       <c r="J247" t="n">
         <v>539</v>
@@ -14528,10 +14528,10 @@
         <v>312</v>
       </c>
       <c r="N247" t="n">
-        <v>319.6178059857383</v>
+        <v>319.6178059857693</v>
       </c>
       <c r="O247" t="n">
-        <v>5.362116609541307</v>
+        <v>5.362116609541299</v>
       </c>
       <c r="P247" t="inlineStr">
         <is>
@@ -14564,13 +14564,13 @@
         <v>1461</v>
       </c>
       <c r="G248" t="n">
-        <v>1.311485887466797</v>
+        <v>1.311485887466925</v>
       </c>
       <c r="H248" t="n">
-        <v>0.4229525585053723</v>
+        <v>0.4229525585054133</v>
       </c>
       <c r="I248" t="n">
-        <v>-1.046232626935503</v>
+        <v>-1.046232626935605</v>
       </c>
       <c r="J248" t="n">
         <v>282</v>
@@ -14585,10 +14585,10 @@
         <v>125</v>
       </c>
       <c r="N248" t="n">
-        <v>233.8494597509217</v>
+        <v>233.8494597509445</v>
       </c>
       <c r="O248" t="n">
-        <v>3.971814481209914</v>
+        <v>3.971814481209908</v>
       </c>
       <c r="P248" t="inlineStr">
         <is>
@@ -14621,13 +14621,13 @@
         <v>1791</v>
       </c>
       <c r="G249" t="n">
-        <v>1.236490236915812</v>
+        <v>1.236490236915931</v>
       </c>
       <c r="H249" t="n">
-        <v>0.8676881001463079</v>
+        <v>0.8676881001463921</v>
       </c>
       <c r="I249" t="n">
-        <v>-1.046232626935503</v>
+        <v>-1.046232626935605</v>
       </c>
       <c r="J249" t="n">
         <v>149</v>
@@ -14642,10 +14642,10 @@
         <v>102</v>
       </c>
       <c r="N249" t="n">
-        <v>160.6740498966276</v>
+        <v>160.6740498966433</v>
       </c>
       <c r="O249" t="n">
-        <v>3.744691327440023</v>
+        <v>3.744691327440015</v>
       </c>
       <c r="P249" t="inlineStr">
         <is>
@@ -14678,13 +14678,13 @@
         <v>2816</v>
       </c>
       <c r="G250" t="n">
-        <v>2.625441361138058</v>
+        <v>2.625441361138314</v>
       </c>
       <c r="H250" t="n">
-        <v>1.430688743837374</v>
+        <v>1.430688743837513</v>
       </c>
       <c r="I250" t="n">
-        <v>-1.046232626935503</v>
+        <v>-1.046232626935605</v>
       </c>
       <c r="J250" t="n">
         <v>264</v>
@@ -14699,10 +14699,10 @@
         <v>134</v>
       </c>
       <c r="N250" t="n">
-        <v>169.0515801745872</v>
+        <v>169.0515801746036</v>
       </c>
       <c r="O250" t="n">
-        <v>7.951108065583059</v>
+        <v>7.95110806558305</v>
       </c>
       <c r="P250" t="inlineStr">
         <is>
@@ -14735,19 +14735,19 @@
         <v>469</v>
       </c>
       <c r="G251" t="n">
-        <v>1.066105629691265</v>
+        <v>1.066105629691368</v>
       </c>
       <c r="H251" t="n">
-        <v>1.192529972941601</v>
+        <v>1.192529972941717</v>
       </c>
       <c r="I251" t="n">
-        <v>-0.7684549691411611</v>
+        <v>-0.7684549691412359</v>
       </c>
       <c r="J251" t="n">
         <v>360</v>
       </c>
       <c r="K251" t="n">
-        <v>40.96298308439287</v>
+        <v>40.96298308439282</v>
       </c>
       <c r="L251" t="n">
         <v>310</v>
@@ -14756,10 +14756,10 @@
         <v>52</v>
       </c>
       <c r="N251" t="n">
-        <v>98.69572080644411</v>
+        <v>98.69572080645368</v>
       </c>
       <c r="O251" t="n">
-        <v>4.939373026974683</v>
+        <v>4.9393730269747</v>
       </c>
       <c r="P251" t="inlineStr">
         <is>
@@ -14792,13 +14792,13 @@
         <v>1076</v>
       </c>
       <c r="G252" t="n">
-        <v>1.180929641262545</v>
+        <v>1.180929641262659</v>
       </c>
       <c r="H252" t="n">
-        <v>0.8825686347372754</v>
+        <v>0.882568634737361</v>
       </c>
       <c r="I252" t="n">
-        <v>-0.7684549691411611</v>
+        <v>-0.7684549691412359</v>
       </c>
       <c r="J252" t="n">
         <v>430</v>
@@ -14813,10 +14813,10 @@
         <v>397</v>
       </c>
       <c r="N252" t="n">
-        <v>182.8549872840871</v>
+        <v>182.854987284105</v>
       </c>
       <c r="O252" t="n">
-        <v>5.471364050948966</v>
+        <v>5.471364050948988</v>
       </c>
       <c r="P252" t="inlineStr">
         <is>
@@ -14849,13 +14849,13 @@
         <v>2592</v>
       </c>
       <c r="G253" t="n">
-        <v>1.815948753988108</v>
+        <v>1.815948753988283</v>
       </c>
       <c r="H253" t="n">
-        <v>1.870534447745012</v>
+        <v>1.870534447745194</v>
       </c>
       <c r="I253" t="n">
-        <v>-0.906902551419728</v>
+        <v>-0.9069025514198162</v>
       </c>
       <c r="J253" t="n">
         <v>428</v>
@@ -14870,10 +14870,10 @@
         <v>394</v>
       </c>
       <c r="N253" t="n">
-        <v>746.9747004133853</v>
+        <v>746.974700413458</v>
       </c>
       <c r="O253" t="n">
-        <v>7.460829710992856</v>
+        <v>7.460829710992829</v>
       </c>
       <c r="P253" t="inlineStr">
         <is>
@@ -14906,13 +14906,13 @@
         <v>2592</v>
       </c>
       <c r="G254" t="n">
-        <v>1.487477188817569</v>
+        <v>1.487477188817714</v>
       </c>
       <c r="H254" t="n">
-        <v>1.600832307698402</v>
+        <v>1.600832307698557</v>
       </c>
       <c r="I254" t="n">
-        <v>-0.906902551419728</v>
+        <v>-0.9069025514198162</v>
       </c>
       <c r="J254" t="n">
         <v>197</v>
@@ -14927,10 +14927,10 @@
         <v>97</v>
       </c>
       <c r="N254" t="n">
-        <v>350.7490653929675</v>
+        <v>350.7490653930016</v>
       </c>
       <c r="O254" t="n">
-        <v>6.111303515796749</v>
+        <v>6.111303515796732</v>
       </c>
       <c r="P254" t="inlineStr">
         <is>
@@ -14963,13 +14963,13 @@
         <v>2988</v>
       </c>
       <c r="G255" t="n">
-        <v>1.116329297211613</v>
+        <v>1.116329297211721</v>
       </c>
       <c r="H255" t="n">
-        <v>1.484331164420752</v>
+        <v>1.484331164420896</v>
       </c>
       <c r="I255" t="n">
-        <v>-0.906902551419728</v>
+        <v>-0.9069025514198162</v>
       </c>
       <c r="J255" t="n">
         <v>156</v>
@@ -14984,10 +14984,10 @@
         <v>125</v>
       </c>
       <c r="N255" t="n">
-        <v>237.1252093344079</v>
+        <v>237.1252093344307</v>
       </c>
       <c r="O255" t="n">
-        <v>4.586441533439175</v>
+        <v>4.586441533439159</v>
       </c>
       <c r="P255" t="inlineStr">
         <is>
@@ -15020,13 +15020,13 @@
         <v>638</v>
       </c>
       <c r="G256" t="n">
-        <v>0.8277978884282926</v>
+        <v>0.8277978884283725</v>
       </c>
       <c r="H256" t="n">
-        <v>0.1254056854279742</v>
+        <v>0.125405685427986</v>
       </c>
       <c r="I256" t="n">
-        <v>-0.6776418224899069</v>
+        <v>-0.677641822489973</v>
       </c>
       <c r="J256" t="n">
         <v>512</v>
@@ -15041,10 +15041,10 @@
         <v>414</v>
       </c>
       <c r="N256" t="n">
-        <v>159.0425448080351</v>
+        <v>159.0425448080506</v>
       </c>
       <c r="O256" t="n">
-        <v>4.001660922594806</v>
+        <v>4.001660922594803</v>
       </c>
       <c r="P256" t="inlineStr">
         <is>
@@ -15077,13 +15077,13 @@
         <v>638</v>
       </c>
       <c r="G257" t="n">
-        <v>0.9350043337319307</v>
+        <v>0.9350043337320212</v>
       </c>
       <c r="H257" t="n">
-        <v>0.1067735657567394</v>
+        <v>0.1067735657567496</v>
       </c>
       <c r="I257" t="n">
-        <v>-0.6776418224899069</v>
+        <v>-0.677641822489973</v>
       </c>
       <c r="J257" t="n">
         <v>292</v>
@@ -15098,10 +15098,10 @@
         <v>183</v>
       </c>
       <c r="N257" t="n">
-        <v>94.72444450150694</v>
+        <v>94.72444450151617</v>
       </c>
       <c r="O257" t="n">
-        <v>4.519908007805906</v>
+        <v>4.519908007805904</v>
       </c>
       <c r="P257" t="inlineStr">
         <is>
@@ -15134,13 +15134,13 @@
         <v>638</v>
       </c>
       <c r="G258" t="n">
-        <v>0.7282749933855776</v>
+        <v>0.7282749933856477</v>
       </c>
       <c r="H258" t="n">
-        <v>-0.148746889271118</v>
+        <v>-0.1487468892711328</v>
       </c>
       <c r="I258" t="n">
-        <v>-0.6776418224899069</v>
+        <v>-0.677641822489973</v>
       </c>
       <c r="J258" t="n">
         <v>97</v>
@@ -15155,10 +15155,10 @@
         <v>65</v>
       </c>
       <c r="N258" t="n">
-        <v>16.51509534180407</v>
+        <v>16.51509534180568</v>
       </c>
       <c r="O258" t="n">
-        <v>3.520556916939402</v>
+        <v>3.520556916939398</v>
       </c>
       <c r="P258" t="inlineStr">
         <is>
@@ -15191,19 +15191,19 @@
         <v>1069</v>
       </c>
       <c r="G259" t="n">
-        <v>5.756398948141921</v>
+        <v>5.756398948142481</v>
       </c>
       <c r="H259" t="n">
-        <v>4.811718227121089</v>
+        <v>4.811718227121557</v>
       </c>
       <c r="I259" t="n">
-        <v>-0.6776418224899069</v>
+        <v>-0.677641822489973</v>
       </c>
       <c r="J259" t="n">
         <v>431</v>
       </c>
       <c r="K259" t="n">
-        <v>52.89185305569811</v>
+        <v>52.89185305569822</v>
       </c>
       <c r="L259" t="n">
         <v>64</v>
@@ -15212,10 +15212,10 @@
         <v>369</v>
       </c>
       <c r="N259" t="n">
-        <v>922.1267874397558</v>
+        <v>922.1267874398455</v>
       </c>
       <c r="O259" t="n">
-        <v>27.82703006090209</v>
+        <v>27.82703006090208</v>
       </c>
       <c r="P259" t="inlineStr">
         <is>
@@ -15248,13 +15248,13 @@
         <v>1069</v>
       </c>
       <c r="G260" t="n">
-        <v>2.923540294711238</v>
+        <v>2.923540294711519</v>
       </c>
       <c r="H260" t="n">
-        <v>4.472497918691388</v>
+        <v>4.472497918691821</v>
       </c>
       <c r="I260" t="n">
-        <v>-0.6776418224899069</v>
+        <v>-0.677641822489973</v>
       </c>
       <c r="J260" t="n">
         <v>326</v>
@@ -15269,10 +15269,10 @@
         <v>291</v>
       </c>
       <c r="N260" t="n">
-        <v>673.4219829577466</v>
+        <v>673.4219829578122</v>
       </c>
       <c r="O260" t="n">
-        <v>14.13269726405044</v>
+        <v>14.13269726405042</v>
       </c>
       <c r="P260" t="inlineStr">
         <is>
@@ -15305,13 +15305,13 @@
         <v>1491</v>
       </c>
       <c r="G261" t="n">
-        <v>0.7945806459791113</v>
+        <v>0.7945806459791882</v>
       </c>
       <c r="H261" t="n">
-        <v>0.1122447968055834</v>
+        <v>0.112244796805594</v>
       </c>
       <c r="I261" t="n">
-        <v>-0.6776418224899069</v>
+        <v>-0.677641822489973</v>
       </c>
       <c r="J261" t="n">
         <v>422</v>
@@ -15326,10 +15326,10 @@
         <v>117</v>
       </c>
       <c r="N261" t="n">
-        <v>90.9112295097411</v>
+        <v>90.91122950974994</v>
       </c>
       <c r="O261" t="n">
-        <v>3.841085324464658</v>
+        <v>3.841085324464656</v>
       </c>
       <c r="P261" t="inlineStr">
         <is>
@@ -15362,13 +15362,13 @@
         <v>1624</v>
       </c>
       <c r="G262" t="n">
-        <v>1.493383242947164</v>
+        <v>1.493383242947309</v>
       </c>
       <c r="H262" t="n">
-        <v>0.3050698105887383</v>
+        <v>0.3050698105887676</v>
       </c>
       <c r="I262" t="n">
-        <v>-0.6776418224899069</v>
+        <v>-0.677641822489973</v>
       </c>
       <c r="J262" t="n">
         <v>555</v>
@@ -15383,10 +15383,10 @@
         <v>102</v>
       </c>
       <c r="N262" t="n">
-        <v>121.3282260235217</v>
+        <v>121.3282260235335</v>
       </c>
       <c r="O262" t="n">
-        <v>7.219169617726367</v>
+        <v>7.219169617726364</v>
       </c>
       <c r="P262" t="inlineStr">
         <is>
@@ -15419,13 +15419,13 @@
         <v>2176</v>
       </c>
       <c r="G263" t="n">
-        <v>1.066086760410539</v>
+        <v>1.066086760410642</v>
       </c>
       <c r="H263" t="n">
-        <v>0.3015735225572603</v>
+        <v>0.3015735225572896</v>
       </c>
       <c r="I263" t="n">
-        <v>-0.6776418224899069</v>
+        <v>-0.677641822489973</v>
       </c>
       <c r="J263" t="n">
         <v>552</v>
@@ -15440,10 +15440,10 @@
         <v>279</v>
       </c>
       <c r="N263" t="n">
-        <v>304.3825288865401</v>
+        <v>304.3825288865698</v>
       </c>
       <c r="O263" t="n">
-        <v>5.153574065440605</v>
+        <v>5.153574065440603</v>
       </c>
       <c r="P263" t="inlineStr">
         <is>
@@ -15476,13 +15476,13 @@
         <v>2176</v>
       </c>
       <c r="G264" t="n">
-        <v>0.6611459443838116</v>
+        <v>0.6611459443838753</v>
       </c>
       <c r="H264" t="n">
-        <v>0.2072970544466375</v>
+        <v>0.2072970544466575</v>
       </c>
       <c r="I264" t="n">
-        <v>-0.6776418224899069</v>
+        <v>-0.677641822489973</v>
       </c>
       <c r="J264" t="n">
         <v>119</v>
@@ -15497,10 +15497,10 @@
         <v>69</v>
       </c>
       <c r="N264" t="n">
-        <v>53.74794223595063</v>
+        <v>53.74794223595587</v>
       </c>
       <c r="O264" t="n">
-        <v>3.196048125703715</v>
+        <v>3.196048125703712</v>
       </c>
       <c r="P264" t="inlineStr">
         <is>
@@ -15533,13 +15533,13 @@
         <v>2629</v>
       </c>
       <c r="G265" t="n">
-        <v>1.099836087141836</v>
+        <v>1.099836087141942</v>
       </c>
       <c r="H265" t="n">
-        <v>0.4758994770596302</v>
+        <v>0.4758994770596762</v>
       </c>
       <c r="I265" t="n">
-        <v>-0.6776418224899069</v>
+        <v>-0.677641822489973</v>
       </c>
       <c r="J265" t="n">
         <v>103</v>
@@ -15554,10 +15554,10 @@
         <v>66</v>
       </c>
       <c r="N265" t="n">
-        <v>68.63951490812566</v>
+        <v>68.63951490813236</v>
       </c>
       <c r="O265" t="n">
-        <v>5.316721814223749</v>
+        <v>5.316721814223745</v>
       </c>
       <c r="P265" t="inlineStr">
         <is>
@@ -15590,13 +15590,13 @@
         <v>2781</v>
       </c>
       <c r="G266" t="n">
-        <v>0.5907305545949069</v>
+        <v>0.590730554594964</v>
       </c>
       <c r="H266" t="n">
-        <v>0.0537564320742661</v>
+        <v>0.05375643207427117</v>
       </c>
       <c r="I266" t="n">
-        <v>-0.6776418224899069</v>
+        <v>-0.677641822489973</v>
       </c>
       <c r="J266" t="n">
         <v>152</v>
@@ -15611,10 +15611,10 @@
         <v>43</v>
       </c>
       <c r="N266" t="n">
-        <v>59.58647911792261</v>
+        <v>59.58647911792842</v>
       </c>
       <c r="O266" t="n">
-        <v>2.855652821962916</v>
+        <v>2.855652821962914</v>
       </c>
       <c r="P266" t="inlineStr">
         <is>
@@ -15647,13 +15647,13 @@
         <v>2886</v>
       </c>
       <c r="G267" t="n">
-        <v>0.598394227148851</v>
+        <v>0.5983942271489087</v>
       </c>
       <c r="H267" t="n">
-        <v>0.3997424920013115</v>
+        <v>0.3997424920013501</v>
       </c>
       <c r="I267" t="n">
-        <v>-0.6776418224899069</v>
+        <v>-0.677641822489973</v>
       </c>
       <c r="J267" t="n">
         <v>257</v>
@@ -15668,10 +15668,10 @@
         <v>33</v>
       </c>
       <c r="N267" t="n">
-        <v>132.9936052858545</v>
+        <v>132.9936052858675</v>
       </c>
       <c r="O267" t="n">
-        <v>2.892699810619661</v>
+        <v>2.892699810619658</v>
       </c>
       <c r="P267" t="inlineStr">
         <is>
@@ -15704,13 +15704,13 @@
         <v>985</v>
       </c>
       <c r="G268" t="n">
-        <v>0.6048181930474654</v>
+        <v>0.6048181930475239</v>
       </c>
       <c r="H268" t="n">
-        <v>0.06023134041926669</v>
+        <v>0.06023134041927241</v>
       </c>
       <c r="I268" t="n">
-        <v>-0.6341135048054438</v>
+        <v>-0.6341135048055055</v>
       </c>
       <c r="J268" t="n">
         <v>149</v>
@@ -15725,10 +15725,10 @@
         <v>93</v>
       </c>
       <c r="N268" t="n">
-        <v>44.84714857437242</v>
+        <v>44.84714857437677</v>
       </c>
       <c r="O268" t="n">
-        <v>3.228333827454201</v>
+        <v>3.228333827454199</v>
       </c>
       <c r="P268" t="inlineStr">
         <is>
@@ -15761,13 +15761,13 @@
         <v>1486</v>
       </c>
       <c r="G269" t="n">
-        <v>0.5076162517088381</v>
+        <v>0.5076162517088875</v>
       </c>
       <c r="H269" t="n">
-        <v>-0.158964731910087</v>
+        <v>-0.1589647319101026</v>
       </c>
       <c r="I269" t="n">
-        <v>-0.6341135048054438</v>
+        <v>-0.6341135048055055</v>
       </c>
       <c r="J269" t="n">
         <v>501</v>
@@ -15782,7 +15782,7 @@
         <v>403</v>
       </c>
       <c r="N269" t="n">
-        <v>103.3022529665208</v>
+        <v>103.3022529665308</v>
       </c>
       <c r="O269" t="n">
         <v>2.709499706845857</v>
@@ -15818,13 +15818,13 @@
         <v>2147</v>
       </c>
       <c r="G270" t="n">
-        <v>0.5048762397307102</v>
+        <v>0.5048762397307591</v>
       </c>
       <c r="H270" t="n">
-        <v>0.3195767057348289</v>
+        <v>0.31957670573486</v>
       </c>
       <c r="I270" t="n">
-        <v>-0.6341135048054438</v>
+        <v>-0.6341135048055055</v>
       </c>
       <c r="J270" t="n">
         <v>200</v>
@@ -15839,10 +15839,10 @@
         <v>166</v>
       </c>
       <c r="N270" t="n">
-        <v>153.5072997914036</v>
+        <v>153.5072997914185</v>
       </c>
       <c r="O270" t="n">
-        <v>2.694874364125841</v>
+        <v>2.69487436412584</v>
       </c>
       <c r="P270" t="inlineStr">
         <is>
